--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R681"/>
+  <dimension ref="A1:R689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48093,32 +48093,32 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="K663" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L663" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M663" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O663" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P663" t="n">
-        <v>1111</v>
+        <v>2600</v>
       </c>
       <c r="Q663" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R663" t="inlineStr">
         <is>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48156,7 +48156,7 @@
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
@@ -48165,16 +48165,16 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K664" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="L664" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M664" t="n">
-        <v>7000</v>
+        <v>24495</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>389</v>
+        <v>1361</v>
       </c>
       <c r="Q664" t="n">
         <v>18</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48228,7 +48228,7 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -48237,16 +48237,16 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K665" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="L665" t="n">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="M665" t="n">
-        <v>6000</v>
+        <v>22500</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>333</v>
+        <v>1250</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48300,41 +48300,41 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>340</v>
+        <v>178</v>
       </c>
       <c r="K666" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L666" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M666" t="n">
-        <v>4000</v>
+        <v>10500</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>222</v>
+        <v>1050</v>
       </c>
       <c r="Q666" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48372,29 +48372,29 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="K667" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L667" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M667" t="n">
-        <v>13514</v>
+        <v>20500</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
@@ -48403,10 +48403,10 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>1351</v>
+        <v>1139</v>
       </c>
       <c r="Q667" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R667" t="inlineStr">
         <is>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48449,24 +48449,24 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="K668" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L668" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M668" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
@@ -48475,10 +48475,10 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>722</v>
+        <v>850</v>
       </c>
       <c r="Q668" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48521,24 +48521,24 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K669" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L669" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M669" t="n">
-        <v>14000</v>
+        <v>18500</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
@@ -48547,10 +48547,10 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>700</v>
+        <v>1028</v>
       </c>
       <c r="Q669" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -48593,24 +48593,24 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K670" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L670" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M670" t="n">
-        <v>11500</v>
+        <v>6494</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O670" t="inlineStr">
@@ -48619,10 +48619,10 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="Q670" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R670" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -48660,7 +48660,7 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -48669,32 +48669,32 @@
         </is>
       </c>
       <c r="J671" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K671" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L671" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M671" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>625</v>
+        <v>1111</v>
       </c>
       <c r="Q671" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R671" t="inlineStr">
         <is>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48732,41 +48732,41 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="K672" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L672" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M672" t="n">
-        <v>5750</v>
+        <v>7000</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>575</v>
+        <v>389</v>
       </c>
       <c r="Q672" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48804,25 +48804,25 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J673" t="n">
         <v>250</v>
       </c>
       <c r="K673" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L673" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M673" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48831,11 +48831,11 @@
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>528</v>
+        <v>333</v>
       </c>
       <c r="Q673" t="n">
         <v>18</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,32 +48885,32 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K674" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L674" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M674" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>525</v>
+        <v>222</v>
       </c>
       <c r="Q674" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48948,25 +48948,25 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>360</v>
+        <v>35</v>
       </c>
       <c r="K675" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="L675" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M675" t="n">
-        <v>4750</v>
+        <v>13514</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>475</v>
+        <v>1351</v>
       </c>
       <c r="Q675" t="n">
         <v>10</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K676" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L676" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M676" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49097,20 +49097,20 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="K677" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L677" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M677" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="Q677" t="n">
         <v>20</v>
@@ -49169,24 +49169,24 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K678" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L678" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M678" t="n">
-        <v>4000</v>
+        <v>11500</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
@@ -49195,10 +49195,10 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>400</v>
+        <v>639</v>
       </c>
       <c r="Q678" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49245,20 +49245,20 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K679" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L679" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M679" t="n">
-        <v>5750</v>
+        <v>12500</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O679" t="inlineStr">
@@ -49267,10 +49267,10 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>575</v>
+        <v>625</v>
       </c>
       <c r="Q679" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R679" t="inlineStr">
         <is>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K680" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="L680" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M680" t="n">
-        <v>4750</v>
+        <v>5750</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>475</v>
+        <v>575</v>
       </c>
       <c r="Q680" t="n">
         <v>10</v>
@@ -49365,58 +49365,634 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E681" t="n">
+        <v>13</v>
+      </c>
+      <c r="F681" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J681" t="n">
+        <v>250</v>
+      </c>
+      <c r="K681" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L681" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M681" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N681" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O681" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P681" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q681" t="n">
+        <v>18</v>
+      </c>
+      <c r="R681" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>9</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D682" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E682" t="n">
+        <v>13</v>
+      </c>
+      <c r="F682" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J682" t="n">
+        <v>160</v>
+      </c>
+      <c r="K682" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L682" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M682" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N682" t="inlineStr">
+        <is>
+          <t>$/bandeja 20 kilos</t>
+        </is>
+      </c>
+      <c r="O682" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P682" t="n">
+        <v>525</v>
+      </c>
+      <c r="Q682" t="n">
+        <v>20</v>
+      </c>
+      <c r="R682" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>9</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D683" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E683" t="n">
+        <v>13</v>
+      </c>
+      <c r="F683" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J683" t="n">
+        <v>360</v>
+      </c>
+      <c r="K683" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L683" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M683" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N683" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O683" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P683" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q683" t="n">
+        <v>10</v>
+      </c>
+      <c r="R683" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>9</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D684" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E684" t="n">
+        <v>13</v>
+      </c>
+      <c r="F684" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J684" t="n">
+        <v>160</v>
+      </c>
+      <c r="K684" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L684" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M684" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N684" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O684" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P684" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q684" t="n">
+        <v>18</v>
+      </c>
+      <c r="R684" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>9</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D685" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E685" t="n">
+        <v>13</v>
+      </c>
+      <c r="F685" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J685" t="n">
+        <v>79</v>
+      </c>
+      <c r="K685" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L685" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M685" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N685" t="inlineStr">
+        <is>
+          <t>$/bandeja 20 kilos</t>
+        </is>
+      </c>
+      <c r="O685" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P685" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q685" t="n">
+        <v>20</v>
+      </c>
+      <c r="R685" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>9</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D686" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E686" t="n">
+        <v>13</v>
+      </c>
+      <c r="F686" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J686" t="n">
+        <v>79</v>
+      </c>
+      <c r="K686" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L686" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M686" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N686" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O686" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P686" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q686" t="n">
+        <v>10</v>
+      </c>
+      <c r="R686" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>9</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D687" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E681" t="n">
-        <v>13</v>
-      </c>
-      <c r="F681" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H681" t="inlineStr">
+      <c r="E687" t="n">
+        <v>13</v>
+      </c>
+      <c r="F687" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
         <is>
           <t>Larga vida</t>
         </is>
       </c>
-      <c r="I681" t="inlineStr">
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J687" t="n">
+        <v>340</v>
+      </c>
+      <c r="K687" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L687" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M687" t="n">
+        <v>5750</v>
+      </c>
+      <c r="N687" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O687" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P687" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q687" t="n">
+        <v>10</v>
+      </c>
+      <c r="R687" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>9</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D688" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E688" t="n">
+        <v>13</v>
+      </c>
+      <c r="F688" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J688" t="n">
+        <v>250</v>
+      </c>
+      <c r="K688" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L688" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M688" t="n">
+        <v>4750</v>
+      </c>
+      <c r="N688" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O688" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P688" t="n">
+        <v>475</v>
+      </c>
+      <c r="Q688" t="n">
+        <v>10</v>
+      </c>
+      <c r="R688" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>9</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D689" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E689" t="n">
+        <v>13</v>
+      </c>
+      <c r="F689" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J681" t="n">
+      <c r="J689" t="n">
         <v>160</v>
       </c>
-      <c r="K681" t="n">
+      <c r="K689" t="n">
         <v>4000</v>
       </c>
-      <c r="L681" t="n">
+      <c r="L689" t="n">
         <v>4000</v>
       </c>
-      <c r="M681" t="n">
+      <c r="M689" t="n">
         <v>4000</v>
       </c>
-      <c r="N681" t="inlineStr">
+      <c r="N689" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="O681" t="inlineStr">
+      <c r="O689" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P681" t="n">
+      <c r="P689" t="n">
         <v>400</v>
       </c>
-      <c r="Q681" t="n">
+      <c r="Q689" t="n">
         <v>10</v>
       </c>
-      <c r="R681" t="inlineStr">
+      <c r="R689" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R750"/>
+  <dimension ref="A1:R753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48372,7 +48372,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
@@ -48381,20 +48381,20 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K667" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L667" t="n">
         <v>24000</v>
       </c>
-      <c r="L667" t="n">
-        <v>25000</v>
-      </c>
       <c r="M667" t="n">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O667" t="inlineStr">
@@ -48403,10 +48403,10 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>2450</v>
+        <v>1175</v>
       </c>
       <c r="Q667" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R667" t="inlineStr">
         <is>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48449,24 +48449,24 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K668" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L668" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M668" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
@@ -48475,10 +48475,10 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>806</v>
+        <v>1075</v>
       </c>
       <c r="Q668" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48521,24 +48521,24 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>232</v>
+        <v>97</v>
       </c>
       <c r="K669" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L669" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M669" t="n">
-        <v>12500</v>
+        <v>19495</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
@@ -48547,10 +48547,10 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>694</v>
+        <v>975</v>
       </c>
       <c r="Q669" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I670" t="inlineStr">
@@ -48597,16 +48597,16 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="K670" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="L670" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="M670" t="n">
-        <v>8500</v>
+        <v>24500</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>850</v>
+        <v>2450</v>
       </c>
       <c r="Q670" t="n">
         <v>10</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="K671" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L671" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M671" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>583</v>
+        <v>806</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48737,24 +48737,24 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="K672" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L672" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M672" t="n">
-        <v>6489</v>
+        <v>12500</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
@@ -48763,10 +48763,10 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>649</v>
+        <v>694</v>
       </c>
       <c r="Q672" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
@@ -48809,11 +48809,11 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="K673" t="n">
         <v>8000</v>
@@ -48822,11 +48822,11 @@
         <v>9000</v>
       </c>
       <c r="M673" t="n">
-        <v>8505</v>
+        <v>8500</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O673" t="inlineStr">
@@ -48835,10 +48835,10 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>472</v>
+        <v>850</v>
       </c>
       <c r="Q673" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R673" t="inlineStr">
         <is>
@@ -48881,24 +48881,24 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="K674" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L674" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M674" t="n">
-        <v>4492</v>
+        <v>10500</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
@@ -48907,10 +48907,10 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>449</v>
+        <v>583</v>
       </c>
       <c r="Q674" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R674" t="inlineStr">
         <is>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48948,41 +48948,41 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="K675" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L675" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M675" t="n">
-        <v>8000</v>
+        <v>6489</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>444</v>
+        <v>649</v>
       </c>
       <c r="Q675" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49020,25 +49020,25 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K676" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L676" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M676" t="n">
-        <v>7000</v>
+        <v>8505</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>389</v>
+        <v>472</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49092,41 +49092,41 @@
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="K677" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L677" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M677" t="n">
-        <v>6000</v>
+        <v>4492</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>333</v>
+        <v>449</v>
       </c>
       <c r="Q677" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R677" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49164,7 +49164,7 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -49173,16 +49173,16 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K678" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="L678" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M678" t="n">
-        <v>11750</v>
+        <v>8000</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>653</v>
+        <v>444</v>
       </c>
       <c r="Q678" t="n">
         <v>18</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49236,7 +49236,7 @@
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -49248,13 +49248,13 @@
         <v>340</v>
       </c>
       <c r="K679" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="L679" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M679" t="n">
-        <v>10750</v>
+        <v>7000</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>597</v>
+        <v>389</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44351</v>
+        <v>44286</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49308,7 +49308,7 @@
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I680" t="inlineStr">
@@ -49320,13 +49320,13 @@
         <v>250</v>
       </c>
       <c r="K680" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L680" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M680" t="n">
-        <v>9750</v>
+        <v>6000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>542</v>
+        <v>333</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49385,20 +49385,20 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K681" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="L681" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="M681" t="n">
-        <v>8500</v>
+        <v>11750</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="Q681" t="n">
         <v>18</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49452,7 +49452,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -49461,16 +49461,16 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>18</v>
+        <v>340</v>
       </c>
       <c r="K682" t="n">
-        <v>34000</v>
+        <v>10500</v>
       </c>
       <c r="L682" t="n">
-        <v>35000</v>
+        <v>11000</v>
       </c>
       <c r="M682" t="n">
-        <v>34500</v>
+        <v>10750</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49483,7 +49483,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>1917</v>
+        <v>597</v>
       </c>
       <c r="Q682" t="n">
         <v>18</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49524,25 +49524,25 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="K683" t="n">
-        <v>35000</v>
+        <v>9500</v>
       </c>
       <c r="L683" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="M683" t="n">
-        <v>35000</v>
+        <v>9750</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>1944</v>
+        <v>542</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49601,20 +49601,20 @@
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J684" t="n">
         <v>160</v>
       </c>
       <c r="K684" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L684" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="M684" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>722</v>
+        <v>472</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,16 +49677,16 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>340</v>
+        <v>18</v>
       </c>
       <c r="K685" t="n">
-        <v>11000</v>
+        <v>34000</v>
       </c>
       <c r="L685" t="n">
-        <v>11000</v>
+        <v>35000</v>
       </c>
       <c r="M685" t="n">
-        <v>11000</v>
+        <v>34500</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49699,7 +49699,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>611</v>
+        <v>1917</v>
       </c>
       <c r="Q685" t="n">
         <v>18</v>
@@ -49740,25 +49740,25 @@
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="K686" t="n">
-        <v>9000</v>
+        <v>35000</v>
       </c>
       <c r="L686" t="n">
-        <v>9000</v>
+        <v>35000</v>
       </c>
       <c r="M686" t="n">
-        <v>9000</v>
+        <v>35000</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>500</v>
+        <v>1944</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49817,20 +49817,20 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K687" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L687" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M687" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>389</v>
+        <v>722</v>
       </c>
       <c r="Q687" t="n">
         <v>18</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49884,7 +49884,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
@@ -49893,20 +49893,20 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>30</v>
+        <v>340</v>
       </c>
       <c r="K688" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="L688" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="M688" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
@@ -49915,10 +49915,10 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>1667</v>
+        <v>611</v>
       </c>
       <c r="Q688" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49956,41 +49956,41 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="K689" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L689" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M689" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q689" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R689" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50033,20 +50033,20 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K690" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L690" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M690" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -50100,7 +50100,7 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
@@ -50109,20 +50109,20 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="K691" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="L691" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="M691" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
@@ -50131,10 +50131,10 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>444</v>
+        <v>1667</v>
       </c>
       <c r="Q691" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R691" t="inlineStr">
         <is>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
@@ -50181,20 +50181,20 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K692" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L692" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M692" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
@@ -50203,10 +50203,10 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>389</v>
+        <v>1000</v>
       </c>
       <c r="Q692" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50249,36 +50249,36 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K693" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L693" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M693" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q693" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50316,7 +50316,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -50325,32 +50325,32 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="K694" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="L694" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M694" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>2400</v>
+        <v>444</v>
       </c>
       <c r="Q694" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50393,20 +50393,20 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="K695" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L695" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M695" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>694</v>
+        <v>389</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50469,20 +50469,20 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K696" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="L696" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M696" t="n">
-        <v>10750</v>
+        <v>4000</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
@@ -50491,10 +50491,10 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>597</v>
+        <v>400</v>
       </c>
       <c r="Q696" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R696" t="inlineStr">
         <is>
@@ -50532,29 +50532,29 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="K697" t="n">
-        <v>9500</v>
+        <v>23000</v>
       </c>
       <c r="L697" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M697" t="n">
-        <v>9750</v>
+        <v>24000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
@@ -50563,10 +50563,10 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>542</v>
+        <v>2400</v>
       </c>
       <c r="Q697" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R697" t="inlineStr">
         <is>
@@ -50609,20 +50609,20 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="K698" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L698" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M698" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>444</v>
+        <v>694</v>
       </c>
       <c r="Q698" t="n">
         <v>18</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50685,32 +50685,32 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K699" t="n">
-        <v>24000</v>
+        <v>10500</v>
       </c>
       <c r="L699" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="M699" t="n">
-        <v>24429</v>
+        <v>10750</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>1629</v>
+        <v>597</v>
       </c>
       <c r="Q699" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50748,41 +50748,41 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K700" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="L700" t="n">
         <v>10000</v>
       </c>
       <c r="M700" t="n">
-        <v>10000</v>
+        <v>9750</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>625</v>
+        <v>542</v>
       </c>
       <c r="Q700" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R700" t="inlineStr">
         <is>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50820,16 +50820,16 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K701" t="n">
         <v>8000</v>
@@ -50842,19 +50842,19 @@
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="Q701" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R701" t="inlineStr">
         <is>
@@ -50892,41 +50892,41 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K702" t="n">
-        <v>5000</v>
+        <v>24000</v>
       </c>
       <c r="L702" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="M702" t="n">
-        <v>5000</v>
+        <v>24429</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>312</v>
+        <v>1629</v>
       </c>
       <c r="Q702" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50964,7 +50964,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -50973,32 +50973,32 @@
         </is>
       </c>
       <c r="J703" t="n">
+        <v>300</v>
+      </c>
+      <c r="K703" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L703" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M703" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N703" t="inlineStr">
+        <is>
+          <t>$/caja 16 kilos</t>
+        </is>
+      </c>
+      <c r="O703" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P703" t="n">
+        <v>625</v>
+      </c>
+      <c r="Q703" t="n">
         <v>16</v>
-      </c>
-      <c r="K703" t="n">
-        <v>40000</v>
-      </c>
-      <c r="L703" t="n">
-        <v>41000</v>
-      </c>
-      <c r="M703" t="n">
-        <v>40500</v>
-      </c>
-      <c r="N703" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O703" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P703" t="n">
-        <v>2250</v>
-      </c>
-      <c r="Q703" t="n">
-        <v>18</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51036,41 +51036,41 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="K704" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="L704" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="M704" t="n">
-        <v>25500</v>
+        <v>8000</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>2550</v>
+        <v>500</v>
       </c>
       <c r="Q704" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51108,41 +51108,41 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="K705" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L705" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M705" t="n">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>694</v>
+        <v>312</v>
       </c>
       <c r="Q705" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51189,16 +51189,16 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="K706" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="L706" t="n">
-        <v>11000</v>
+        <v>41000</v>
       </c>
       <c r="M706" t="n">
-        <v>10500</v>
+        <v>40500</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>583</v>
+        <v>2250</v>
       </c>
       <c r="Q706" t="n">
         <v>18</v>
@@ -51252,7 +51252,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51261,16 +51261,16 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K707" t="n">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="L707" t="n">
-        <v>6000</v>
+        <v>26000</v>
       </c>
       <c r="M707" t="n">
-        <v>5750</v>
+        <v>25500</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>575</v>
+        <v>2550</v>
       </c>
       <c r="Q707" t="n">
         <v>10</v>
@@ -51329,20 +51329,20 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K708" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L708" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M708" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>472</v>
+        <v>694</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51401,24 +51401,24 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K709" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L709" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M709" t="n">
-        <v>4753</v>
+        <v>10500</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
@@ -51427,10 +51427,10 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>475</v>
+        <v>583</v>
       </c>
       <c r="Q709" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51473,24 +51473,24 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K710" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L710" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M710" t="n">
-        <v>7000</v>
+        <v>5750</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
@@ -51499,10 +51499,10 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>389</v>
+        <v>575</v>
       </c>
       <c r="Q710" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51545,24 +51545,24 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K711" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L711" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M711" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
@@ -51571,10 +51571,10 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>400</v>
+        <v>472</v>
       </c>
       <c r="Q711" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R711" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51612,41 +51612,41 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K712" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L712" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M712" t="n">
-        <v>10000</v>
+        <v>4753</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="Q712" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R712" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51684,25 +51684,25 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K713" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L713" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M713" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51756,41 +51756,41 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K714" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L714" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M714" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="Q714" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R714" t="inlineStr">
         <is>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51828,7 +51828,7 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
@@ -51837,16 +51837,16 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K715" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L715" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M715" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51855,11 +51855,11 @@
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q715" t="n">
         <v>18</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51900,7 +51900,7 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
@@ -51909,16 +51909,16 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K716" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L716" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M716" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51927,11 +51927,11 @@
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51977,11 +51977,11 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K717" t="n">
         <v>6000</v>
@@ -52044,25 +52044,25 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K718" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L718" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M718" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>278</v>
+        <v>722</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52121,20 +52121,20 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K719" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L719" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M719" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52143,11 +52143,11 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q719" t="n">
         <v>18</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52188,7 +52188,7 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
@@ -52197,16 +52197,16 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K720" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L720" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M720" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="Q720" t="n">
         <v>18</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52260,7 +52260,7 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
@@ -52272,13 +52272,13 @@
         <v>250</v>
       </c>
       <c r="K721" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L721" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M721" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>389</v>
+        <v>278</v>
       </c>
       <c r="Q721" t="n">
         <v>18</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52332,25 +52332,25 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K722" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L722" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M722" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q722" t="n">
         <v>18</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52404,25 +52404,25 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>110</v>
+        <v>430</v>
       </c>
       <c r="K723" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L723" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M723" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52431,11 +52431,11 @@
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q723" t="n">
         <v>18</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44376</v>
+        <v>44176</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52476,41 +52476,41 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="K724" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="L724" t="n">
-        <v>28000</v>
+        <v>7000</v>
       </c>
       <c r="M724" t="n">
-        <v>26440</v>
+        <v>7000</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>2644</v>
+        <v>389</v>
       </c>
       <c r="Q724" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R724" t="inlineStr">
         <is>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -52548,25 +52548,25 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="K725" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="L725" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M725" t="n">
-        <v>11750</v>
+        <v>6000</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>653</v>
+        <v>333</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -52620,25 +52620,25 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="K726" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="L726" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M726" t="n">
-        <v>10750</v>
+        <v>5000</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52647,11 +52647,11 @@
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>597</v>
+        <v>278</v>
       </c>
       <c r="Q726" t="n">
         <v>18</v>
@@ -52692,7 +52692,7 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
@@ -52701,16 +52701,16 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="K727" t="n">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="L727" t="n">
-        <v>6000</v>
+        <v>28000</v>
       </c>
       <c r="M727" t="n">
-        <v>5750</v>
+        <v>26440</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52723,7 +52723,7 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>575</v>
+        <v>2644</v>
       </c>
       <c r="Q727" t="n">
         <v>10</v>
@@ -52769,20 +52769,20 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="K728" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="L728" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M728" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>542</v>
+        <v>653</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52841,24 +52841,24 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K729" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="L729" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M729" t="n">
-        <v>4750</v>
+        <v>10750</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
@@ -52867,10 +52867,10 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>475</v>
+        <v>597</v>
       </c>
       <c r="Q729" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52913,24 +52913,24 @@
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K730" t="n">
-        <v>8500</v>
+        <v>5500</v>
       </c>
       <c r="L730" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M730" t="n">
-        <v>8747</v>
+        <v>5750</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O730" t="inlineStr">
@@ -52939,10 +52939,10 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>486</v>
+        <v>575</v>
       </c>
       <c r="Q730" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R730" t="inlineStr">
         <is>
@@ -52985,24 +52985,24 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K731" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="L731" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M731" t="n">
-        <v>4000</v>
+        <v>9750</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O731" t="inlineStr">
@@ -53011,10 +53011,10 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>400</v>
+        <v>542</v>
       </c>
       <c r="Q731" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R731" t="inlineStr">
         <is>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53052,41 +53052,41 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K732" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="L732" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M732" t="n">
-        <v>13000</v>
+        <v>4750</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>722</v>
+        <v>475</v>
       </c>
       <c r="Q732" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R732" t="inlineStr">
         <is>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53124,25 +53124,25 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K733" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="L733" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M733" t="n">
-        <v>11000</v>
+        <v>8747</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53151,11 +53151,11 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>611</v>
+        <v>486</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -53196,41 +53196,41 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K734" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L734" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M734" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q734" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R734" t="inlineStr">
         <is>
@@ -53273,20 +53273,20 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J735" t="n">
         <v>70</v>
       </c>
       <c r="K735" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L735" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M735" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53299,7 +53299,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>389</v>
+        <v>722</v>
       </c>
       <c r="Q735" t="n">
         <v>18</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -53340,7 +53340,7 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
@@ -53349,16 +53349,16 @@
         </is>
       </c>
       <c r="J736" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K736" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L736" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M736" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>694</v>
+        <v>611</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53412,7 +53412,7 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
@@ -53421,16 +53421,16 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K737" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L737" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M737" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53439,11 +53439,11 @@
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53489,20 +53489,20 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K738" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L738" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M738" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>639</v>
+        <v>389</v>
       </c>
       <c r="Q738" t="n">
         <v>18</v>
@@ -53556,25 +53556,25 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K739" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L739" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M739" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53583,11 +53583,11 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>556</v>
+        <v>694</v>
       </c>
       <c r="Q739" t="n">
         <v>18</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53633,36 +53633,36 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="K740" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L740" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M740" t="n">
-        <v>14505</v>
+        <v>11000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>725</v>
+        <v>611</v>
       </c>
       <c r="Q740" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R740" t="inlineStr">
         <is>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53700,7 +53700,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
@@ -53709,32 +53709,32 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K741" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L741" t="n">
         <v>12000</v>
       </c>
-      <c r="L741" t="n">
-        <v>13000</v>
-      </c>
       <c r="M741" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="Q741" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R741" t="inlineStr">
         <is>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53772,7 +53772,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -53781,32 +53781,32 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K742" t="n">
         <v>10000</v>
       </c>
       <c r="L742" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M742" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>525</v>
+        <v>556</v>
       </c>
       <c r="Q742" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R742" t="inlineStr">
         <is>
@@ -53849,20 +53849,20 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K743" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L743" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M743" t="n">
-        <v>8500</v>
+        <v>14505</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>425</v>
+        <v>725</v>
       </c>
       <c r="Q743" t="n">
         <v>20</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53921,36 +53921,36 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K744" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L744" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M744" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="Q744" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R744" t="inlineStr">
         <is>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53993,36 +53993,36 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K745" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L745" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M745" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>389</v>
+        <v>525</v>
       </c>
       <c r="Q745" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R745" t="inlineStr">
         <is>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54065,36 +54065,36 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K746" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L746" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M746" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>278</v>
+        <v>425</v>
       </c>
       <c r="Q746" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R746" t="inlineStr">
         <is>
@@ -54137,20 +54137,20 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J747" t="n">
         <v>160</v>
       </c>
       <c r="K747" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L747" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M747" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="Q747" t="n">
         <v>18</v>
@@ -54204,7 +54204,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
@@ -54216,13 +54216,13 @@
         <v>340</v>
       </c>
       <c r="K748" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L748" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M748" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q748" t="n">
         <v>18</v>
@@ -54276,7 +54276,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -54288,13 +54288,13 @@
         <v>250</v>
       </c>
       <c r="K749" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L749" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M749" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54303,11 +54303,11 @@
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q749" t="n">
         <v>18</v>
@@ -54348,7 +54348,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -54375,7 +54375,7 @@
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P750" t="n">
@@ -54385,6 +54385,222 @@
         <v>18</v>
       </c>
       <c r="R750" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>9</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D751" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E751" t="n">
+        <v>13</v>
+      </c>
+      <c r="F751" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I751" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J751" t="n">
+        <v>340</v>
+      </c>
+      <c r="K751" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L751" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M751" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N751" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O751" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P751" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q751" t="n">
+        <v>18</v>
+      </c>
+      <c r="R751" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>9</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D752" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E752" t="n">
+        <v>13</v>
+      </c>
+      <c r="F752" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G752" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I752" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J752" t="n">
+        <v>250</v>
+      </c>
+      <c r="K752" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L752" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M752" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N752" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O752" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P752" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q752" t="n">
+        <v>18</v>
+      </c>
+      <c r="R752" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>9</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D753" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E753" t="n">
+        <v>13</v>
+      </c>
+      <c r="F753" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I753" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J753" t="n">
+        <v>160</v>
+      </c>
+      <c r="K753" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L753" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M753" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N753" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O753" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P753" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q753" t="n">
+        <v>18</v>
+      </c>
+      <c r="R753" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R753"/>
+  <dimension ref="A1:R764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45852,7 +45852,7 @@
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
@@ -45861,32 +45861,32 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K632" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L632" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="M632" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>667</v>
+        <v>2250</v>
       </c>
       <c r="Q632" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R632" t="inlineStr">
         <is>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K633" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L633" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="M633" t="n">
-        <v>10000</v>
+        <v>20500</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45951,11 +45951,11 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>556</v>
+        <v>1139</v>
       </c>
       <c r="Q633" t="n">
         <v>18</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K634" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L634" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="M634" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46023,11 +46023,11 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>444</v>
+        <v>1028</v>
       </c>
       <c r="Q634" t="n">
         <v>18</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44306</v>
+        <v>44476</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46068,7 +46068,7 @@
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I635" t="inlineStr">
@@ -46077,32 +46077,32 @@
         </is>
       </c>
       <c r="J635" t="n">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="K635" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="L635" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M635" t="n">
-        <v>35000</v>
+        <v>24496</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>1944</v>
+        <v>1225</v>
       </c>
       <c r="Q635" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R635" t="inlineStr">
         <is>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44306</v>
+        <v>44476</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46145,36 +46145,36 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J636" t="n">
         <v>160</v>
       </c>
       <c r="K636" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L636" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M636" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="Q636" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R636" t="inlineStr">
         <is>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44306</v>
+        <v>44476</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K637" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L637" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M637" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46239,11 +46239,11 @@
       </c>
       <c r="O637" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P637" t="n">
-        <v>611</v>
+        <v>917</v>
       </c>
       <c r="Q637" t="n">
         <v>18</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44306</v>
+        <v>44476</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -46293,32 +46293,32 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K638" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="L638" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="M638" t="n">
-        <v>9000</v>
+        <v>22494</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>500</v>
+        <v>1125</v>
       </c>
       <c r="Q638" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R638" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44306</v>
+        <v>44476</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46361,36 +46361,36 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K639" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L639" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M639" t="n">
-        <v>7000</v>
+        <v>5495</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P639" t="n">
-        <v>389</v>
+        <v>550</v>
       </c>
       <c r="Q639" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R639" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44369</v>
+        <v>44476</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -46428,25 +46428,25 @@
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="K640" t="n">
-        <v>40000</v>
+        <v>14000</v>
       </c>
       <c r="L640" t="n">
-        <v>41000</v>
+        <v>15000</v>
       </c>
       <c r="M640" t="n">
-        <v>40480</v>
+        <v>14495</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>2249</v>
+        <v>805</v>
       </c>
       <c r="Q640" t="n">
         <v>18</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44369</v>
+        <v>44476</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -46500,29 +46500,29 @@
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K641" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L641" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="M641" t="n">
-        <v>25500</v>
+        <v>20500</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
@@ -46531,10 +46531,10 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>2550</v>
+        <v>1025</v>
       </c>
       <c r="Q641" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R641" t="inlineStr">
         <is>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44369</v>
+        <v>44476</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -46577,24 +46577,24 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K642" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L642" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M642" t="n">
-        <v>12500</v>
+        <v>4000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O642" t="inlineStr">
@@ -46603,10 +46603,10 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>694</v>
+        <v>400</v>
       </c>
       <c r="Q642" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R642" t="inlineStr">
         <is>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46653,16 +46653,16 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K643" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="L643" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M643" t="n">
-        <v>10750</v>
+        <v>12000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46671,11 +46671,11 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>597</v>
+        <v>667</v>
       </c>
       <c r="Q643" t="n">
         <v>18</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -46725,16 +46725,16 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K644" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L644" t="n">
         <v>10000</v>
       </c>
       <c r="M644" t="n">
-        <v>9750</v>
+        <v>10000</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46743,11 +46743,11 @@
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="Q644" t="n">
         <v>18</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44369</v>
+        <v>44263</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46797,16 +46797,16 @@
         </is>
       </c>
       <c r="J645" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K645" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="L645" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M645" t="n">
-        <v>8750</v>
+        <v>8000</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="Q645" t="n">
         <v>18</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46872,13 +46872,13 @@
         <v>30</v>
       </c>
       <c r="K646" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L646" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M646" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,11 +46887,11 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>1000</v>
+        <v>1944</v>
       </c>
       <c r="Q646" t="n">
         <v>18</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46932,41 +46932,41 @@
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K647" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L647" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M647" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="Q647" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R647" t="inlineStr">
         <is>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -47013,32 +47013,32 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K648" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L648" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M648" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>400</v>
+        <v>611</v>
       </c>
       <c r="Q648" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R648" t="inlineStr">
         <is>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -47076,25 +47076,25 @@
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="K649" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="L649" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="M649" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>1778</v>
+        <v>500</v>
       </c>
       <c r="Q649" t="n">
         <v>18</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K650" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L650" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M650" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>778</v>
+        <v>389</v>
       </c>
       <c r="Q650" t="n">
         <v>18</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47220,7 +47220,7 @@
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -47229,16 +47229,16 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>340</v>
+        <v>25</v>
       </c>
       <c r="K651" t="n">
-        <v>12000</v>
+        <v>40000</v>
       </c>
       <c r="L651" t="n">
-        <v>12000</v>
+        <v>41000</v>
       </c>
       <c r="M651" t="n">
-        <v>12000</v>
+        <v>40480</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47247,11 +47247,11 @@
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>667</v>
+        <v>2249</v>
       </c>
       <c r="Q651" t="n">
         <v>18</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47292,41 +47292,41 @@
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="K652" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="L652" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="M652" t="n">
-        <v>10000</v>
+        <v>25500</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>556</v>
+        <v>2550</v>
       </c>
       <c r="Q652" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R652" t="inlineStr">
         <is>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47369,20 +47369,20 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K653" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L653" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M653" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,11 +47391,11 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>444</v>
+        <v>694</v>
       </c>
       <c r="Q653" t="n">
         <v>18</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47436,25 +47436,25 @@
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="K654" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L654" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M654" t="n">
-        <v>12000</v>
+        <v>10750</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47463,11 +47463,11 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P654" t="n">
-        <v>667</v>
+        <v>597</v>
       </c>
       <c r="Q654" t="n">
         <v>18</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47508,25 +47508,25 @@
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J655" t="n">
         <v>340</v>
       </c>
       <c r="K655" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="L655" t="n">
         <v>10000</v>
       </c>
       <c r="M655" t="n">
-        <v>10000</v>
+        <v>9750</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47535,11 +47535,11 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="Q655" t="n">
         <v>18</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47580,25 +47580,25 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J656" t="n">
         <v>250</v>
       </c>
       <c r="K656" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="L656" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M656" t="n">
-        <v>8000</v>
+        <v>8750</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47607,11 +47607,11 @@
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="Q656" t="n">
         <v>18</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -47652,25 +47652,25 @@
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K657" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="L657" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M657" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>333</v>
+        <v>1000</v>
       </c>
       <c r="Q657" t="n">
         <v>18</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -47733,16 +47733,16 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="K658" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L658" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M658" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="Q658" t="n">
         <v>10</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47801,24 +47801,24 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="K659" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L659" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M659" t="n">
-        <v>12500</v>
+        <v>4000</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O659" t="inlineStr">
@@ -47827,10 +47827,10 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>694</v>
+        <v>400</v>
       </c>
       <c r="Q659" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R659" t="inlineStr">
         <is>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47868,7 +47868,7 @@
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I660" t="inlineStr">
@@ -47877,16 +47877,16 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="K660" t="n">
-        <v>10500</v>
+        <v>32000</v>
       </c>
       <c r="L660" t="n">
-        <v>11000</v>
+        <v>32000</v>
       </c>
       <c r="M660" t="n">
-        <v>10750</v>
+        <v>32000</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47895,11 +47895,11 @@
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P660" t="n">
-        <v>597</v>
+        <v>1778</v>
       </c>
       <c r="Q660" t="n">
         <v>18</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47945,20 +47945,20 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J661" t="n">
         <v>160</v>
       </c>
       <c r="K661" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="L661" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M661" t="n">
-        <v>9750</v>
+        <v>14000</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47967,11 +47967,11 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P661" t="n">
-        <v>542</v>
+        <v>778</v>
       </c>
       <c r="Q661" t="n">
         <v>18</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48017,20 +48017,20 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K662" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L662" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M662" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q662" t="n">
         <v>18</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48084,25 +48084,25 @@
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J663" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="K663" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="L663" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="M663" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>1944</v>
+        <v>556</v>
       </c>
       <c r="Q663" t="n">
         <v>18</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48161,11 +48161,11 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K664" t="n">
         <v>8000</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48228,25 +48228,25 @@
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K665" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L665" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M665" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44321</v>
+        <v>44301</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48300,25 +48300,25 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K666" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L666" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M666" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>222</v>
+        <v>556</v>
       </c>
       <c r="Q666" t="n">
         <v>18</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44298</v>
+        <v>44301</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48372,25 +48372,25 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K667" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L667" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M667" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>833</v>
+        <v>444</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44298</v>
+        <v>44301</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48444,25 +48444,25 @@
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K668" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L668" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M668" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48475,7 +48475,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>722</v>
+        <v>333</v>
       </c>
       <c r="Q668" t="n">
         <v>18</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48516,41 +48516,41 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="K669" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="L669" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="M669" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>611</v>
+        <v>2400</v>
       </c>
       <c r="Q669" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="K670" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L670" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M670" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48615,11 +48615,11 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P670" t="n">
-        <v>500</v>
+        <v>694</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -48660,25 +48660,25 @@
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K671" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L671" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M671" t="n">
-        <v>12000</v>
+        <v>10750</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>667</v>
+        <v>597</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48732,25 +48732,25 @@
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J672" t="n">
         <v>160</v>
       </c>
       <c r="K672" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="L672" t="n">
         <v>10000</v>
       </c>
       <c r="M672" t="n">
-        <v>10000</v>
+        <v>9750</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48759,11 +48759,11 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="Q672" t="n">
         <v>18</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48804,12 +48804,12 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J673" t="n">
@@ -48831,7 +48831,7 @@
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P673" t="n">
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48876,25 +48876,25 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K674" t="n">
-        <v>6000</v>
+        <v>35000</v>
       </c>
       <c r="L674" t="n">
-        <v>6000</v>
+        <v>35000</v>
       </c>
       <c r="M674" t="n">
-        <v>6000</v>
+        <v>35000</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48903,11 +48903,11 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>333</v>
+        <v>1944</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44414</v>
+        <v>44321</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48960,29 +48960,29 @@
         <v>250</v>
       </c>
       <c r="K675" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L675" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M675" t="n">
-        <v>4750</v>
+        <v>8000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="Q675" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R675" t="inlineStr">
         <is>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44414</v>
+        <v>44321</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49032,29 +49032,29 @@
         <v>160</v>
       </c>
       <c r="K676" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L676" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M676" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="Q676" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R676" t="inlineStr">
         <is>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44414</v>
+        <v>44321</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49101,32 +49101,32 @@
         </is>
       </c>
       <c r="J677" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K677" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L677" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M677" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="Q677" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R677" t="inlineStr">
         <is>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49164,41 +49164,41 @@
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K678" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="L678" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M678" t="n">
-        <v>21520</v>
+        <v>15000</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>2152</v>
+        <v>833</v>
       </c>
       <c r="Q678" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R678" t="inlineStr">
         <is>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49245,16 +49245,16 @@
         </is>
       </c>
       <c r="J679" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="K679" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L679" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M679" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>528</v>
+        <v>722</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K680" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L680" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M680" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>694</v>
+        <v>611</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49385,36 +49385,36 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K681" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L681" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M681" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="Q681" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R681" t="inlineStr">
         <is>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49452,25 +49452,25 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J682" t="n">
         <v>70</v>
       </c>
       <c r="K682" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L682" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M682" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49479,11 +49479,11 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>417</v>
+        <v>667</v>
       </c>
       <c r="Q682" t="n">
         <v>18</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49524,25 +49524,25 @@
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K683" t="n">
         <v>10000</v>
       </c>
       <c r="L683" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M683" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49551,11 +49551,11 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49596,25 +49596,25 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K684" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L684" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M684" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49623,11 +49623,11 @@
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49668,7 +49668,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -49677,16 +49677,16 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K685" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L685" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M685" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49695,11 +49695,11 @@
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q685" t="n">
         <v>18</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49745,36 +49745,36 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K686" t="n">
-        <v>11000</v>
+        <v>4500</v>
       </c>
       <c r="L686" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M686" t="n">
-        <v>11000</v>
+        <v>4750</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>611</v>
+        <v>475</v>
       </c>
       <c r="Q686" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R686" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49817,36 +49817,36 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K687" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="L687" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M687" t="n">
-        <v>9000</v>
+        <v>3750</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="Q687" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R687" t="inlineStr">
         <is>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49889,36 +49889,36 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="K688" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L688" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M688" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="Q688" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49956,41 +49956,41 @@
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K689" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="L689" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="M689" t="n">
-        <v>5000</v>
+        <v>21520</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>278</v>
+        <v>2152</v>
       </c>
       <c r="Q689" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R689" t="inlineStr">
         <is>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50028,7 +50028,7 @@
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I690" t="inlineStr">
@@ -50037,16 +50037,16 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K690" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L690" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M690" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50055,11 +50055,11 @@
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>444</v>
+        <v>528</v>
       </c>
       <c r="Q690" t="n">
         <v>18</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -50100,25 +50100,25 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K691" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L691" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M691" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>333</v>
+        <v>694</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -50172,41 +50172,41 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K692" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L692" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M692" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>278</v>
+        <v>650</v>
       </c>
       <c r="Q692" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50244,41 +50244,41 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="K693" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="L693" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="M693" t="n">
-        <v>25519</v>
+        <v>7500</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>2552</v>
+        <v>417</v>
       </c>
       <c r="Q693" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50321,20 +50321,20 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K694" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L694" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M694" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>833</v>
+        <v>583</v>
       </c>
       <c r="Q694" t="n">
         <v>18</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50393,20 +50393,20 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="K695" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L695" t="n">
-        <v>14500</v>
+        <v>6000</v>
       </c>
       <c r="M695" t="n">
-        <v>14250</v>
+        <v>6000</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50415,11 +50415,11 @@
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>792</v>
+        <v>333</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50465,24 +50465,24 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K696" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="L696" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M696" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
@@ -50491,10 +50491,10 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="Q696" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R696" t="inlineStr">
         <is>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50537,20 +50537,20 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K697" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L697" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M697" t="n">
-        <v>13250</v>
+        <v>11000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50559,11 +50559,11 @@
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>736</v>
+        <v>611</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50609,36 +50609,36 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K698" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L698" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M698" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="Q698" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50681,20 +50681,20 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K699" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L699" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M699" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50703,11 +50703,11 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>639</v>
+        <v>389</v>
       </c>
       <c r="Q699" t="n">
         <v>18</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50757,32 +50757,32 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K700" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L700" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M700" t="n">
-        <v>5747</v>
+        <v>5000</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>575</v>
+        <v>278</v>
       </c>
       <c r="Q700" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R700" t="inlineStr">
         <is>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50820,41 +50820,41 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K701" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L701" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M701" t="n">
-        <v>14505</v>
+        <v>8000</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>725</v>
+        <v>444</v>
       </c>
       <c r="Q701" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R701" t="inlineStr">
         <is>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50892,41 +50892,41 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K702" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L702" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M702" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>625</v>
+        <v>333</v>
       </c>
       <c r="Q702" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50964,41 +50964,41 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K703" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L703" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M703" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>525</v>
+        <v>278</v>
       </c>
       <c r="Q703" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51036,29 +51036,29 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="K704" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="L704" t="n">
-        <v>9000</v>
+        <v>26000</v>
       </c>
       <c r="M704" t="n">
-        <v>8500</v>
+        <v>25519</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
@@ -51067,10 +51067,10 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>425</v>
+        <v>2552</v>
       </c>
       <c r="Q704" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44187</v>
+        <v>44392</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51108,41 +51108,41 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="K705" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L705" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M705" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>1333</v>
+        <v>833</v>
       </c>
       <c r="Q705" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44187</v>
+        <v>44392</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51189,20 +51189,20 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="K706" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L706" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M706" t="n">
-        <v>13000</v>
+        <v>14250</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
@@ -51211,10 +51211,10 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>1300</v>
+        <v>792</v>
       </c>
       <c r="Q706" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51252,7 +51252,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51261,16 +51261,16 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="K707" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="L707" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M707" t="n">
-        <v>25000</v>
+        <v>7750</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>2500</v>
+        <v>775</v>
       </c>
       <c r="Q707" t="n">
         <v>10</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51329,20 +51329,20 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K708" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L708" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="M708" t="n">
-        <v>15494</v>
+        <v>13250</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>861</v>
+        <v>736</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51401,24 +51401,24 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K709" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L709" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M709" t="n">
-        <v>13500</v>
+        <v>6750</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
@@ -51427,10 +51427,10 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q709" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51473,24 +51473,24 @@
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="K710" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L710" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M710" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
@@ -51499,10 +51499,10 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>975</v>
+        <v>639</v>
       </c>
       <c r="Q710" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44466</v>
+        <v>44392</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51545,20 +51545,20 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K711" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L711" t="n">
         <v>6000</v>
       </c>
-      <c r="L711" t="n">
-        <v>7000</v>
-      </c>
       <c r="M711" t="n">
-        <v>6500</v>
+        <v>5747</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="Q711" t="n">
         <v>10</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51617,24 +51617,24 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K712" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L712" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M712" t="n">
-        <v>11500</v>
+        <v>14505</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O712" t="inlineStr">
@@ -51643,10 +51643,10 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>639</v>
+        <v>725</v>
       </c>
       <c r="Q712" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R712" t="inlineStr">
         <is>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51689,20 +51689,20 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K713" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L713" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M713" t="n">
-        <v>17494</v>
+        <v>12500</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>875</v>
+        <v>625</v>
       </c>
       <c r="Q713" t="n">
         <v>20</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51765,20 +51765,20 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K714" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L714" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M714" t="n">
-        <v>4495</v>
+        <v>10500</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O714" t="inlineStr">
@@ -51787,10 +51787,10 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="Q714" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R714" t="inlineStr">
         <is>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51837,20 +51837,20 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K715" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L715" t="n">
         <v>9000</v>
       </c>
-      <c r="L715" t="n">
-        <v>10000</v>
-      </c>
       <c r="M715" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
@@ -51859,10 +51859,10 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>528</v>
+        <v>425</v>
       </c>
       <c r="Q715" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51900,41 +51900,41 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="K716" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L716" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M716" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>775</v>
+        <v>1333</v>
       </c>
       <c r="Q716" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R716" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51972,25 +51972,25 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="K717" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="L717" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="M717" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="Q717" t="n">
         <v>10</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52044,7 +52044,7 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -52053,32 +52053,32 @@
         </is>
       </c>
       <c r="J718" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K718" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L718" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="M718" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>722</v>
+        <v>2500</v>
       </c>
       <c r="Q718" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R718" t="inlineStr">
         <is>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52121,20 +52121,20 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K719" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L719" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M719" t="n">
-        <v>11000</v>
+        <v>15494</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52143,11 +52143,11 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>611</v>
+        <v>861</v>
       </c>
       <c r="Q719" t="n">
         <v>18</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K720" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L720" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M720" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q720" t="n">
         <v>18</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52260,7 +52260,7 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
@@ -52269,20 +52269,20 @@
         </is>
       </c>
       <c r="J721" t="n">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="K721" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="L721" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M721" t="n">
-        <v>24500</v>
+        <v>19500</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
@@ -52291,10 +52291,10 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>2450</v>
+        <v>975</v>
       </c>
       <c r="Q721" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R721" t="inlineStr">
         <is>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52337,24 +52337,24 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K722" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L722" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M722" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
@@ -52363,10 +52363,10 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>806</v>
+        <v>650</v>
       </c>
       <c r="Q722" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R722" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52409,20 +52409,20 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="K723" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L723" t="n">
         <v>12000</v>
       </c>
-      <c r="L723" t="n">
-        <v>13000</v>
-      </c>
       <c r="M723" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52435,7 +52435,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>694</v>
+        <v>639</v>
       </c>
       <c r="Q723" t="n">
         <v>18</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52481,24 +52481,24 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="K724" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L724" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M724" t="n">
-        <v>8500</v>
+        <v>17494</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O724" t="inlineStr">
@@ -52507,10 +52507,10 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="Q724" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R724" t="inlineStr">
         <is>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -52557,20 +52557,20 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="K725" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L725" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M725" t="n">
-        <v>10500</v>
+        <v>4495</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O725" t="inlineStr">
@@ -52579,10 +52579,10 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="Q725" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R725" t="inlineStr">
         <is>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -52625,24 +52625,24 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K726" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L726" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M726" t="n">
-        <v>6489</v>
+        <v>9500</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
@@ -52651,10 +52651,10 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>649</v>
+        <v>528</v>
       </c>
       <c r="Q726" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -52701,20 +52701,20 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="K727" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L727" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M727" t="n">
-        <v>8505</v>
+        <v>15500</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
@@ -52723,10 +52723,10 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>472</v>
+        <v>775</v>
       </c>
       <c r="Q727" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R727" t="inlineStr">
         <is>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -52773,16 +52773,16 @@
         </is>
       </c>
       <c r="J728" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K728" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L728" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="M728" t="n">
-        <v>4492</v>
+        <v>3000</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>449</v>
+        <v>300</v>
       </c>
       <c r="Q728" t="n">
         <v>10</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44201</v>
+        <v>44270</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52836,7 +52836,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -52845,7 +52845,7 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K729" t="n">
         <v>13000</v>
@@ -52858,19 +52858,19 @@
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>867</v>
+        <v>722</v>
       </c>
       <c r="Q729" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44193</v>
+        <v>44270</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52908,41 +52908,41 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K730" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="L730" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="M730" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>2500</v>
+        <v>611</v>
       </c>
       <c r="Q730" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R730" t="inlineStr">
         <is>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -52980,25 +52980,25 @@
       </c>
       <c r="H731" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K731" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L731" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M731" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53007,11 +53007,11 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q731" t="n">
         <v>18</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53052,7 +53052,7 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
@@ -53061,32 +53061,32 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>340</v>
+        <v>34</v>
       </c>
       <c r="K732" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="L732" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M732" t="n">
-        <v>7000</v>
+        <v>24500</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>389</v>
+        <v>2450</v>
       </c>
       <c r="Q732" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R732" t="inlineStr">
         <is>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53124,25 +53124,25 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="K733" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L733" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M733" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53151,11 +53151,11 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>333</v>
+        <v>806</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -53196,7 +53196,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
@@ -53205,20 +53205,20 @@
         </is>
       </c>
       <c r="J734" t="n">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="K734" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L734" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="M734" t="n">
-        <v>25500</v>
+        <v>12500</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O734" t="inlineStr">
@@ -53227,10 +53227,10 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>2550</v>
+        <v>694</v>
       </c>
       <c r="Q734" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R734" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53273,24 +53273,24 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="K735" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L735" t="n">
-        <v>17500</v>
+        <v>9000</v>
       </c>
       <c r="M735" t="n">
-        <v>17253</v>
+        <v>8500</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
@@ -53299,10 +53299,10 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>958</v>
+        <v>850</v>
       </c>
       <c r="Q735" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R735" t="inlineStr">
         <is>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -53345,20 +53345,20 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>340</v>
+        <v>142</v>
       </c>
       <c r="K736" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="L736" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M736" t="n">
-        <v>15750</v>
+        <v>10500</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>875</v>
+        <v>583</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53417,20 +53417,20 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="K737" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L737" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M737" t="n">
-        <v>7750</v>
+        <v>6489</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>775</v>
+        <v>649</v>
       </c>
       <c r="Q737" t="n">
         <v>10</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53489,20 +53489,20 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K738" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L738" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="M738" t="n">
-        <v>14250</v>
+        <v>8505</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>792</v>
+        <v>472</v>
       </c>
       <c r="Q738" t="n">
         <v>18</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53561,20 +53561,20 @@
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K739" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="L739" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M739" t="n">
-        <v>6750</v>
+        <v>4492</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53587,7 +53587,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>675</v>
+        <v>449</v>
       </c>
       <c r="Q739" t="n">
         <v>10</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44389</v>
+        <v>44201</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53628,41 +53628,41 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K740" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L740" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M740" t="n">
-        <v>11750</v>
+        <v>13000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>653</v>
+        <v>867</v>
       </c>
       <c r="Q740" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R740" t="inlineStr">
         <is>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53700,25 +53700,25 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="K741" t="n">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="L741" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="M741" t="n">
-        <v>5747</v>
+        <v>25000</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>575</v>
+        <v>2500</v>
       </c>
       <c r="Q741" t="n">
         <v>10</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53772,7 +53772,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -53781,16 +53781,16 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K742" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L742" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M742" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53799,11 +53799,11 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q742" t="n">
         <v>18</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53844,7 +53844,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -53853,16 +53853,16 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K743" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L743" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M743" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53871,11 +53871,11 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q743" t="n">
         <v>18</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53916,7 +53916,7 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
@@ -53925,16 +53925,16 @@
         </is>
       </c>
       <c r="J744" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K744" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L744" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M744" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53943,11 +53943,11 @@
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q744" t="n">
         <v>18</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53988,41 +53988,41 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K745" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="L745" t="n">
-        <v>6000</v>
+        <v>26000</v>
       </c>
       <c r="M745" t="n">
-        <v>6000</v>
+        <v>25500</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>333</v>
+        <v>2550</v>
       </c>
       <c r="Q745" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R745" t="inlineStr">
         <is>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54060,25 +54060,25 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K746" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L746" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="M746" t="n">
-        <v>10000</v>
+        <v>17253</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54087,11 +54087,11 @@
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>556</v>
+        <v>958</v>
       </c>
       <c r="Q746" t="n">
         <v>18</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54132,25 +54132,25 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K747" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="L747" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M747" t="n">
-        <v>8000</v>
+        <v>15750</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>444</v>
+        <v>875</v>
       </c>
       <c r="Q747" t="n">
         <v>18</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54204,41 +54204,41 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K748" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="L748" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M748" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>333</v>
+        <v>775</v>
       </c>
       <c r="Q748" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R748" t="inlineStr">
         <is>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54276,29 +54276,29 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="K749" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L749" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="M749" t="n">
-        <v>20000</v>
+        <v>14250</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O749" t="inlineStr">
@@ -54307,10 +54307,10 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>2000</v>
+        <v>792</v>
       </c>
       <c r="Q749" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R749" t="inlineStr">
         <is>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54353,36 +54353,36 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K750" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="L750" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M750" t="n">
-        <v>13000</v>
+        <v>6750</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>722</v>
+        <v>675</v>
       </c>
       <c r="Q750" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R750" t="inlineStr">
         <is>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54425,20 +54425,20 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J751" t="n">
         <v>160</v>
       </c>
       <c r="K751" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L751" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M751" t="n">
-        <v>11000</v>
+        <v>11750</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54447,11 +54447,11 @@
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>611</v>
+        <v>653</v>
       </c>
       <c r="Q751" t="n">
         <v>18</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54497,36 +54497,36 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K752" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L752" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M752" t="n">
-        <v>9000</v>
+        <v>5747</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="Q752" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R752" t="inlineStr">
         <is>
@@ -54549,58 +54549,850 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E753" t="n">
+        <v>13</v>
+      </c>
+      <c r="F753" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I753" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J753" t="n">
+        <v>30</v>
+      </c>
+      <c r="K753" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L753" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M753" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N753" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O753" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P753" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q753" t="n">
+        <v>18</v>
+      </c>
+      <c r="R753" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>9</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D754" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E754" t="n">
+        <v>13</v>
+      </c>
+      <c r="F754" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G754" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I754" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J754" t="n">
+        <v>250</v>
+      </c>
+      <c r="K754" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L754" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M754" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N754" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O754" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P754" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q754" t="n">
+        <v>18</v>
+      </c>
+      <c r="R754" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>9</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D755" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E755" t="n">
+        <v>13</v>
+      </c>
+      <c r="F755" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G755" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I755" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J755" t="n">
+        <v>160</v>
+      </c>
+      <c r="K755" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L755" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M755" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N755" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O755" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P755" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q755" t="n">
+        <v>18</v>
+      </c>
+      <c r="R755" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>9</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D756" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E756" t="n">
+        <v>13</v>
+      </c>
+      <c r="F756" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I756" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J756" t="n">
+        <v>70</v>
+      </c>
+      <c r="K756" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L756" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M756" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N756" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O756" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P756" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q756" t="n">
+        <v>18</v>
+      </c>
+      <c r="R756" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>9</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D757" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E757" t="n">
+        <v>13</v>
+      </c>
+      <c r="F757" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I757" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J757" t="n">
+        <v>160</v>
+      </c>
+      <c r="K757" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L757" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M757" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N757" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O757" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P757" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q757" t="n">
+        <v>18</v>
+      </c>
+      <c r="R757" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>9</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D758" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E758" t="n">
+        <v>13</v>
+      </c>
+      <c r="F758" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I758" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J758" t="n">
+        <v>70</v>
+      </c>
+      <c r="K758" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L758" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M758" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N758" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O758" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P758" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q758" t="n">
+        <v>18</v>
+      </c>
+      <c r="R758" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>9</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D759" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E759" t="n">
+        <v>13</v>
+      </c>
+      <c r="F759" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I759" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J759" t="n">
+        <v>50</v>
+      </c>
+      <c r="K759" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L759" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M759" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N759" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O759" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P759" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q759" t="n">
+        <v>18</v>
+      </c>
+      <c r="R759" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>9</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D760" s="2" t="n">
         <v>44326</v>
       </c>
-      <c r="E753" t="n">
-        <v>13</v>
-      </c>
-      <c r="F753" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H753" t="inlineStr">
+      <c r="E760" t="n">
+        <v>13</v>
+      </c>
+      <c r="F760" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J760" t="n">
+        <v>25</v>
+      </c>
+      <c r="K760" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L760" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M760" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N760" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O760" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P760" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q760" t="n">
+        <v>10</v>
+      </c>
+      <c r="R760" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>9</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D761" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E761" t="n">
+        <v>13</v>
+      </c>
+      <c r="F761" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H761" t="inlineStr">
         <is>
           <t>Larga vida</t>
         </is>
       </c>
-      <c r="I753" t="inlineStr">
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J761" t="n">
+        <v>70</v>
+      </c>
+      <c r="K761" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L761" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M761" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N761" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O761" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P761" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q761" t="n">
+        <v>18</v>
+      </c>
+      <c r="R761" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>9</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D762" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E762" t="n">
+        <v>13</v>
+      </c>
+      <c r="F762" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I762" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J762" t="n">
+        <v>160</v>
+      </c>
+      <c r="K762" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L762" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M762" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N762" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O762" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P762" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q762" t="n">
+        <v>18</v>
+      </c>
+      <c r="R762" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>9</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D763" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E763" t="n">
+        <v>13</v>
+      </c>
+      <c r="F763" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I763" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J763" t="n">
+        <v>70</v>
+      </c>
+      <c r="K763" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L763" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M763" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N763" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O763" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P763" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q763" t="n">
+        <v>18</v>
+      </c>
+      <c r="R763" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>9</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D764" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E764" t="n">
+        <v>13</v>
+      </c>
+      <c r="F764" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I764" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J753" t="n">
+      <c r="J764" t="n">
         <v>50</v>
       </c>
-      <c r="K753" t="n">
+      <c r="K764" t="n">
         <v>7000</v>
       </c>
-      <c r="L753" t="n">
+      <c r="L764" t="n">
         <v>7000</v>
       </c>
-      <c r="M753" t="n">
+      <c r="M764" t="n">
         <v>7000</v>
       </c>
-      <c r="N753" t="inlineStr">
+      <c r="N764" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O753" t="inlineStr">
+      <c r="O764" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P753" t="n">
+      <c r="P764" t="n">
         <v>389</v>
       </c>
-      <c r="Q753" t="n">
-        <v>18</v>
-      </c>
-      <c r="R753" t="inlineStr">
+      <c r="Q764" t="n">
+        <v>18</v>
+      </c>
+      <c r="R764" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R805"/>
+  <dimension ref="A1:R809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50604,25 +50604,25 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="K698" t="n">
         <v>18000</v>
       </c>
       <c r="L698" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M698" t="n">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
@@ -50635,7 +50635,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>1000</v>
+        <v>1028</v>
       </c>
       <c r="Q698" t="n">
         <v>18</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50676,7 +50676,7 @@
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -50685,20 +50685,20 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K699" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L699" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M699" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
@@ -50707,10 +50707,10 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>1000</v>
+        <v>917</v>
       </c>
       <c r="Q699" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50753,24 +50753,24 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K700" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L700" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="M700" t="n">
-        <v>4000</v>
+        <v>15495</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
@@ -50779,10 +50779,10 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>400</v>
+        <v>861</v>
       </c>
       <c r="Q700" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R700" t="inlineStr">
         <is>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50820,25 +50820,25 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="K701" t="n">
-        <v>32000</v>
+        <v>14000</v>
       </c>
       <c r="L701" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="M701" t="n">
-        <v>32000</v>
+        <v>14492</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>1778</v>
+        <v>805</v>
       </c>
       <c r="Q701" t="n">
         <v>18</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50892,25 +50892,25 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K702" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L702" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M702" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50919,11 +50919,11 @@
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="Q702" t="n">
         <v>18</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50964,7 +50964,7 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -50973,32 +50973,32 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K703" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L703" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M703" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q703" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51041,36 +51041,36 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K704" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L704" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M704" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q704" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R704" t="inlineStr">
         <is>
@@ -51108,25 +51108,25 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K705" t="n">
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="L705" t="n">
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="M705" t="n">
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>444</v>
+        <v>1778</v>
       </c>
       <c r="Q705" t="n">
         <v>18</v>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51189,16 +51189,16 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K706" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L706" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M706" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q706" t="n">
         <v>18</v>
@@ -51252,7 +51252,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -51264,13 +51264,13 @@
         <v>340</v>
       </c>
       <c r="K707" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L707" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M707" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51324,7 +51324,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -51336,13 +51336,13 @@
         <v>250</v>
       </c>
       <c r="K708" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L708" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M708" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51396,7 +51396,7 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
@@ -51408,13 +51408,13 @@
         <v>160</v>
       </c>
       <c r="K709" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L709" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M709" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q709" t="n">
         <v>18</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51468,41 +51468,41 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J710" t="n">
+        <v>70</v>
+      </c>
+      <c r="K710" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L710" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M710" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N710" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O710" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P710" t="n">
+        <v>667</v>
+      </c>
+      <c r="Q710" t="n">
         <v>18</v>
-      </c>
-      <c r="K710" t="n">
-        <v>23000</v>
-      </c>
-      <c r="L710" t="n">
-        <v>25000</v>
-      </c>
-      <c r="M710" t="n">
-        <v>24000</v>
-      </c>
-      <c r="N710" t="inlineStr">
-        <is>
-          <t>$/caja 10 kilos</t>
-        </is>
-      </c>
-      <c r="O710" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P710" t="n">
-        <v>2400</v>
-      </c>
-      <c r="Q710" t="n">
-        <v>10</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51540,25 +51540,25 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>36</v>
+        <v>340</v>
       </c>
       <c r="K711" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L711" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M711" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51567,11 +51567,11 @@
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51612,25 +51612,25 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J712" t="n">
         <v>250</v>
       </c>
       <c r="K712" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="L712" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M712" t="n">
-        <v>10750</v>
+        <v>8000</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>597</v>
+        <v>444</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51684,25 +51684,25 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J713" t="n">
         <v>160</v>
       </c>
       <c r="K713" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="L713" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M713" t="n">
-        <v>9750</v>
+        <v>6000</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>542</v>
+        <v>333</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51756,29 +51756,29 @@
       </c>
       <c r="H714" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K714" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="L714" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="M714" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O714" t="inlineStr">
@@ -51787,10 +51787,10 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>444</v>
+        <v>2400</v>
       </c>
       <c r="Q714" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R714" t="inlineStr">
         <is>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51828,25 +51828,25 @@
       </c>
       <c r="H715" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K715" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="L715" t="n">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="M715" t="n">
-        <v>35000</v>
+        <v>12500</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51855,11 +51855,11 @@
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>1944</v>
+        <v>694</v>
       </c>
       <c r="Q715" t="n">
         <v>18</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51912,13 +51912,13 @@
         <v>250</v>
       </c>
       <c r="K716" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="L716" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M716" t="n">
-        <v>8000</v>
+        <v>10750</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51927,11 +51927,11 @@
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>444</v>
+        <v>597</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51984,13 +51984,13 @@
         <v>160</v>
       </c>
       <c r="K717" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="L717" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M717" t="n">
-        <v>6000</v>
+        <v>9750</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -51999,11 +51999,11 @@
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>333</v>
+        <v>542</v>
       </c>
       <c r="Q717" t="n">
         <v>18</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52056,13 +52056,13 @@
         <v>70</v>
       </c>
       <c r="K718" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L718" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M718" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52071,11 +52071,11 @@
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="Q718" t="n">
         <v>18</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52116,25 +52116,25 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K719" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="L719" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M719" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>833</v>
+        <v>1944</v>
       </c>
       <c r="Q719" t="n">
         <v>18</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52197,16 +52197,16 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K720" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L720" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M720" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q720" t="n">
         <v>18</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52269,16 +52269,16 @@
         </is>
       </c>
       <c r="J721" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K721" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L721" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M721" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="Q721" t="n">
         <v>18</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52341,16 +52341,16 @@
         </is>
       </c>
       <c r="J722" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K722" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L722" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M722" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="Q722" t="n">
         <v>18</v>
@@ -52404,7 +52404,7 @@
       </c>
       <c r="H723" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
@@ -52416,13 +52416,13 @@
         <v>70</v>
       </c>
       <c r="K723" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L723" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M723" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
@@ -52431,11 +52431,11 @@
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q723" t="n">
         <v>18</v>
@@ -52476,7 +52476,7 @@
       </c>
       <c r="H724" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -52485,16 +52485,16 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K724" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L724" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M724" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q724" t="n">
         <v>18</v>
@@ -52548,7 +52548,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
@@ -52557,16 +52557,16 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K725" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L725" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M725" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52620,7 +52620,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -52629,16 +52629,16 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K726" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L726" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M726" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52647,11 +52647,11 @@
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P726" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q726" t="n">
         <v>18</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -52692,41 +52692,41 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K727" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="L727" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M727" t="n">
-        <v>4750</v>
+        <v>12000</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>475</v>
+        <v>667</v>
       </c>
       <c r="Q727" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R727" t="inlineStr">
         <is>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -52764,41 +52764,41 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J728" t="n">
         <v>160</v>
       </c>
       <c r="K728" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="L728" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M728" t="n">
-        <v>3750</v>
+        <v>10000</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>375</v>
+        <v>556</v>
       </c>
       <c r="Q728" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R728" t="inlineStr">
         <is>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52836,41 +52836,41 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K729" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="L729" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M729" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>300</v>
+        <v>444</v>
       </c>
       <c r="Q729" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52908,41 +52908,41 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K730" t="n">
-        <v>21000</v>
+        <v>6000</v>
       </c>
       <c r="L730" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="M730" t="n">
-        <v>21520</v>
+        <v>6000</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>2152</v>
+        <v>333</v>
       </c>
       <c r="Q730" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R730" t="inlineStr">
         <is>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -52989,32 +52989,32 @@
         </is>
       </c>
       <c r="J731" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K731" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L731" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M731" t="n">
-        <v>9500</v>
+        <v>4750</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>528</v>
+        <v>475</v>
       </c>
       <c r="Q731" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R731" t="inlineStr">
         <is>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53057,24 +53057,24 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J732" t="n">
         <v>160</v>
       </c>
       <c r="K732" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="L732" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M732" t="n">
-        <v>12500</v>
+        <v>3750</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O732" t="inlineStr">
@@ -53083,10 +53083,10 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>694</v>
+        <v>375</v>
       </c>
       <c r="Q732" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R732" t="inlineStr">
         <is>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53129,20 +53129,20 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="K733" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L733" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M733" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="Q733" t="n">
         <v>10</v>
@@ -53196,41 +53196,41 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K734" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="L734" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M734" t="n">
-        <v>7500</v>
+        <v>21520</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>417</v>
+        <v>2152</v>
       </c>
       <c r="Q734" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R734" t="inlineStr">
         <is>
@@ -53273,20 +53273,20 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K735" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L735" t="n">
         <v>10000</v>
       </c>
-      <c r="L735" t="n">
-        <v>11000</v>
-      </c>
       <c r="M735" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53295,11 +53295,11 @@
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="Q735" t="n">
         <v>18</v>
@@ -53345,20 +53345,20 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K736" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L736" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M736" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>333</v>
+        <v>694</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53417,24 +53417,24 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K737" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L737" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M737" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O737" t="inlineStr">
@@ -53443,10 +53443,10 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q737" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R737" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53489,20 +53489,20 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J738" t="n">
         <v>70</v>
       </c>
       <c r="K738" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L738" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M738" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>611</v>
+        <v>417</v>
       </c>
       <c r="Q738" t="n">
         <v>18</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53561,20 +53561,20 @@
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K739" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L739" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M739" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53583,11 +53583,11 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>500</v>
+        <v>583</v>
       </c>
       <c r="Q739" t="n">
         <v>18</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53633,20 +53633,20 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="K740" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L740" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M740" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="Q740" t="n">
         <v>18</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53709,16 +53709,16 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K741" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L741" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M741" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53727,11 +53727,11 @@
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="Q741" t="n">
         <v>18</v>
@@ -53772,25 +53772,25 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K742" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L742" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M742" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53799,11 +53799,11 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q742" t="n">
         <v>18</v>
@@ -53844,25 +53844,25 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K743" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L743" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M743" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53871,11 +53871,11 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q743" t="n">
         <v>18</v>
@@ -53916,25 +53916,25 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K744" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L744" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M744" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53943,11 +53943,11 @@
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="Q744" t="n">
         <v>18</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53988,41 +53988,41 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="K745" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="L745" t="n">
-        <v>26000</v>
+        <v>5000</v>
       </c>
       <c r="M745" t="n">
-        <v>25519</v>
+        <v>5000</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>2552</v>
+        <v>278</v>
       </c>
       <c r="Q745" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R745" t="inlineStr">
         <is>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54060,25 +54060,25 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K746" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L746" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M746" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54087,11 +54087,11 @@
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>833</v>
+        <v>444</v>
       </c>
       <c r="Q746" t="n">
         <v>18</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54132,25 +54132,25 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K747" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L747" t="n">
-        <v>14500</v>
+        <v>6000</v>
       </c>
       <c r="M747" t="n">
-        <v>14250</v>
+        <v>6000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>792</v>
+        <v>333</v>
       </c>
       <c r="Q747" t="n">
         <v>18</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54204,41 +54204,41 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K748" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L748" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M748" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>775</v>
+        <v>278</v>
       </c>
       <c r="Q748" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R748" t="inlineStr">
         <is>
@@ -54276,29 +54276,29 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="K749" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L749" t="n">
-        <v>13500</v>
+        <v>26000</v>
       </c>
       <c r="M749" t="n">
-        <v>13250</v>
+        <v>25519</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O749" t="inlineStr">
@@ -54307,10 +54307,10 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>736</v>
+        <v>2552</v>
       </c>
       <c r="Q749" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R749" t="inlineStr">
         <is>
@@ -54353,24 +54353,24 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K750" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="L750" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M750" t="n">
-        <v>6750</v>
+        <v>15000</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O750" t="inlineStr">
@@ -54379,10 +54379,10 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>675</v>
+        <v>833</v>
       </c>
       <c r="Q750" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R750" t="inlineStr">
         <is>
@@ -54425,20 +54425,20 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K751" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L751" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="M751" t="n">
-        <v>11500</v>
+        <v>14250</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>639</v>
+        <v>792</v>
       </c>
       <c r="Q751" t="n">
         <v>18</v>
@@ -54497,20 +54497,20 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K752" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L752" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M752" t="n">
-        <v>5747</v>
+        <v>7750</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54523,7 +54523,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q752" t="n">
         <v>10</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54569,24 +54569,24 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K753" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L753" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M753" t="n">
-        <v>14505</v>
+        <v>13250</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O753" t="inlineStr">
@@ -54595,10 +54595,10 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="Q753" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R753" t="inlineStr">
         <is>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54641,24 +54641,24 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K754" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L754" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M754" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O754" t="inlineStr">
@@ -54667,10 +54667,10 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="Q754" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R754" t="inlineStr">
         <is>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54713,24 +54713,24 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K755" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L755" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M755" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O755" t="inlineStr">
@@ -54739,10 +54739,10 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>525</v>
+        <v>639</v>
       </c>
       <c r="Q755" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R755" t="inlineStr">
         <is>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -54789,20 +54789,20 @@
         </is>
       </c>
       <c r="J756" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K756" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L756" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M756" t="n">
-        <v>8500</v>
+        <v>5747</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O756" t="inlineStr">
@@ -54811,10 +54811,10 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>425</v>
+        <v>575</v>
       </c>
       <c r="Q756" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R756" t="inlineStr">
         <is>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54852,41 +54852,41 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="K757" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L757" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M757" t="n">
-        <v>20000</v>
+        <v>14505</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>1333</v>
+        <v>725</v>
       </c>
       <c r="Q757" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R757" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54924,7 +54924,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -54933,20 +54933,20 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="K758" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L758" t="n">
         <v>13000</v>
       </c>
       <c r="M758" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O758" t="inlineStr">
@@ -54955,10 +54955,10 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>1300</v>
+        <v>625</v>
       </c>
       <c r="Q758" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R758" t="inlineStr">
         <is>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -54996,29 +54996,29 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="K759" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L759" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="M759" t="n">
-        <v>25000</v>
+        <v>10500</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O759" t="inlineStr">
@@ -55027,10 +55027,10 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>2500</v>
+        <v>525</v>
       </c>
       <c r="Q759" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R759" t="inlineStr">
         <is>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44466</v>
+        <v>44425</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55073,24 +55073,24 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K760" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L760" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M760" t="n">
-        <v>15494</v>
+        <v>8500</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
@@ -55099,10 +55099,10 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>861</v>
+        <v>425</v>
       </c>
       <c r="Q760" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R760" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55140,7 +55140,7 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
@@ -55149,32 +55149,32 @@
         </is>
       </c>
       <c r="J761" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="K761" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L761" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M761" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>750</v>
+        <v>1333</v>
       </c>
       <c r="Q761" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R761" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -55212,7 +55212,7 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
@@ -55221,20 +55221,20 @@
         </is>
       </c>
       <c r="J762" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="K762" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L762" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M762" t="n">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O762" t="inlineStr">
@@ -55243,10 +55243,10 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>975</v>
+        <v>1300</v>
       </c>
       <c r="Q762" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R762" t="inlineStr">
         <is>
@@ -55284,7 +55284,7 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
@@ -55293,16 +55293,16 @@
         </is>
       </c>
       <c r="J763" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K763" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="L763" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M763" t="n">
-        <v>6500</v>
+        <v>25000</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55315,7 +55315,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>650</v>
+        <v>2500</v>
       </c>
       <c r="Q763" t="n">
         <v>10</v>
@@ -55361,20 +55361,20 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K764" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L764" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M764" t="n">
-        <v>11500</v>
+        <v>15494</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55387,7 +55387,7 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>639</v>
+        <v>861</v>
       </c>
       <c r="Q764" t="n">
         <v>18</v>
@@ -55433,24 +55433,24 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K765" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L765" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M765" t="n">
-        <v>17494</v>
+        <v>13500</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O765" t="inlineStr">
@@ -55459,10 +55459,10 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>875</v>
+        <v>750</v>
       </c>
       <c r="Q765" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R765" t="inlineStr">
         <is>
@@ -55505,24 +55505,24 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="K766" t="n">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="L766" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M766" t="n">
-        <v>4495</v>
+        <v>19500</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
@@ -55531,10 +55531,10 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>450</v>
+        <v>975</v>
       </c>
       <c r="Q766" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R766" t="inlineStr">
         <is>
@@ -55577,24 +55577,24 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K767" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L767" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M767" t="n">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O767" t="inlineStr">
@@ -55603,10 +55603,10 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>528</v>
+        <v>650</v>
       </c>
       <c r="Q767" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R767" t="inlineStr">
         <is>
@@ -55649,24 +55649,24 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K768" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L768" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M768" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O768" t="inlineStr">
@@ -55675,10 +55675,10 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>775</v>
+        <v>639</v>
       </c>
       <c r="Q768" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R768" t="inlineStr">
         <is>
@@ -55721,24 +55721,24 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="K769" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L769" t="n">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="M769" t="n">
-        <v>3000</v>
+        <v>17494</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O769" t="inlineStr">
@@ -55747,10 +55747,10 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>300</v>
+        <v>875</v>
       </c>
       <c r="Q769" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R769" t="inlineStr">
         <is>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -55793,36 +55793,36 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K770" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L770" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M770" t="n">
-        <v>13000</v>
+        <v>4495</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>722</v>
+        <v>450</v>
       </c>
       <c r="Q770" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R770" t="inlineStr">
         <is>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55865,20 +55865,20 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K771" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L771" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M771" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>611</v>
+        <v>528</v>
       </c>
       <c r="Q771" t="n">
         <v>18</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55941,32 +55941,32 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K772" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L772" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M772" t="n">
-        <v>9000</v>
+        <v>15500</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>500</v>
+        <v>775</v>
       </c>
       <c r="Q772" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R772" t="inlineStr">
         <is>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56004,25 +56004,25 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K773" t="n">
-        <v>24000</v>
+        <v>3000</v>
       </c>
       <c r="L773" t="n">
-        <v>25000</v>
+        <v>3000</v>
       </c>
       <c r="M773" t="n">
-        <v>24500</v>
+        <v>3000</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>2450</v>
+        <v>300</v>
       </c>
       <c r="Q773" t="n">
         <v>10</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -56081,20 +56081,20 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K774" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L774" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M774" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>806</v>
+        <v>722</v>
       </c>
       <c r="Q774" t="n">
         <v>18</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="K775" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L775" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M775" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56175,11 +56175,11 @@
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>694</v>
+        <v>611</v>
       </c>
       <c r="Q775" t="n">
         <v>18</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56225,36 +56225,36 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="K776" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L776" t="n">
         <v>9000</v>
       </c>
       <c r="M776" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="Q776" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R776" t="inlineStr">
         <is>
@@ -56292,29 +56292,29 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="K777" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="L777" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="M777" t="n">
-        <v>10500</v>
+        <v>24500</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
@@ -56323,10 +56323,10 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>583</v>
+        <v>2450</v>
       </c>
       <c r="Q777" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56369,24 +56369,24 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="K778" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L778" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M778" t="n">
-        <v>6489</v>
+        <v>14500</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O778" t="inlineStr">
@@ -56395,10 +56395,10 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>649</v>
+        <v>806</v>
       </c>
       <c r="Q778" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R778" t="inlineStr">
         <is>
@@ -56441,20 +56441,20 @@
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="K779" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L779" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M779" t="n">
-        <v>8505</v>
+        <v>12500</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56467,7 +56467,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>472</v>
+        <v>694</v>
       </c>
       <c r="Q779" t="n">
         <v>18</v>
@@ -56513,20 +56513,20 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="K780" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L780" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M780" t="n">
-        <v>4492</v>
+        <v>8500</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56539,7 +56539,7 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>449</v>
+        <v>850</v>
       </c>
       <c r="Q780" t="n">
         <v>10</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56580,41 +56580,41 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="K781" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L781" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M781" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>867</v>
+        <v>583</v>
       </c>
       <c r="Q781" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R781" t="inlineStr">
         <is>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44193</v>
+        <v>44438</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56652,25 +56652,25 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="K782" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="L782" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="M782" t="n">
-        <v>25000</v>
+        <v>6489</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56683,7 +56683,7 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>2500</v>
+        <v>649</v>
       </c>
       <c r="Q782" t="n">
         <v>10</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56724,25 +56724,25 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K783" t="n">
         <v>8000</v>
       </c>
       <c r="L783" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M783" t="n">
-        <v>8000</v>
+        <v>8505</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56751,11 +56751,11 @@
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56796,41 +56796,41 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>340</v>
+        <v>61</v>
       </c>
       <c r="K784" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L784" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M784" t="n">
-        <v>7000</v>
+        <v>4492</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>389</v>
+        <v>449</v>
       </c>
       <c r="Q784" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R784" t="inlineStr">
         <is>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56873,36 +56873,36 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K785" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L785" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M785" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>333</v>
+        <v>867</v>
       </c>
       <c r="Q785" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R785" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56949,16 +56949,16 @@
         </is>
       </c>
       <c r="J786" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K786" t="n">
         <v>25000</v>
       </c>
       <c r="L786" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="M786" t="n">
-        <v>25500</v>
+        <v>25000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="Q786" t="n">
         <v>10</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57012,7 +57012,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -57021,16 +57021,16 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K787" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L787" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="M787" t="n">
-        <v>17253</v>
+        <v>8000</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57039,11 +57039,11 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>958</v>
+        <v>444</v>
       </c>
       <c r="Q787" t="n">
         <v>18</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57084,7 +57084,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -57096,13 +57096,13 @@
         <v>340</v>
       </c>
       <c r="K788" t="n">
-        <v>15500</v>
+        <v>7000</v>
       </c>
       <c r="L788" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M788" t="n">
-        <v>15750</v>
+        <v>7000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>875</v>
+        <v>389</v>
       </c>
       <c r="Q788" t="n">
         <v>18</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57156,41 +57156,41 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J789" t="n">
         <v>250</v>
       </c>
       <c r="K789" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L789" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M789" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>775</v>
+        <v>333</v>
       </c>
       <c r="Q789" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R789" t="inlineStr">
         <is>
@@ -57228,29 +57228,29 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="K790" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="L790" t="n">
-        <v>14500</v>
+        <v>26000</v>
       </c>
       <c r="M790" t="n">
-        <v>14250</v>
+        <v>25500</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O790" t="inlineStr">
@@ -57259,10 +57259,10 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>792</v>
+        <v>2550</v>
       </c>
       <c r="Q790" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R790" t="inlineStr">
         <is>
@@ -57305,24 +57305,24 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K791" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="L791" t="n">
-        <v>7000</v>
+        <v>17500</v>
       </c>
       <c r="M791" t="n">
-        <v>6750</v>
+        <v>17253</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O791" t="inlineStr">
@@ -57331,10 +57331,10 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>675</v>
+        <v>958</v>
       </c>
       <c r="Q791" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R791" t="inlineStr">
         <is>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K792" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="L792" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M792" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>653</v>
+        <v>875</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57449,20 +57449,20 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K793" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L793" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M793" t="n">
-        <v>5747</v>
+        <v>7750</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q793" t="n">
         <v>10</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="K794" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L794" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M794" t="n">
-        <v>13000</v>
+        <v>14250</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>722</v>
+        <v>792</v>
       </c>
       <c r="Q794" t="n">
         <v>18</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57593,36 +57593,36 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K795" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L795" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M795" t="n">
-        <v>11000</v>
+        <v>6750</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>611</v>
+        <v>675</v>
       </c>
       <c r="Q795" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R795" t="inlineStr">
         <is>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57665,20 +57665,20 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J796" t="n">
         <v>160</v>
       </c>
       <c r="K796" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="L796" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M796" t="n">
-        <v>9000</v>
+        <v>11750</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57687,11 +57687,11 @@
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>500</v>
+        <v>653</v>
       </c>
       <c r="Q796" t="n">
         <v>18</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57741,32 +57741,32 @@
         </is>
       </c>
       <c r="J797" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K797" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="L797" t="n">
         <v>6000</v>
       </c>
       <c r="M797" t="n">
-        <v>6000</v>
+        <v>5747</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>333</v>
+        <v>575</v>
       </c>
       <c r="Q797" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R797" t="inlineStr">
         <is>
@@ -57804,25 +57804,25 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K798" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L798" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M798" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57876,25 +57876,25 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K799" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L799" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M799" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q799" t="n">
         <v>18</v>
@@ -57948,25 +57948,25 @@
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K800" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L800" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M800" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q800" t="n">
         <v>18</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58020,41 +58020,41 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K801" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="L801" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M801" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>2000</v>
+        <v>333</v>
       </c>
       <c r="Q801" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R801" t="inlineStr">
         <is>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58092,25 +58092,25 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K802" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L802" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M802" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58164,25 +58164,25 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K803" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L803" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M803" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58236,25 +58236,25 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K804" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L804" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M804" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58263,11 +58263,11 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58308,43 +58308,331 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="I805" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J805" t="n">
+        <v>25</v>
+      </c>
+      <c r="K805" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L805" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M805" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N805" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O805" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P805" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q805" t="n">
+        <v>10</v>
+      </c>
+      <c r="R805" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>9</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D806" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E806" t="n">
+        <v>13</v>
+      </c>
+      <c r="F806" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G806" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
           <t>Larga vida</t>
         </is>
       </c>
-      <c r="I805" t="inlineStr">
+      <c r="I806" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J806" t="n">
+        <v>70</v>
+      </c>
+      <c r="K806" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L806" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M806" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N806" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O806" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P806" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q806" t="n">
+        <v>18</v>
+      </c>
+      <c r="R806" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>9</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D807" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E807" t="n">
+        <v>13</v>
+      </c>
+      <c r="F807" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G807" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I807" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J807" t="n">
+        <v>160</v>
+      </c>
+      <c r="K807" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L807" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M807" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N807" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O807" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P807" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q807" t="n">
+        <v>18</v>
+      </c>
+      <c r="R807" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>9</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D808" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E808" t="n">
+        <v>13</v>
+      </c>
+      <c r="F808" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G808" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I808" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J808" t="n">
+        <v>70</v>
+      </c>
+      <c r="K808" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L808" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M808" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N808" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O808" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P808" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q808" t="n">
+        <v>18</v>
+      </c>
+      <c r="R808" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>9</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D809" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E809" t="n">
+        <v>13</v>
+      </c>
+      <c r="F809" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G809" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I809" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J805" t="n">
+      <c r="J809" t="n">
         <v>50</v>
       </c>
-      <c r="K805" t="n">
+      <c r="K809" t="n">
         <v>7000</v>
       </c>
-      <c r="L805" t="n">
+      <c r="L809" t="n">
         <v>7000</v>
       </c>
-      <c r="M805" t="n">
+      <c r="M809" t="n">
         <v>7000</v>
       </c>
-      <c r="N805" t="inlineStr">
+      <c r="N809" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O805" t="inlineStr">
+      <c r="O809" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P805" t="n">
+      <c r="P809" t="n">
         <v>389</v>
       </c>
-      <c r="Q805" t="n">
+      <c r="Q809" t="n">
         <v>18</v>
       </c>
-      <c r="R805" t="inlineStr">
+      <c r="R809" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R817"/>
+  <dimension ref="A1:R825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50316,41 +50316,41 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K694" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L694" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M694" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>444</v>
+        <v>1600</v>
       </c>
       <c r="Q694" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50388,25 +50388,25 @@
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K695" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="L695" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="M695" t="n">
-        <v>6000</v>
+        <v>18500</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50415,11 +50415,11 @@
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>333</v>
+        <v>1028</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50460,25 +50460,25 @@
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="K696" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L696" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M696" t="n">
-        <v>5000</v>
+        <v>15500</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>278</v>
+        <v>861</v>
       </c>
       <c r="Q696" t="n">
         <v>18</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50532,41 +50532,41 @@
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="K697" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L697" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M697" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>167</v>
+        <v>750</v>
       </c>
       <c r="Q697" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R697" t="inlineStr">
         <is>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50604,29 +50604,29 @@
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K698" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L698" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="M698" t="n">
-        <v>24000</v>
+        <v>13500</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
@@ -50635,10 +50635,10 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>2400</v>
+        <v>750</v>
       </c>
       <c r="Q698" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50681,24 +50681,24 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="K699" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L699" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M699" t="n">
-        <v>17500</v>
+        <v>5500</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
@@ -50707,10 +50707,10 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>972</v>
+        <v>550</v>
       </c>
       <c r="Q699" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50753,20 +50753,20 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K700" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L700" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M700" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50779,7 +50779,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>861</v>
+        <v>639</v>
       </c>
       <c r="Q700" t="n">
         <v>18</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50825,20 +50825,20 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="K701" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L701" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M701" t="n">
-        <v>7500</v>
+        <v>3500</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50851,7 +50851,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="Q701" t="n">
         <v>10</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50892,25 +50892,25 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="K702" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L702" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M702" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50919,11 +50919,11 @@
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>750</v>
+        <v>444</v>
       </c>
       <c r="Q702" t="n">
         <v>18</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50964,41 +50964,41 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="K703" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L703" t="n">
         <v>6000</v>
       </c>
       <c r="M703" t="n">
-        <v>5495</v>
+        <v>6000</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>550</v>
+        <v>333</v>
       </c>
       <c r="Q703" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R703" t="inlineStr">
         <is>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51036,25 +51036,25 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="K704" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L704" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M704" t="n">
-        <v>11500</v>
+        <v>5000</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51063,11 +51063,11 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>639</v>
+        <v>278</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51108,7 +51108,7 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -51117,32 +51117,32 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K705" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L705" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M705" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>400</v>
+        <v>167</v>
       </c>
       <c r="Q705" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51180,29 +51180,29 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="K706" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L706" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M706" t="n">
-        <v>14505</v>
+        <v>24000</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
@@ -51211,10 +51211,10 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>725</v>
+        <v>2400</v>
       </c>
       <c r="Q706" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51257,24 +51257,24 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K707" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L707" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M707" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
@@ -51283,10 +51283,10 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q707" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51329,24 +51329,24 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J708" t="n">
         <v>250</v>
       </c>
       <c r="K708" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L708" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M708" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O708" t="inlineStr">
@@ -51355,10 +51355,10 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>525</v>
+        <v>861</v>
       </c>
       <c r="Q708" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R708" t="inlineStr">
         <is>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51401,24 +51401,24 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="K709" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L709" t="n">
         <v>8000</v>
       </c>
-      <c r="L709" t="n">
-        <v>9000</v>
-      </c>
       <c r="M709" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
@@ -51427,10 +51427,10 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>425</v>
+        <v>750</v>
       </c>
       <c r="Q709" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51468,29 +51468,29 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="K710" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="L710" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="M710" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
@@ -51499,10 +51499,10 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>2500</v>
+        <v>750</v>
       </c>
       <c r="Q710" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51545,36 +51545,36 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="K711" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L711" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M711" t="n">
-        <v>12000</v>
+        <v>5495</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>667</v>
+        <v>550</v>
       </c>
       <c r="Q711" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R711" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51617,11 +51617,11 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="K712" t="n">
         <v>11000</v>
@@ -51630,7 +51630,7 @@
         <v>12000</v>
       </c>
       <c r="M712" t="n">
-        <v>11350</v>
+        <v>11500</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51689,36 +51689,36 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="K713" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L713" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M713" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>583</v>
+        <v>400</v>
       </c>
       <c r="Q713" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R713" t="inlineStr">
         <is>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51761,24 +51761,24 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>310</v>
+        <v>97</v>
       </c>
       <c r="K714" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L714" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M714" t="n">
-        <v>9500</v>
+        <v>14505</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O714" t="inlineStr">
@@ -51787,10 +51787,10 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>528</v>
+        <v>725</v>
       </c>
       <c r="Q714" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R714" t="inlineStr">
         <is>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51837,20 +51837,20 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K715" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L715" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M715" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
@@ -51859,10 +51859,10 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="Q715" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51909,32 +51909,32 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K716" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L716" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M716" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="Q716" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R716" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51977,24 +51977,24 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K717" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L717" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M717" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
@@ -52003,10 +52003,10 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q717" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R717" t="inlineStr">
         <is>
@@ -52044,25 +52044,25 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K718" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="L718" t="n">
-        <v>6500</v>
+        <v>25000</v>
       </c>
       <c r="M718" t="n">
-        <v>6250</v>
+        <v>25000</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>625</v>
+        <v>2500</v>
       </c>
       <c r="Q718" t="n">
         <v>10</v>
@@ -52121,20 +52121,20 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K719" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L719" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M719" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52147,7 +52147,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q719" t="n">
         <v>18</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K720" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L720" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M720" t="n">
-        <v>6000</v>
+        <v>11350</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52219,7 +52219,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>333</v>
+        <v>631</v>
       </c>
       <c r="Q720" t="n">
         <v>18</v>
@@ -52265,36 +52265,36 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K721" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L721" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M721" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>500</v>
+        <v>583</v>
       </c>
       <c r="Q721" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R721" t="inlineStr">
         <is>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52332,7 +52332,7 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
@@ -52341,20 +52341,20 @@
         </is>
       </c>
       <c r="J722" t="n">
-        <v>25</v>
+        <v>310</v>
       </c>
       <c r="K722" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L722" t="n">
         <v>10000</v>
       </c>
       <c r="M722" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
@@ -52363,10 +52363,10 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>1000</v>
+        <v>528</v>
       </c>
       <c r="Q722" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R722" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52409,36 +52409,36 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K723" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L723" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M723" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q723" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R723" t="inlineStr">
         <is>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52481,20 +52481,20 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K724" t="n">
         <v>8000</v>
       </c>
       <c r="L724" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M724" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="Q724" t="n">
         <v>18</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -52553,20 +52553,20 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K725" t="n">
         <v>7000</v>
       </c>
       <c r="L725" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M725" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52579,7 +52579,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -52625,20 +52625,20 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K726" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L726" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M726" t="n">
-        <v>4000</v>
+        <v>6250</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52651,7 +52651,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q726" t="n">
         <v>10</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44392</v>
+        <v>44343</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -52692,41 +52692,41 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="K727" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="L727" t="n">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M727" t="n">
-        <v>25519</v>
+        <v>7000</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>2552</v>
+        <v>389</v>
       </c>
       <c r="Q727" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R727" t="inlineStr">
         <is>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44392</v>
+        <v>44343</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -52769,20 +52769,20 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K728" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L728" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M728" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>833</v>
+        <v>333</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44392</v>
+        <v>44343</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52841,24 +52841,24 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="K729" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L729" t="n">
-        <v>14500</v>
+        <v>5000</v>
       </c>
       <c r="M729" t="n">
-        <v>14250</v>
+        <v>5000</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
@@ -52867,10 +52867,10 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>792</v>
+        <v>500</v>
       </c>
       <c r="Q729" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52908,7 +52908,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="K730" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L730" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M730" t="n">
-        <v>7750</v>
+        <v>10000</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>775</v>
+        <v>1000</v>
       </c>
       <c r="Q730" t="n">
         <v>10</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -52985,20 +52985,20 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K731" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L731" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M731" t="n">
-        <v>13250</v>
+        <v>9000</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53007,11 +53007,11 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>736</v>
+        <v>500</v>
       </c>
       <c r="Q731" t="n">
         <v>18</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53057,36 +53057,36 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K732" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L732" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M732" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>675</v>
+        <v>444</v>
       </c>
       <c r="Q732" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R732" t="inlineStr">
         <is>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53129,20 +53129,20 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J733" t="n">
         <v>160</v>
       </c>
       <c r="K733" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L733" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M733" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53155,7 +53155,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>639</v>
+        <v>389</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -53201,20 +53201,20 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="K734" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L734" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M734" t="n">
-        <v>5747</v>
+        <v>4000</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53227,7 +53227,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>575</v>
+        <v>400</v>
       </c>
       <c r="Q734" t="n">
         <v>10</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53268,41 +53268,41 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="K735" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="L735" t="n">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="M735" t="n">
-        <v>8000</v>
+        <v>25519</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>444</v>
+        <v>2552</v>
       </c>
       <c r="Q735" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R735" t="inlineStr">
         <is>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -53340,25 +53340,25 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K736" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L736" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M736" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>389</v>
+        <v>833</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53412,25 +53412,25 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K737" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L737" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="M737" t="n">
-        <v>6000</v>
+        <v>14250</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53439,11 +53439,11 @@
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>333</v>
+        <v>792</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53484,7 +53484,7 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
@@ -53493,16 +53493,16 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="K738" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="L738" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M738" t="n">
-        <v>24480</v>
+        <v>7750</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>2448</v>
+        <v>775</v>
       </c>
       <c r="Q738" t="n">
         <v>10</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53561,20 +53561,20 @@
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K739" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L739" t="n">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="M739" t="n">
-        <v>19505</v>
+        <v>13250</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53587,7 +53587,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>1084</v>
+        <v>736</v>
       </c>
       <c r="Q739" t="n">
         <v>18</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53633,24 +53633,24 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K740" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="L740" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M740" t="n">
-        <v>17500</v>
+        <v>6750</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O740" t="inlineStr">
@@ -53659,10 +53659,10 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>972</v>
+        <v>675</v>
       </c>
       <c r="Q740" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R740" t="inlineStr">
         <is>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53705,24 +53705,24 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J741" t="n">
         <v>160</v>
       </c>
       <c r="K741" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L741" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M741" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O741" t="inlineStr">
@@ -53731,10 +53731,10 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>750</v>
+        <v>639</v>
       </c>
       <c r="Q741" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R741" t="inlineStr">
         <is>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53777,24 +53777,24 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K742" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="L742" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M742" t="n">
-        <v>15500</v>
+        <v>5747</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O742" t="inlineStr">
@@ -53803,10 +53803,10 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>861</v>
+        <v>575</v>
       </c>
       <c r="Q742" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R742" t="inlineStr">
         <is>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53844,41 +53844,41 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="K743" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L743" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M743" t="n">
-        <v>5514</v>
+        <v>8000</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>551</v>
+        <v>444</v>
       </c>
       <c r="Q743" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R743" t="inlineStr">
         <is>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53916,25 +53916,25 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K744" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L744" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M744" t="n">
-        <v>13494</v>
+        <v>7000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53943,11 +53943,11 @@
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>750</v>
+        <v>389</v>
       </c>
       <c r="Q744" t="n">
         <v>18</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53988,41 +53988,41 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K745" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L745" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M745" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="Q745" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R745" t="inlineStr">
         <is>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54060,7 +54060,7 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
@@ -54069,16 +54069,16 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>340</v>
+        <v>25</v>
       </c>
       <c r="K746" t="n">
-        <v>5500</v>
+        <v>24000</v>
       </c>
       <c r="L746" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="M746" t="n">
-        <v>5750</v>
+        <v>24480</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>575</v>
+        <v>2448</v>
       </c>
       <c r="Q746" t="n">
         <v>10</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54137,24 +54137,24 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K747" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="L747" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M747" t="n">
-        <v>4750</v>
+        <v>19505</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O747" t="inlineStr">
@@ -54163,10 +54163,10 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>475</v>
+        <v>1084</v>
       </c>
       <c r="Q747" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R747" t="inlineStr">
         <is>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54209,24 +54209,24 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K748" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L748" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="M748" t="n">
-        <v>4000</v>
+        <v>17500</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O748" t="inlineStr">
@@ -54235,10 +54235,10 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>400</v>
+        <v>972</v>
       </c>
       <c r="Q748" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R748" t="inlineStr">
         <is>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54281,24 +54281,24 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J749" t="n">
         <v>160</v>
       </c>
       <c r="K749" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L749" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M749" t="n">
-        <v>17500</v>
+        <v>7500</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O749" t="inlineStr">
@@ -54307,10 +54307,10 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>972</v>
+        <v>750</v>
       </c>
       <c r="Q749" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R749" t="inlineStr">
         <is>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54353,11 +54353,11 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K750" t="n">
         <v>15000</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54429,20 +54429,20 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="K751" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L751" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M751" t="n">
-        <v>13500</v>
+        <v>5514</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O751" t="inlineStr">
@@ -54451,10 +54451,10 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>750</v>
+        <v>551</v>
       </c>
       <c r="Q751" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R751" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54501,16 +54501,16 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K752" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L752" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M752" t="n">
-        <v>11495</v>
+        <v>13494</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54523,7 +54523,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>639</v>
+        <v>750</v>
       </c>
       <c r="Q752" t="n">
         <v>18</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54564,25 +54564,25 @@
       </c>
       <c r="H753" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="K753" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="L753" t="n">
-        <v>26000</v>
+        <v>4000</v>
       </c>
       <c r="M753" t="n">
-        <v>25480</v>
+        <v>4000</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54595,7 +54595,7 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>2548</v>
+        <v>400</v>
       </c>
       <c r="Q753" t="n">
         <v>10</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44445</v>
+        <v>44400</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54641,24 +54641,24 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K754" t="n">
-        <v>24000</v>
+        <v>5500</v>
       </c>
       <c r="L754" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="M754" t="n">
-        <v>24494</v>
+        <v>5750</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O754" t="inlineStr">
@@ -54667,10 +54667,10 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>1361</v>
+        <v>575</v>
       </c>
       <c r="Q754" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R754" t="inlineStr">
         <is>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44445</v>
+        <v>44400</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54713,24 +54713,24 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K755" t="n">
-        <v>22000</v>
+        <v>4500</v>
       </c>
       <c r="L755" t="n">
-        <v>23000</v>
+        <v>5000</v>
       </c>
       <c r="M755" t="n">
-        <v>22500</v>
+        <v>4750</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O755" t="inlineStr">
@@ -54739,10 +54739,10 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>1250</v>
+        <v>475</v>
       </c>
       <c r="Q755" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R755" t="inlineStr">
         <is>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44445</v>
+        <v>44400</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -54785,20 +54785,20 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K756" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L756" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M756" t="n">
-        <v>9504</v>
+        <v>4000</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54811,7 +54811,7 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q756" t="n">
         <v>10</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54857,20 +54857,20 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K757" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L757" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M757" t="n">
-        <v>20500</v>
+        <v>17500</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54883,7 +54883,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>1139</v>
+        <v>972</v>
       </c>
       <c r="Q757" t="n">
         <v>18</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54929,24 +54929,24 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K758" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L758" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M758" t="n">
-        <v>7494</v>
+        <v>15500</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O758" t="inlineStr">
@@ -54955,10 +54955,10 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>749</v>
+        <v>861</v>
       </c>
       <c r="Q758" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R758" t="inlineStr">
         <is>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -55001,20 +55001,20 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K759" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L759" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M759" t="n">
-        <v>18504</v>
+        <v>13500</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55027,7 +55027,7 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>1028</v>
+        <v>750</v>
       </c>
       <c r="Q759" t="n">
         <v>18</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55077,20 +55077,20 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K760" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L760" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M760" t="n">
-        <v>5500</v>
+        <v>11495</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
@@ -55099,10 +55099,10 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>550</v>
+        <v>639</v>
       </c>
       <c r="Q760" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R760" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55149,32 +55149,32 @@
         </is>
       </c>
       <c r="J761" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K761" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L761" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M761" t="n">
-        <v>35000</v>
+        <v>25480</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>1944</v>
+        <v>2548</v>
       </c>
       <c r="Q761" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R761" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -55212,25 +55212,25 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="K762" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="L762" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M762" t="n">
-        <v>32000</v>
+        <v>24494</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55239,11 +55239,11 @@
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>1778</v>
+        <v>1361</v>
       </c>
       <c r="Q762" t="n">
         <v>18</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -55289,20 +55289,20 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="K763" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L763" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M763" t="n">
-        <v>14000</v>
+        <v>22500</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>778</v>
+        <v>1250</v>
       </c>
       <c r="Q763" t="n">
         <v>18</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -55365,32 +55365,32 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="K764" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L764" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M764" t="n">
-        <v>12000</v>
+        <v>9504</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>667</v>
+        <v>950</v>
       </c>
       <c r="Q764" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R764" t="inlineStr">
         <is>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55437,16 +55437,16 @@
         </is>
       </c>
       <c r="J765" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K765" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L765" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="M765" t="n">
-        <v>10000</v>
+        <v>20500</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55455,11 +55455,11 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>556</v>
+        <v>1139</v>
       </c>
       <c r="Q765" t="n">
         <v>18</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55505,36 +55505,36 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K766" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L766" t="n">
         <v>8000</v>
       </c>
       <c r="M766" t="n">
-        <v>8000</v>
+        <v>7494</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>444</v>
+        <v>749</v>
       </c>
       <c r="Q766" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R766" t="inlineStr">
         <is>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -55572,25 +55572,25 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K767" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L767" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M767" t="n">
-        <v>12000</v>
+        <v>18504</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55599,11 +55599,11 @@
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>667</v>
+        <v>1028</v>
       </c>
       <c r="Q767" t="n">
         <v>18</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -55644,41 +55644,41 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="K768" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L768" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M768" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="Q768" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R768" t="inlineStr">
         <is>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -55716,25 +55716,25 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="K769" t="n">
-        <v>8000</v>
+        <v>35000</v>
       </c>
       <c r="L769" t="n">
-        <v>8000</v>
+        <v>35000</v>
       </c>
       <c r="M769" t="n">
-        <v>8000</v>
+        <v>35000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55747,7 +55747,7 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>444</v>
+        <v>1944</v>
       </c>
       <c r="Q769" t="n">
         <v>18</v>
@@ -55788,25 +55788,25 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K770" t="n">
-        <v>6000</v>
+        <v>32000</v>
       </c>
       <c r="L770" t="n">
-        <v>6000</v>
+        <v>32000</v>
       </c>
       <c r="M770" t="n">
-        <v>6000</v>
+        <v>32000</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55819,7 +55819,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>333</v>
+        <v>1778</v>
       </c>
       <c r="Q770" t="n">
         <v>18</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55869,16 +55869,16 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K771" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L771" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M771" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q771" t="n">
         <v>18</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55941,16 +55941,16 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K772" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L772" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M772" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55963,7 +55963,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q772" t="n">
         <v>18</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56013,16 +56013,16 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K773" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L773" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M773" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q773" t="n">
         <v>18</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -56085,16 +56085,16 @@
         </is>
       </c>
       <c r="J774" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K774" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L774" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M774" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56107,7 +56107,7 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q774" t="n">
         <v>18</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56148,25 +56148,25 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K775" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L775" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M775" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56175,11 +56175,11 @@
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q775" t="n">
         <v>18</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56220,25 +56220,25 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K776" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L776" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M776" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q776" t="n">
         <v>18</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56292,25 +56292,25 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K777" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L777" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M777" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="Q777" t="n">
         <v>18</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -56364,25 +56364,25 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K778" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="L778" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="M778" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>1667</v>
+        <v>333</v>
       </c>
       <c r="Q778" t="n">
         <v>18</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56448,13 +56448,13 @@
         <v>70</v>
       </c>
       <c r="K779" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L779" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M779" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56467,7 +56467,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q779" t="n">
         <v>18</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56517,16 +56517,16 @@
         </is>
       </c>
       <c r="J780" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K780" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L780" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M780" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56539,7 +56539,7 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q780" t="n">
         <v>18</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56589,20 +56589,20 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K781" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L781" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M781" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O781" t="inlineStr">
@@ -56611,10 +56611,10 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>1100</v>
+        <v>444</v>
       </c>
       <c r="Q781" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R781" t="inlineStr">
         <is>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56661,16 +56661,16 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K782" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L782" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M782" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56683,7 +56683,7 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q782" t="n">
         <v>18</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56724,25 +56724,25 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J783" t="n">
         <v>160</v>
       </c>
       <c r="K783" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L783" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M783" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56751,11 +56751,11 @@
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56796,25 +56796,25 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K784" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L784" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M784" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q784" t="n">
         <v>18</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56868,25 +56868,25 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K785" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L785" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M785" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56895,11 +56895,11 @@
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q785" t="n">
         <v>18</v>
@@ -56940,25 +56940,25 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K786" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="L786" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="M786" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56967,11 +56967,11 @@
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>333</v>
+        <v>1667</v>
       </c>
       <c r="Q786" t="n">
         <v>18</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57017,36 +57017,36 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K787" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L787" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M787" t="n">
-        <v>5750</v>
+        <v>15000</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>575</v>
+        <v>833</v>
       </c>
       <c r="Q787" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R787" t="inlineStr">
         <is>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57089,36 +57089,36 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>133</v>
+        <v>430</v>
       </c>
       <c r="K788" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="L788" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M788" t="n">
-        <v>4752</v>
+        <v>13000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>475</v>
+        <v>722</v>
       </c>
       <c r="Q788" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R788" t="inlineStr">
         <is>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57161,33 +57161,33 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K789" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="L789" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M789" t="n">
-        <v>3747</v>
+        <v>11000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>375</v>
+        <v>1100</v>
       </c>
       <c r="Q789" t="n">
         <v>10</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57233,20 +57233,20 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J790" t="n">
         <v>160</v>
       </c>
       <c r="K790" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L790" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M790" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57255,11 +57255,11 @@
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q790" t="n">
         <v>18</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -57300,25 +57300,25 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K791" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L791" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M791" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -57384,13 +57384,13 @@
         <v>340</v>
       </c>
       <c r="K792" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L792" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M792" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -57456,13 +57456,13 @@
         <v>250</v>
       </c>
       <c r="K793" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L793" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M793" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q793" t="n">
         <v>18</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44307</v>
+        <v>44295</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57516,25 +57516,25 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K794" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L794" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M794" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>778</v>
+        <v>333</v>
       </c>
       <c r="Q794" t="n">
         <v>18</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57597,32 +57597,32 @@
         </is>
       </c>
       <c r="J795" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K795" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L795" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M795" t="n">
-        <v>12000</v>
+        <v>5750</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>667</v>
+        <v>575</v>
       </c>
       <c r="Q795" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R795" t="inlineStr">
         <is>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57669,32 +57669,32 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="K796" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L796" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M796" t="n">
-        <v>10000</v>
+        <v>4752</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="Q796" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R796" t="inlineStr">
         <is>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57741,32 +57741,32 @@
         </is>
       </c>
       <c r="J797" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K797" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L797" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M797" t="n">
-        <v>8000</v>
+        <v>3747</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>444</v>
+        <v>375</v>
       </c>
       <c r="Q797" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R797" t="inlineStr">
         <is>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57804,25 +57804,25 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K798" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L798" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M798" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57876,25 +57876,25 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J799" t="n">
         <v>250</v>
       </c>
       <c r="K799" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L799" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M799" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q799" t="n">
         <v>18</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57953,11 +57953,11 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K800" t="n">
         <v>6000</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58020,25 +58020,25 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="K801" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="L801" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="M801" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58047,11 +58047,11 @@
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>1667</v>
+        <v>278</v>
       </c>
       <c r="Q801" t="n">
         <v>18</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58104,13 +58104,13 @@
         <v>160</v>
       </c>
       <c r="K802" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L802" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M802" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58173,16 +58173,16 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K803" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L803" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M803" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58245,16 +58245,16 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K804" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L804" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M804" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58308,16 +58308,16 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K805" t="n">
         <v>8000</v>
@@ -58335,7 +58335,7 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P805" t="n">
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58389,16 +58389,16 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K806" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L806" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M806" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58461,16 +58461,16 @@
         </is>
       </c>
       <c r="J807" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K807" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L807" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M807" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q807" t="n">
         <v>18</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K808" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L808" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M808" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="Q808" t="n">
         <v>18</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58596,7 +58596,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
@@ -58605,16 +58605,16 @@
         </is>
       </c>
       <c r="J809" t="n">
-        <v>430</v>
+        <v>10</v>
       </c>
       <c r="K809" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L809" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M809" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58623,11 +58623,11 @@
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>556</v>
+        <v>1667</v>
       </c>
       <c r="Q809" t="n">
         <v>18</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58668,25 +58668,25 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K810" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L810" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M810" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q810" t="n">
         <v>18</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58740,25 +58740,25 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J811" t="n">
         <v>160</v>
       </c>
       <c r="K811" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L811" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M811" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>333</v>
+        <v>611</v>
       </c>
       <c r="Q811" t="n">
         <v>18</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58812,29 +58812,29 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K812" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L812" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M812" t="n">
-        <v>13400</v>
+        <v>9000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O812" t="inlineStr">
@@ -58843,10 +58843,10 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>893</v>
+        <v>500</v>
       </c>
       <c r="Q812" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R812" t="inlineStr">
         <is>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58884,41 +58884,41 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K813" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L813" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M813" t="n">
-        <v>9727</v>
+        <v>8000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>973</v>
+        <v>444</v>
       </c>
       <c r="Q813" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R813" t="inlineStr">
         <is>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58956,25 +58956,25 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="K814" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L814" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="M814" t="n">
-        <v>18500</v>
+        <v>7000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>1028</v>
+        <v>389</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59028,25 +59028,25 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K815" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="L815" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="M815" t="n">
-        <v>16500</v>
+        <v>5000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>917</v>
+        <v>278</v>
       </c>
       <c r="Q815" t="n">
         <v>18</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59100,25 +59100,25 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K816" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L816" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M816" t="n">
-        <v>15495</v>
+        <v>12000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>861</v>
+        <v>667</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59172,25 +59172,25 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>61</v>
+        <v>430</v>
       </c>
       <c r="K817" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L817" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M817" t="n">
-        <v>14492</v>
+        <v>10000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59199,16 +59199,592 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>805</v>
+        <v>556</v>
       </c>
       <c r="Q817" t="n">
         <v>18</v>
       </c>
       <c r="R817" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>9</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D818" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E818" t="n">
+        <v>13</v>
+      </c>
+      <c r="F818" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G818" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I818" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J818" t="n">
+        <v>340</v>
+      </c>
+      <c r="K818" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L818" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M818" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N818" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O818" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P818" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q818" t="n">
+        <v>18</v>
+      </c>
+      <c r="R818" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>9</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D819" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E819" t="n">
+        <v>13</v>
+      </c>
+      <c r="F819" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G819" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I819" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J819" t="n">
+        <v>160</v>
+      </c>
+      <c r="K819" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L819" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M819" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N819" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O819" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P819" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q819" t="n">
+        <v>18</v>
+      </c>
+      <c r="R819" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>9</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D820" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E820" t="n">
+        <v>13</v>
+      </c>
+      <c r="F820" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G820" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="I820" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J820" t="n">
+        <v>50</v>
+      </c>
+      <c r="K820" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L820" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M820" t="n">
+        <v>13400</v>
+      </c>
+      <c r="N820" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O820" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P820" t="n">
+        <v>893</v>
+      </c>
+      <c r="Q820" t="n">
+        <v>15</v>
+      </c>
+      <c r="R820" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>9</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D821" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E821" t="n">
+        <v>13</v>
+      </c>
+      <c r="F821" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G821" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="I821" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J821" t="n">
+        <v>110</v>
+      </c>
+      <c r="K821" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L821" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M821" t="n">
+        <v>9727</v>
+      </c>
+      <c r="N821" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O821" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P821" t="n">
+        <v>973</v>
+      </c>
+      <c r="Q821" t="n">
+        <v>10</v>
+      </c>
+      <c r="R821" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>9</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D822" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E822" t="n">
+        <v>13</v>
+      </c>
+      <c r="F822" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G822" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I822" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J822" t="n">
+        <v>124</v>
+      </c>
+      <c r="K822" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L822" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M822" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N822" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O822" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P822" t="n">
+        <v>1028</v>
+      </c>
+      <c r="Q822" t="n">
+        <v>18</v>
+      </c>
+      <c r="R822" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>9</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D823" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E823" t="n">
+        <v>13</v>
+      </c>
+      <c r="F823" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G823" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I823" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J823" t="n">
+        <v>250</v>
+      </c>
+      <c r="K823" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L823" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M823" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N823" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O823" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P823" t="n">
+        <v>917</v>
+      </c>
+      <c r="Q823" t="n">
+        <v>18</v>
+      </c>
+      <c r="R823" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>9</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D824" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E824" t="n">
+        <v>13</v>
+      </c>
+      <c r="F824" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G824" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I824" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J824" t="n">
+        <v>97</v>
+      </c>
+      <c r="K824" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L824" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M824" t="n">
+        <v>15495</v>
+      </c>
+      <c r="N824" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O824" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P824" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q824" t="n">
+        <v>18</v>
+      </c>
+      <c r="R824" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>9</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D825" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E825" t="n">
+        <v>13</v>
+      </c>
+      <c r="F825" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G825" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I825" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J825" t="n">
+        <v>61</v>
+      </c>
+      <c r="K825" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L825" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M825" t="n">
+        <v>14492</v>
+      </c>
+      <c r="N825" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O825" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P825" t="n">
+        <v>805</v>
+      </c>
+      <c r="Q825" t="n">
+        <v>18</v>
+      </c>
+      <c r="R825" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R825"/>
+  <dimension ref="A1:R829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51180,29 +51180,29 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="K706" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L706" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M706" t="n">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
@@ -51211,10 +51211,10 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>2400</v>
+        <v>1139</v>
       </c>
       <c r="Q706" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51257,21 +51257,21 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="K707" t="n">
         <v>17000</v>
       </c>
       <c r="L707" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M707" t="n">
         <v>18000</v>
       </c>
-      <c r="M707" t="n">
-        <v>17500</v>
-      </c>
       <c r="N707" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -51283,7 +51283,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="Q707" t="n">
         <v>18</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51329,20 +51329,20 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K708" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L708" t="n">
         <v>15000</v>
       </c>
-      <c r="L708" t="n">
-        <v>16000</v>
-      </c>
       <c r="M708" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51401,24 +51401,24 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="K709" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L709" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M709" t="n">
-        <v>7500</v>
+        <v>10495</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
@@ -51427,10 +51427,10 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>750</v>
+        <v>583</v>
       </c>
       <c r="Q709" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51468,29 +51468,29 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="K710" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L710" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="M710" t="n">
-        <v>13500</v>
+        <v>24000</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
@@ -51499,10 +51499,10 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>750</v>
+        <v>2400</v>
       </c>
       <c r="Q710" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51545,24 +51545,24 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K711" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L711" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M711" t="n">
-        <v>5495</v>
+        <v>17500</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
@@ -51571,10 +51571,10 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>550</v>
+        <v>972</v>
       </c>
       <c r="Q711" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R711" t="inlineStr">
         <is>
@@ -51617,20 +51617,20 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="K712" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L712" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M712" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>639</v>
+        <v>861</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51689,20 +51689,20 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="K713" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L713" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M713" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q713" t="n">
         <v>10</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51761,24 +51761,24 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="K714" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L714" t="n">
         <v>14000</v>
       </c>
-      <c r="L714" t="n">
-        <v>15000</v>
-      </c>
       <c r="M714" t="n">
-        <v>14505</v>
+        <v>13500</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O714" t="inlineStr">
@@ -51787,10 +51787,10 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="Q714" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R714" t="inlineStr">
         <is>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51833,24 +51833,24 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K715" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L715" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M715" t="n">
-        <v>12500</v>
+        <v>5495</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
@@ -51859,10 +51859,10 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="Q715" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51905,24 +51905,24 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="K716" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L716" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M716" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
@@ -51931,10 +51931,10 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>525</v>
+        <v>639</v>
       </c>
       <c r="Q716" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R716" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51981,20 +51981,20 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K717" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L717" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M717" t="n">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
@@ -52003,10 +52003,10 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="Q717" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R717" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52044,29 +52044,29 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="K718" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="L718" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M718" t="n">
-        <v>25000</v>
+        <v>14505</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
@@ -52075,10 +52075,10 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>2500</v>
+        <v>725</v>
       </c>
       <c r="Q718" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R718" t="inlineStr">
         <is>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52121,36 +52121,36 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>50</v>
+        <v>340</v>
       </c>
       <c r="K719" t="n">
         <v>12000</v>
       </c>
       <c r="L719" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M719" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="Q719" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R719" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52193,24 +52193,24 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K720" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L720" t="n">
         <v>11000</v>
       </c>
-      <c r="L720" t="n">
-        <v>12000</v>
-      </c>
       <c r="M720" t="n">
-        <v>11350</v>
+        <v>10500</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O720" t="inlineStr">
@@ -52219,10 +52219,10 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>631</v>
+        <v>525</v>
       </c>
       <c r="Q720" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R720" t="inlineStr">
         <is>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52265,36 +52265,36 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K721" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L721" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M721" t="n">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>583</v>
+        <v>425</v>
       </c>
       <c r="Q721" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R721" t="inlineStr">
         <is>
@@ -52332,7 +52332,7 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
@@ -52341,20 +52341,20 @@
         </is>
       </c>
       <c r="J722" t="n">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="K722" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="L722" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M722" t="n">
-        <v>9500</v>
+        <v>25000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
@@ -52363,10 +52363,10 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>528</v>
+        <v>2500</v>
       </c>
       <c r="Q722" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R722" t="inlineStr">
         <is>
@@ -52409,36 +52409,36 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K723" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L723" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M723" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="Q723" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R723" t="inlineStr">
         <is>
@@ -52481,20 +52481,20 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K724" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L724" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M724" t="n">
-        <v>8500</v>
+        <v>11350</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52503,11 +52503,11 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>472</v>
+        <v>631</v>
       </c>
       <c r="Q724" t="n">
         <v>18</v>
@@ -52553,20 +52553,20 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="K725" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L725" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M725" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>417</v>
+        <v>583</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52625,24 +52625,24 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="K726" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L726" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M726" t="n">
-        <v>6250</v>
+        <v>9500</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
@@ -52651,10 +52651,10 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="Q726" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52697,36 +52697,36 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K727" t="n">
         <v>7000</v>
       </c>
       <c r="L727" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M727" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>389</v>
+        <v>750</v>
       </c>
       <c r="Q727" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R727" t="inlineStr">
         <is>
@@ -52769,20 +52769,20 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K728" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L728" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M728" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>333</v>
+        <v>472</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52841,24 +52841,24 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="K729" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L729" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M729" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
@@ -52867,10 +52867,10 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="Q729" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52908,25 +52908,25 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K730" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L730" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="M730" t="n">
-        <v>10000</v>
+        <v>6250</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="Q730" t="n">
         <v>10</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -52985,20 +52985,20 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K731" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L731" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="M731" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q731" t="n">
         <v>18</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53057,20 +53057,20 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K732" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L732" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M732" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53079,11 +53079,11 @@
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P732" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="Q732" t="n">
         <v>18</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53129,24 +53129,24 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K733" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L733" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M733" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O733" t="inlineStr">
@@ -53155,10 +53155,10 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q733" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R733" t="inlineStr">
         <is>
@@ -53196,7 +53196,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
@@ -53205,16 +53205,16 @@
         </is>
       </c>
       <c r="J734" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K734" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L734" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M734" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53227,7 +53227,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q734" t="n">
         <v>10</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53268,41 +53268,41 @@
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="K735" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="L735" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="M735" t="n">
-        <v>25519</v>
+        <v>9000</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>2552</v>
+        <v>500</v>
       </c>
       <c r="Q735" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R735" t="inlineStr">
         <is>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -53345,20 +53345,20 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K736" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L736" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M736" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>833</v>
+        <v>444</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53421,16 +53421,16 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K737" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L737" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="M737" t="n">
-        <v>14250</v>
+        <v>7000</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>792</v>
+        <v>389</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53493,16 +53493,16 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K738" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="L738" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M738" t="n">
-        <v>7750</v>
+        <v>4000</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>775</v>
+        <v>400</v>
       </c>
       <c r="Q738" t="n">
         <v>10</v>
@@ -53556,29 +53556,29 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="K739" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L739" t="n">
-        <v>13500</v>
+        <v>26000</v>
       </c>
       <c r="M739" t="n">
-        <v>13250</v>
+        <v>25519</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O739" t="inlineStr">
@@ -53587,10 +53587,10 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>736</v>
+        <v>2552</v>
       </c>
       <c r="Q739" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R739" t="inlineStr">
         <is>
@@ -53633,24 +53633,24 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K740" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="L740" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M740" t="n">
-        <v>6750</v>
+        <v>15000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O740" t="inlineStr">
@@ -53659,10 +53659,10 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>675</v>
+        <v>833</v>
       </c>
       <c r="Q740" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R740" t="inlineStr">
         <is>
@@ -53705,20 +53705,20 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K741" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L741" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="M741" t="n">
-        <v>11500</v>
+        <v>14250</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53731,7 +53731,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>639</v>
+        <v>792</v>
       </c>
       <c r="Q741" t="n">
         <v>18</v>
@@ -53777,20 +53777,20 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K742" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L742" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M742" t="n">
-        <v>5747</v>
+        <v>7750</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>575</v>
+        <v>775</v>
       </c>
       <c r="Q742" t="n">
         <v>10</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53844,25 +53844,25 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K743" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L743" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="M743" t="n">
-        <v>8000</v>
+        <v>13250</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53871,11 +53871,11 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>444</v>
+        <v>736</v>
       </c>
       <c r="Q743" t="n">
         <v>18</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53916,41 +53916,41 @@
       </c>
       <c r="H744" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K744" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="L744" t="n">
         <v>7000</v>
       </c>
       <c r="M744" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>389</v>
+        <v>675</v>
       </c>
       <c r="Q744" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R744" t="inlineStr">
         <is>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53988,25 +53988,25 @@
       </c>
       <c r="H745" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K745" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L745" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M745" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54015,11 +54015,11 @@
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>333</v>
+        <v>639</v>
       </c>
       <c r="Q745" t="n">
         <v>18</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54060,25 +54060,25 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="K746" t="n">
-        <v>24000</v>
+        <v>5500</v>
       </c>
       <c r="L746" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="M746" t="n">
-        <v>24480</v>
+        <v>5747</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>2448</v>
+        <v>575</v>
       </c>
       <c r="Q746" t="n">
         <v>10</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54132,7 +54132,7 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
@@ -54141,16 +54141,16 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K747" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="L747" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M747" t="n">
-        <v>19505</v>
+        <v>8000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54159,11 +54159,11 @@
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>1084</v>
+        <v>444</v>
       </c>
       <c r="Q747" t="n">
         <v>18</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54204,7 +54204,7 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
@@ -54213,16 +54213,16 @@
         </is>
       </c>
       <c r="J748" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K748" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L748" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M748" t="n">
-        <v>17500</v>
+        <v>7000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>972</v>
+        <v>389</v>
       </c>
       <c r="Q748" t="n">
         <v>18</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54276,41 +54276,41 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K749" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L749" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M749" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>750</v>
+        <v>333</v>
       </c>
       <c r="Q749" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R749" t="inlineStr">
         <is>
@@ -54348,29 +54348,29 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K750" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="L750" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="M750" t="n">
-        <v>15500</v>
+        <v>24480</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O750" t="inlineStr">
@@ -54379,10 +54379,10 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>861</v>
+        <v>2448</v>
       </c>
       <c r="Q750" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R750" t="inlineStr">
         <is>
@@ -54425,24 +54425,24 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="K751" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="L751" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M751" t="n">
-        <v>5514</v>
+        <v>19505</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O751" t="inlineStr">
@@ -54451,10 +54451,10 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>551</v>
+        <v>1084</v>
       </c>
       <c r="Q751" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R751" t="inlineStr">
         <is>
@@ -54497,20 +54497,20 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K752" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L752" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M752" t="n">
-        <v>13494</v>
+        <v>17500</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54523,7 +54523,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>750</v>
+        <v>972</v>
       </c>
       <c r="Q752" t="n">
         <v>18</v>
@@ -54569,20 +54569,20 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K753" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L753" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M753" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54595,7 +54595,7 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q753" t="n">
         <v>10</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54641,24 +54641,24 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K754" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L754" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M754" t="n">
-        <v>5750</v>
+        <v>15500</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O754" t="inlineStr">
@@ -54667,10 +54667,10 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>575</v>
+        <v>861</v>
       </c>
       <c r="Q754" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R754" t="inlineStr">
         <is>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54717,16 +54717,16 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="K755" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L755" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M755" t="n">
-        <v>4750</v>
+        <v>5514</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54739,7 +54739,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>475</v>
+        <v>551</v>
       </c>
       <c r="Q755" t="n">
         <v>10</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -54789,20 +54789,20 @@
         </is>
       </c>
       <c r="J756" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K756" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="L756" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="M756" t="n">
-        <v>4000</v>
+        <v>13494</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O756" t="inlineStr">
@@ -54811,10 +54811,10 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="Q756" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R756" t="inlineStr">
         <is>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54857,24 +54857,24 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K757" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L757" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="M757" t="n">
-        <v>17500</v>
+        <v>4000</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O757" t="inlineStr">
@@ -54883,10 +54883,10 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>972</v>
+        <v>400</v>
       </c>
       <c r="Q757" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R757" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54936,17 +54936,17 @@
         <v>340</v>
       </c>
       <c r="K758" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="L758" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M758" t="n">
-        <v>15500</v>
+        <v>5750</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O758" t="inlineStr">
@@ -54955,10 +54955,10 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>861</v>
+        <v>575</v>
       </c>
       <c r="Q758" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R758" t="inlineStr">
         <is>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -55008,17 +55008,17 @@
         <v>250</v>
       </c>
       <c r="K759" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="L759" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M759" t="n">
-        <v>13500</v>
+        <v>4750</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O759" t="inlineStr">
@@ -55027,10 +55027,10 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>750</v>
+        <v>475</v>
       </c>
       <c r="Q759" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R759" t="inlineStr">
         <is>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55077,20 +55077,20 @@
         </is>
       </c>
       <c r="J760" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K760" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L760" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M760" t="n">
-        <v>11495</v>
+        <v>4000</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
@@ -55099,10 +55099,10 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>639</v>
+        <v>400</v>
       </c>
       <c r="Q760" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R760" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55140,29 +55140,29 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K761" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L761" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M761" t="n">
-        <v>25480</v>
+        <v>17500</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
@@ -55171,10 +55171,10 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>2548</v>
+        <v>972</v>
       </c>
       <c r="Q761" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R761" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -55217,20 +55217,20 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K762" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L762" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="M762" t="n">
-        <v>24494</v>
+        <v>15500</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55243,7 +55243,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>1361</v>
+        <v>861</v>
       </c>
       <c r="Q762" t="n">
         <v>18</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -55289,20 +55289,20 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K763" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L763" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="M763" t="n">
-        <v>22500</v>
+        <v>13500</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55315,7 +55315,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="Q763" t="n">
         <v>18</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -55361,24 +55361,24 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="K764" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L764" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M764" t="n">
-        <v>9504</v>
+        <v>11495</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O764" t="inlineStr">
@@ -55387,10 +55387,10 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>950</v>
+        <v>639</v>
       </c>
       <c r="Q764" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R764" t="inlineStr">
         <is>
@@ -55428,29 +55428,29 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="K765" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L765" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="M765" t="n">
-        <v>20500</v>
+        <v>25480</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O765" t="inlineStr">
@@ -55459,10 +55459,10 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>1139</v>
+        <v>2548</v>
       </c>
       <c r="Q765" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R765" t="inlineStr">
         <is>
@@ -55505,24 +55505,24 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J766" t="n">
         <v>79</v>
       </c>
       <c r="K766" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="L766" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="M766" t="n">
-        <v>7494</v>
+        <v>24494</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
@@ -55531,10 +55531,10 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>749</v>
+        <v>1361</v>
       </c>
       <c r="Q766" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R766" t="inlineStr">
         <is>
@@ -55577,20 +55577,20 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>133</v>
+        <v>320</v>
       </c>
       <c r="K767" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L767" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="M767" t="n">
-        <v>18504</v>
+        <v>22500</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>1028</v>
+        <v>1250</v>
       </c>
       <c r="Q767" t="n">
         <v>18</v>
@@ -55649,20 +55649,20 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="K768" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L768" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M768" t="n">
-        <v>5500</v>
+        <v>9504</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55675,7 +55675,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>550</v>
+        <v>950</v>
       </c>
       <c r="Q768" t="n">
         <v>10</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -55716,25 +55716,25 @@
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="K769" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L769" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="M769" t="n">
-        <v>35000</v>
+        <v>20500</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55743,11 +55743,11 @@
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>1944</v>
+        <v>1139</v>
       </c>
       <c r="Q769" t="n">
         <v>18</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -55788,41 +55788,41 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="K770" t="n">
-        <v>32000</v>
+        <v>7000</v>
       </c>
       <c r="L770" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="M770" t="n">
-        <v>32000</v>
+        <v>7494</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>1778</v>
+        <v>749</v>
       </c>
       <c r="Q770" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R770" t="inlineStr">
         <is>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55865,20 +55865,20 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="K771" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L771" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M771" t="n">
-        <v>14000</v>
+        <v>18504</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>778</v>
+        <v>1028</v>
       </c>
       <c r="Q771" t="n">
         <v>18</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55937,36 +55937,36 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="K772" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L772" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M772" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>667</v>
+        <v>550</v>
       </c>
       <c r="Q772" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R772" t="inlineStr">
         <is>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56004,25 +56004,25 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="K773" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="L773" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="M773" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56035,7 +56035,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>556</v>
+        <v>1944</v>
       </c>
       <c r="Q773" t="n">
         <v>18</v>
@@ -56076,25 +56076,25 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K774" t="n">
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="L774" t="n">
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="M774" t="n">
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56107,7 +56107,7 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>444</v>
+        <v>1778</v>
       </c>
       <c r="Q774" t="n">
         <v>18</v>
@@ -56148,7 +56148,7 @@
       </c>
       <c r="H775" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -56157,16 +56157,16 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K775" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L775" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M775" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q775" t="n">
         <v>18</v>
@@ -56220,7 +56220,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -56232,13 +56232,13 @@
         <v>340</v>
       </c>
       <c r="K776" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L776" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M776" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q776" t="n">
         <v>18</v>
@@ -56292,7 +56292,7 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
@@ -56304,13 +56304,13 @@
         <v>250</v>
       </c>
       <c r="K777" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L777" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M777" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56323,7 +56323,7 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q777" t="n">
         <v>18</v>
@@ -56364,7 +56364,7 @@
       </c>
       <c r="H778" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -56376,13 +56376,13 @@
         <v>160</v>
       </c>
       <c r="K778" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L778" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M778" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56395,7 +56395,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q778" t="n">
         <v>18</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56436,7 +56436,7 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56508,7 +56508,7 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
@@ -56517,7 +56517,7 @@
         </is>
       </c>
       <c r="J780" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K780" t="n">
         <v>10000</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56580,7 +56580,7 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
@@ -56589,7 +56589,7 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K781" t="n">
         <v>8000</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56652,7 +56652,7 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -56661,7 +56661,7 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K782" t="n">
         <v>6000</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56729,20 +56729,20 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K783" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L783" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M783" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56751,11 +56751,11 @@
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56801,20 +56801,20 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K784" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L784" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M784" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q784" t="n">
         <v>18</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56873,20 +56873,20 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K785" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L785" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M785" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56895,11 +56895,11 @@
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="Q785" t="n">
         <v>18</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56940,25 +56940,25 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K786" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="L786" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="M786" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>1667</v>
+        <v>333</v>
       </c>
       <c r="Q786" t="n">
         <v>18</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57017,20 +57017,20 @@
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K787" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L787" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M787" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57039,11 +57039,11 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="Q787" t="n">
         <v>18</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57089,20 +57089,20 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="K788" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L788" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M788" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q788" t="n">
         <v>18</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57161,36 +57161,36 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="K789" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L789" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M789" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="Q789" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R789" t="inlineStr">
         <is>
@@ -57228,25 +57228,25 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K790" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="L790" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="M790" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>500</v>
+        <v>1667</v>
       </c>
       <c r="Q790" t="n">
         <v>18</v>
@@ -57300,7 +57300,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -57309,16 +57309,16 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K791" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L791" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M791" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57372,7 +57372,7 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
@@ -57381,16 +57381,16 @@
         </is>
       </c>
       <c r="J792" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K792" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L792" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M792" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57444,7 +57444,7 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
@@ -57453,32 +57453,32 @@
         </is>
       </c>
       <c r="J793" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K793" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L793" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M793" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="Q793" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R793" t="inlineStr">
         <is>
@@ -57516,7 +57516,7 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -57525,16 +57525,16 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K794" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L794" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M794" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q794" t="n">
         <v>18</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57588,41 +57588,41 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K795" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L795" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M795" t="n">
-        <v>5750</v>
+        <v>12000</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>575</v>
+        <v>667</v>
       </c>
       <c r="Q795" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R795" t="inlineStr">
         <is>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57660,41 +57660,41 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>133</v>
+        <v>340</v>
       </c>
       <c r="K796" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L796" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M796" t="n">
-        <v>4752</v>
+        <v>10000</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>475</v>
+        <v>556</v>
       </c>
       <c r="Q796" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R796" t="inlineStr">
         <is>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57732,41 +57732,41 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K797" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="L797" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M797" t="n">
-        <v>3747</v>
+        <v>8000</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="Q797" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R797" t="inlineStr">
         <is>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57804,25 +57804,25 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K798" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L798" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M798" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>722</v>
+        <v>333</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57888,29 +57888,29 @@
         <v>250</v>
       </c>
       <c r="K799" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L799" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M799" t="n">
-        <v>10000</v>
+        <v>5750</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="Q799" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R799" t="inlineStr">
         <is>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57948,41 +57948,41 @@
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="K800" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L800" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M800" t="n">
-        <v>6000</v>
+        <v>4752</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>333</v>
+        <v>475</v>
       </c>
       <c r="Q800" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R800" t="inlineStr">
         <is>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58020,41 +58020,41 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K801" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L801" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M801" t="n">
-        <v>5000</v>
+        <v>3747</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>278</v>
+        <v>375</v>
       </c>
       <c r="Q801" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R801" t="inlineStr">
         <is>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58104,13 +58104,13 @@
         <v>160</v>
       </c>
       <c r="K802" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L802" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M802" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58173,16 +58173,16 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K803" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L803" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M803" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58236,25 +58236,25 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K804" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L804" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M804" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58263,11 +58263,11 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58308,25 +58308,25 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K805" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L805" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M805" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58335,11 +58335,11 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>444</v>
+        <v>278</v>
       </c>
       <c r="Q805" t="n">
         <v>18</v>
@@ -58380,25 +58380,25 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K806" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L806" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M806" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58407,11 +58407,11 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58452,25 +58452,25 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K807" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L807" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M807" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58479,11 +58479,11 @@
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q807" t="n">
         <v>18</v>
@@ -58524,25 +58524,25 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K808" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L808" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M808" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58551,11 +58551,11 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q808" t="n">
         <v>18</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58596,25 +58596,25 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K809" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="L809" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="M809" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58627,7 +58627,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>1667</v>
+        <v>444</v>
       </c>
       <c r="Q809" t="n">
         <v>18</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58668,25 +58668,25 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K810" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L810" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M810" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q810" t="n">
         <v>18</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58740,25 +58740,25 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K811" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L811" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M811" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="Q811" t="n">
         <v>18</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58812,25 +58812,25 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K812" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L812" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M812" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58839,11 +58839,11 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q812" t="n">
         <v>18</v>
@@ -58884,25 +58884,25 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="K813" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="L813" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="M813" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>444</v>
+        <v>1667</v>
       </c>
       <c r="Q813" t="n">
         <v>18</v>
@@ -58956,25 +58956,25 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K814" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L814" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M814" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>389</v>
+        <v>722</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59028,25 +59028,25 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J815" t="n">
         <v>160</v>
       </c>
       <c r="K815" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L815" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M815" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>278</v>
+        <v>611</v>
       </c>
       <c r="Q815" t="n">
         <v>18</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59100,25 +59100,25 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K816" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L816" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M816" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K817" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L817" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M817" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q817" t="n">
         <v>18</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59249,20 +59249,20 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K818" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L818" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M818" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q818" t="n">
         <v>18</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59321,20 +59321,20 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J819" t="n">
         <v>160</v>
       </c>
       <c r="K819" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L819" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M819" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59347,7 +59347,7 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q819" t="n">
         <v>18</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59388,41 +59388,41 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K820" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L820" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M820" t="n">
-        <v>13400</v>
+        <v>12000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>893</v>
+        <v>667</v>
       </c>
       <c r="Q820" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R820" t="inlineStr">
         <is>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59460,7 +59460,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -59469,32 +59469,32 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>110</v>
+        <v>430</v>
       </c>
       <c r="K821" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L821" t="n">
         <v>10000</v>
       </c>
       <c r="M821" t="n">
-        <v>9727</v>
+        <v>10000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>973</v>
+        <v>556</v>
       </c>
       <c r="Q821" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R821" t="inlineStr">
         <is>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59532,25 +59532,25 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>124</v>
+        <v>340</v>
       </c>
       <c r="K822" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L822" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M822" t="n">
-        <v>18500</v>
+        <v>8000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59559,11 +59559,11 @@
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>1028</v>
+        <v>444</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59604,25 +59604,25 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K823" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L823" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M823" t="n">
-        <v>16500</v>
+        <v>6000</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>917</v>
+        <v>333</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59676,41 +59676,41 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="K824" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L824" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M824" t="n">
-        <v>15495</v>
+        <v>13400</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>861</v>
+        <v>893</v>
       </c>
       <c r="Q824" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R824" t="inlineStr">
         <is>
@@ -59733,58 +59733,346 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E825" t="n">
+        <v>13</v>
+      </c>
+      <c r="F825" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G825" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="I825" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J825" t="n">
+        <v>110</v>
+      </c>
+      <c r="K825" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L825" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M825" t="n">
+        <v>9727</v>
+      </c>
+      <c r="N825" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O825" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P825" t="n">
+        <v>973</v>
+      </c>
+      <c r="Q825" t="n">
+        <v>10</v>
+      </c>
+      <c r="R825" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>9</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D826" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E825" t="n">
-        <v>13</v>
-      </c>
-      <c r="F825" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G825" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H825" t="inlineStr">
+      <c r="E826" t="n">
+        <v>13</v>
+      </c>
+      <c r="F826" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G826" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H826" t="inlineStr">
         <is>
           <t>Larga vida</t>
         </is>
       </c>
-      <c r="I825" t="inlineStr">
+      <c r="I826" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J826" t="n">
+        <v>124</v>
+      </c>
+      <c r="K826" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L826" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M826" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N826" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O826" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P826" t="n">
+        <v>1028</v>
+      </c>
+      <c r="Q826" t="n">
+        <v>18</v>
+      </c>
+      <c r="R826" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>9</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D827" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E827" t="n">
+        <v>13</v>
+      </c>
+      <c r="F827" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G827" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I827" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J827" t="n">
+        <v>250</v>
+      </c>
+      <c r="K827" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L827" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M827" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N827" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O827" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P827" t="n">
+        <v>917</v>
+      </c>
+      <c r="Q827" t="n">
+        <v>18</v>
+      </c>
+      <c r="R827" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>9</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D828" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E828" t="n">
+        <v>13</v>
+      </c>
+      <c r="F828" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G828" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I828" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J828" t="n">
+        <v>97</v>
+      </c>
+      <c r="K828" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L828" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M828" t="n">
+        <v>15495</v>
+      </c>
+      <c r="N828" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O828" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P828" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q828" t="n">
+        <v>18</v>
+      </c>
+      <c r="R828" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>9</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D829" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E829" t="n">
+        <v>13</v>
+      </c>
+      <c r="F829" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G829" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I829" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J825" t="n">
+      <c r="J829" t="n">
         <v>61</v>
       </c>
-      <c r="K825" t="n">
+      <c r="K829" t="n">
         <v>14000</v>
       </c>
-      <c r="L825" t="n">
+      <c r="L829" t="n">
         <v>15000</v>
       </c>
-      <c r="M825" t="n">
+      <c r="M829" t="n">
         <v>14492</v>
       </c>
-      <c r="N825" t="inlineStr">
+      <c r="N829" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O825" t="inlineStr">
+      <c r="O829" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P825" t="n">
+      <c r="P829" t="n">
         <v>805</v>
       </c>
-      <c r="Q825" t="n">
+      <c r="Q829" t="n">
         <v>18</v>
       </c>
-      <c r="R825" t="inlineStr">
+      <c r="R829" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R829"/>
+  <dimension ref="A1:R837"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47952,13 +47952,13 @@
         <v>25</v>
       </c>
       <c r="K661" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L661" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M661" t="n">
-        <v>21520</v>
+        <v>23960</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>2152</v>
+        <v>2396</v>
       </c>
       <c r="Q661" t="n">
         <v>10</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48017,20 +48017,20 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J662" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K662" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L662" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M662" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>528</v>
+        <v>972</v>
       </c>
       <c r="Q662" t="n">
         <v>18</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48093,16 +48093,16 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K663" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L663" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M663" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>694</v>
+        <v>861</v>
       </c>
       <c r="Q663" t="n">
         <v>18</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48165,16 +48165,16 @@
         </is>
       </c>
       <c r="J664" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K664" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L664" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M664" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48187,7 +48187,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q664" t="n">
         <v>10</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48237,16 +48237,16 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K665" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L665" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M665" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>417</v>
+        <v>694</v>
       </c>
       <c r="Q665" t="n">
         <v>18</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48309,20 +48309,20 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K666" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L666" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M666" t="n">
-        <v>10500</v>
+        <v>5495</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O666" t="inlineStr">
@@ -48331,10 +48331,10 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="Q666" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R666" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48381,16 +48381,16 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K667" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L667" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M667" t="n">
-        <v>6000</v>
+        <v>9508</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48399,11 +48399,11 @@
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="Q667" t="n">
         <v>18</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48453,20 +48453,20 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K668" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="L668" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M668" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O668" t="inlineStr">
@@ -48475,10 +48475,10 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q668" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R668" t="inlineStr">
         <is>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44323</v>
+        <v>44333</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48516,41 +48516,41 @@
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K669" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="L669" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="M669" t="n">
-        <v>9000</v>
+        <v>21520</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P669" t="n">
-        <v>500</v>
+        <v>2152</v>
       </c>
       <c r="Q669" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R669" t="inlineStr">
         <is>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44323</v>
+        <v>44333</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -48597,16 +48597,16 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="K670" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L670" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M670" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>389</v>
+        <v>528</v>
       </c>
       <c r="Q670" t="n">
         <v>18</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44323</v>
+        <v>44333</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K671" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L671" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M671" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48687,11 +48687,11 @@
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>278</v>
+        <v>694</v>
       </c>
       <c r="Q671" t="n">
         <v>18</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44323</v>
+        <v>44333</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48737,36 +48737,36 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K672" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L672" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M672" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>222</v>
+        <v>650</v>
       </c>
       <c r="Q672" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R672" t="inlineStr">
         <is>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44323</v>
+        <v>44333</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48804,25 +48804,25 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K673" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L673" t="n">
         <v>8000</v>
       </c>
       <c r="M673" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48831,11 +48831,11 @@
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="Q673" t="n">
         <v>18</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44323</v>
+        <v>44333</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -48885,16 +48885,16 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K674" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L674" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M674" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48903,11 +48903,11 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>333</v>
+        <v>583</v>
       </c>
       <c r="Q674" t="n">
         <v>18</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44323</v>
+        <v>44333</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48948,7 +48948,7 @@
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -48957,16 +48957,16 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K675" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L675" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M675" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48975,11 +48975,11 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="Q675" t="n">
         <v>18</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44306</v>
+        <v>44333</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49020,25 +49020,25 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K676" t="n">
-        <v>35000</v>
+        <v>9000</v>
       </c>
       <c r="L676" t="n">
-        <v>35000</v>
+        <v>9000</v>
       </c>
       <c r="M676" t="n">
-        <v>35000</v>
+        <v>9000</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49047,11 +49047,11 @@
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>1944</v>
+        <v>500</v>
       </c>
       <c r="Q676" t="n">
         <v>18</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49104,13 +49104,13 @@
         <v>160</v>
       </c>
       <c r="K677" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L677" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M677" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q677" t="n">
         <v>18</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49176,13 +49176,13 @@
         <v>340</v>
       </c>
       <c r="K678" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L678" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M678" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49195,7 +49195,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q678" t="n">
         <v>18</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49248,13 +49248,13 @@
         <v>250</v>
       </c>
       <c r="K679" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L679" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M679" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="Q679" t="n">
         <v>18</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49317,16 +49317,16 @@
         </is>
       </c>
       <c r="J680" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K680" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L680" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M680" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q680" t="n">
         <v>18</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49380,7 +49380,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -49389,16 +49389,16 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K681" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L681" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M681" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49407,11 +49407,11 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>694</v>
+        <v>444</v>
       </c>
       <c r="Q681" t="n">
         <v>18</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49452,7 +49452,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -49461,16 +49461,16 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K682" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L682" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M682" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
@@ -49479,11 +49479,11 @@
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="Q682" t="n">
         <v>18</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49529,20 +49529,20 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J683" t="n">
         <v>160</v>
       </c>
       <c r="K683" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L683" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M683" t="n">
-        <v>11500</v>
+        <v>4000</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49555,7 +49555,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>639</v>
+        <v>222</v>
       </c>
       <c r="Q683" t="n">
         <v>18</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49596,25 +49596,25 @@
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I684" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J684" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K684" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="L684" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="M684" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49623,11 +49623,11 @@
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>556</v>
+        <v>1944</v>
       </c>
       <c r="Q684" t="n">
         <v>18</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49668,41 +49668,41 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K685" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L685" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M685" t="n">
-        <v>24480</v>
+        <v>13000</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>2448</v>
+        <v>722</v>
       </c>
       <c r="Q685" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49745,20 +49745,20 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K686" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L686" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M686" t="n">
-        <v>14494</v>
+        <v>11000</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>805</v>
+        <v>611</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49817,20 +49817,20 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J687" t="n">
         <v>250</v>
       </c>
       <c r="K687" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L687" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M687" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49839,11 +49839,11 @@
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>694</v>
+        <v>500</v>
       </c>
       <c r="Q687" t="n">
         <v>18</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49889,36 +49889,36 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K688" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="L688" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="M688" t="n">
-        <v>19500</v>
+        <v>7000</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>975</v>
+        <v>389</v>
       </c>
       <c r="Q688" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49961,20 +49961,20 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K689" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L689" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M689" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>583</v>
+        <v>694</v>
       </c>
       <c r="Q689" t="n">
         <v>18</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50037,32 +50037,32 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="K690" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L690" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M690" t="n">
-        <v>17504</v>
+        <v>11000</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>875</v>
+        <v>611</v>
       </c>
       <c r="Q690" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R690" t="inlineStr">
         <is>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -50100,25 +50100,25 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K691" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L691" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M691" t="n">
-        <v>8504</v>
+        <v>11500</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>472</v>
+        <v>639</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -50172,41 +50172,41 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K692" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L692" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M692" t="n">
-        <v>15495</v>
+        <v>10000</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>775</v>
+        <v>556</v>
       </c>
       <c r="Q692" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50253,32 +50253,32 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K693" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="L693" t="n">
         <v>25000</v>
       </c>
       <c r="M693" t="n">
-        <v>25000</v>
+        <v>24480</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>1667</v>
+        <v>2448</v>
       </c>
       <c r="Q693" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50316,29 +50316,29 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K694" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L694" t="n">
         <v>15000</v>
       </c>
-      <c r="L694" t="n">
-        <v>17000</v>
-      </c>
       <c r="M694" t="n">
-        <v>16000</v>
+        <v>14494</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O694" t="inlineStr">
@@ -50347,10 +50347,10 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>1600</v>
+        <v>805</v>
       </c>
       <c r="Q694" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R694" t="inlineStr">
         <is>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50393,20 +50393,20 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K695" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L695" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M695" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>1028</v>
+        <v>694</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50469,20 +50469,20 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K696" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L696" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M696" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
@@ -50491,10 +50491,10 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>861</v>
+        <v>975</v>
       </c>
       <c r="Q696" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R696" t="inlineStr">
         <is>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50537,24 +50537,24 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K697" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L697" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M697" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O697" t="inlineStr">
@@ -50563,10 +50563,10 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>750</v>
+        <v>583</v>
       </c>
       <c r="Q697" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R697" t="inlineStr">
         <is>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50613,20 +50613,20 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="K698" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L698" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M698" t="n">
-        <v>13500</v>
+        <v>17504</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
@@ -50635,10 +50635,10 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>750</v>
+        <v>875</v>
       </c>
       <c r="Q698" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50681,24 +50681,24 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K699" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L699" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M699" t="n">
-        <v>5500</v>
+        <v>8504</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O699" t="inlineStr">
@@ -50707,10 +50707,10 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>550</v>
+        <v>472</v>
       </c>
       <c r="Q699" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R699" t="inlineStr">
         <is>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50757,20 +50757,20 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K700" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L700" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M700" t="n">
-        <v>11500</v>
+        <v>15495</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
@@ -50779,10 +50779,10 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>639</v>
+        <v>775</v>
       </c>
       <c r="Q700" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R700" t="inlineStr">
         <is>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44504</v>
+        <v>44215</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50820,41 +50820,41 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K701" t="n">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="L701" t="n">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="M701" t="n">
-        <v>3500</v>
+        <v>25000</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>350</v>
+        <v>1667</v>
       </c>
       <c r="Q701" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R701" t="inlineStr">
         <is>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50892,41 +50892,41 @@
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K702" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L702" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M702" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>444</v>
+        <v>1600</v>
       </c>
       <c r="Q702" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R702" t="inlineStr">
         <is>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50964,25 +50964,25 @@
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J703" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K703" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="L703" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="M703" t="n">
-        <v>6000</v>
+        <v>18500</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>333</v>
+        <v>1028</v>
       </c>
       <c r="Q703" t="n">
         <v>18</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51036,25 +51036,25 @@
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="K704" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L704" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M704" t="n">
-        <v>5000</v>
+        <v>15500</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51063,11 +51063,11 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>278</v>
+        <v>861</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51108,41 +51108,41 @@
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="K705" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L705" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="M705" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>167</v>
+        <v>750</v>
       </c>
       <c r="Q705" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51185,20 +51185,20 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J706" t="n">
         <v>250</v>
       </c>
       <c r="K706" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L706" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="M706" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>1139</v>
+        <v>750</v>
       </c>
       <c r="Q706" t="n">
         <v>18</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51257,24 +51257,24 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>320</v>
+        <v>88</v>
       </c>
       <c r="K707" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L707" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="M707" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
@@ -51283,10 +51283,10 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="Q707" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51329,20 +51329,20 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K708" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L708" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M708" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>806</v>
+        <v>639</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51405,20 +51405,20 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="K709" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="L709" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M709" t="n">
-        <v>10495</v>
+        <v>3500</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
@@ -51427,10 +51427,10 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>583</v>
+        <v>350</v>
       </c>
       <c r="Q709" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51468,41 +51468,41 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K710" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="L710" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M710" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>2400</v>
+        <v>444</v>
       </c>
       <c r="Q710" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51540,25 +51540,25 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K711" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L711" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M711" t="n">
-        <v>17500</v>
+        <v>6000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51567,11 +51567,11 @@
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>972</v>
+        <v>333</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51612,25 +51612,25 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K712" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L712" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M712" t="n">
-        <v>15500</v>
+        <v>5000</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>861</v>
+        <v>278</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51684,41 +51684,41 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="K713" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L713" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="M713" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>750</v>
+        <v>167</v>
       </c>
       <c r="Q713" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R713" t="inlineStr">
         <is>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51761,20 +51761,20 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="K714" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L714" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M714" t="n">
-        <v>13500</v>
+        <v>20500</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51787,7 +51787,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>750</v>
+        <v>1139</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51833,24 +51833,24 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>97</v>
+        <v>320</v>
       </c>
       <c r="K715" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L715" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="M715" t="n">
-        <v>5495</v>
+        <v>18000</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
@@ -51859,10 +51859,10 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="Q715" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J716" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K716" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L716" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M716" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51931,7 +51931,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>639</v>
+        <v>806</v>
       </c>
       <c r="Q716" t="n">
         <v>18</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51981,20 +51981,20 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="K717" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L717" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M717" t="n">
-        <v>4000</v>
+        <v>10495</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
@@ -52003,10 +52003,10 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>400</v>
+        <v>583</v>
       </c>
       <c r="Q717" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R717" t="inlineStr">
         <is>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52044,29 +52044,29 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="K718" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L718" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M718" t="n">
-        <v>14505</v>
+        <v>24000</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
@@ -52075,10 +52075,10 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>725</v>
+        <v>2400</v>
       </c>
       <c r="Q718" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R718" t="inlineStr">
         <is>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52121,24 +52121,24 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K719" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L719" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M719" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O719" t="inlineStr">
@@ -52147,10 +52147,10 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>625</v>
+        <v>972</v>
       </c>
       <c r="Q719" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R719" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52193,24 +52193,24 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J720" t="n">
         <v>250</v>
       </c>
       <c r="K720" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L720" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M720" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O720" t="inlineStr">
@@ -52219,10 +52219,10 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>525</v>
+        <v>861</v>
       </c>
       <c r="Q720" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R720" t="inlineStr">
         <is>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52265,24 +52265,24 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="K721" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L721" t="n">
         <v>8000</v>
       </c>
-      <c r="L721" t="n">
-        <v>9000</v>
-      </c>
       <c r="M721" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
@@ -52291,10 +52291,10 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>425</v>
+        <v>750</v>
       </c>
       <c r="Q721" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R721" t="inlineStr">
         <is>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52332,29 +52332,29 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="K722" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="L722" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="M722" t="n">
-        <v>25000</v>
+        <v>13500</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O722" t="inlineStr">
@@ -52363,10 +52363,10 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>2500</v>
+        <v>750</v>
       </c>
       <c r="Q722" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R722" t="inlineStr">
         <is>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52409,36 +52409,36 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="K723" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L723" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M723" t="n">
-        <v>12000</v>
+        <v>5495</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>667</v>
+        <v>550</v>
       </c>
       <c r="Q723" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R723" t="inlineStr">
         <is>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52481,11 +52481,11 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="K724" t="n">
         <v>11000</v>
@@ -52494,7 +52494,7 @@
         <v>12000</v>
       </c>
       <c r="M724" t="n">
-        <v>11350</v>
+        <v>11500</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="Q724" t="n">
         <v>18</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -52553,36 +52553,36 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="K725" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L725" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="M725" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>583</v>
+        <v>400</v>
       </c>
       <c r="Q725" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R725" t="inlineStr">
         <is>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -52625,24 +52625,24 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>310</v>
+        <v>97</v>
       </c>
       <c r="K726" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L726" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M726" t="n">
-        <v>9500</v>
+        <v>14505</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
@@ -52651,10 +52651,10 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>528</v>
+        <v>725</v>
       </c>
       <c r="Q726" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -52701,20 +52701,20 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K727" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L727" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M727" t="n">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
@@ -52723,10 +52723,10 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>750</v>
+        <v>625</v>
       </c>
       <c r="Q727" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R727" t="inlineStr">
         <is>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -52773,32 +52773,32 @@
         </is>
       </c>
       <c r="J728" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K728" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L728" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M728" t="n">
-        <v>8500</v>
+        <v>10500</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="Q728" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R728" t="inlineStr">
         <is>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52841,24 +52841,24 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K729" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L729" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M729" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
@@ -52867,10 +52867,10 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="Q729" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52908,25 +52908,25 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K730" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="L730" t="n">
-        <v>6500</v>
+        <v>25000</v>
       </c>
       <c r="M730" t="n">
-        <v>6250</v>
+        <v>25000</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>625</v>
+        <v>2500</v>
       </c>
       <c r="Q730" t="n">
         <v>10</v>
@@ -52985,20 +52985,20 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K731" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L731" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M731" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53011,7 +53011,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q731" t="n">
         <v>18</v>
@@ -53057,20 +53057,20 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K732" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L732" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M732" t="n">
-        <v>6000</v>
+        <v>11350</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>333</v>
+        <v>631</v>
       </c>
       <c r="Q732" t="n">
         <v>18</v>
@@ -53129,36 +53129,36 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K733" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L733" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M733" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>500</v>
+        <v>583</v>
       </c>
       <c r="Q733" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R733" t="inlineStr">
         <is>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -53196,7 +53196,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
@@ -53205,20 +53205,20 @@
         </is>
       </c>
       <c r="J734" t="n">
-        <v>25</v>
+        <v>310</v>
       </c>
       <c r="K734" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L734" t="n">
         <v>10000</v>
       </c>
       <c r="M734" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O734" t="inlineStr">
@@ -53227,10 +53227,10 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>1000</v>
+        <v>528</v>
       </c>
       <c r="Q734" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R734" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53273,36 +53273,36 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K735" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L735" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M735" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q735" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R735" t="inlineStr">
         <is>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -53345,20 +53345,20 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K736" t="n">
         <v>8000</v>
       </c>
       <c r="L736" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M736" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="Q736" t="n">
         <v>18</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53417,20 +53417,20 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J737" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K737" t="n">
         <v>7000</v>
       </c>
       <c r="L737" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M737" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53489,20 +53489,20 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K738" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L738" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="M738" t="n">
-        <v>4000</v>
+        <v>6250</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="Q738" t="n">
         <v>10</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44392</v>
+        <v>44343</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53556,41 +53556,41 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="K739" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="L739" t="n">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M739" t="n">
-        <v>25519</v>
+        <v>7000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>2552</v>
+        <v>389</v>
       </c>
       <c r="Q739" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R739" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44392</v>
+        <v>44343</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53633,20 +53633,20 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K740" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L740" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M740" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53659,7 +53659,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>833</v>
+        <v>333</v>
       </c>
       <c r="Q740" t="n">
         <v>18</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44392</v>
+        <v>44343</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53705,24 +53705,24 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="K741" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L741" t="n">
-        <v>14500</v>
+        <v>5000</v>
       </c>
       <c r="M741" t="n">
-        <v>14250</v>
+        <v>5000</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O741" t="inlineStr">
@@ -53731,10 +53731,10 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>792</v>
+        <v>500</v>
       </c>
       <c r="Q741" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R741" t="inlineStr">
         <is>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53772,7 +53772,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -53781,16 +53781,16 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="K742" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="L742" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M742" t="n">
-        <v>7750</v>
+        <v>10000</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>775</v>
+        <v>1000</v>
       </c>
       <c r="Q742" t="n">
         <v>10</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53849,20 +53849,20 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K743" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L743" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="M743" t="n">
-        <v>13250</v>
+        <v>9000</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53871,11 +53871,11 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>736</v>
+        <v>500</v>
       </c>
       <c r="Q743" t="n">
         <v>18</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53921,36 +53921,36 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K744" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L744" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M744" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>675</v>
+        <v>444</v>
       </c>
       <c r="Q744" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R744" t="inlineStr">
         <is>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53993,20 +53993,20 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J745" t="n">
         <v>160</v>
       </c>
       <c r="K745" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L745" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M745" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54019,7 +54019,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>639</v>
+        <v>389</v>
       </c>
       <c r="Q745" t="n">
         <v>18</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54065,20 +54065,20 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="K746" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L746" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M746" t="n">
-        <v>5747</v>
+        <v>4000</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54091,7 +54091,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>575</v>
+        <v>400</v>
       </c>
       <c r="Q746" t="n">
         <v>10</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54132,41 +54132,41 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="K747" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="L747" t="n">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="M747" t="n">
-        <v>8000</v>
+        <v>25519</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>444</v>
+        <v>2552</v>
       </c>
       <c r="Q747" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R747" t="inlineStr">
         <is>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54204,25 +54204,25 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K748" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L748" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M748" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>389</v>
+        <v>833</v>
       </c>
       <c r="Q748" t="n">
         <v>18</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54276,25 +54276,25 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K749" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L749" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="M749" t="n">
-        <v>6000</v>
+        <v>14250</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54303,11 +54303,11 @@
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>333</v>
+        <v>792</v>
       </c>
       <c r="Q749" t="n">
         <v>18</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54348,7 +54348,7 @@
       </c>
       <c r="H750" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -54357,16 +54357,16 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="K750" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="L750" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M750" t="n">
-        <v>24480</v>
+        <v>7750</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>2448</v>
+        <v>775</v>
       </c>
       <c r="Q750" t="n">
         <v>10</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54425,20 +54425,20 @@
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K751" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="L751" t="n">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="M751" t="n">
-        <v>19505</v>
+        <v>13250</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>1084</v>
+        <v>736</v>
       </c>
       <c r="Q751" t="n">
         <v>18</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54497,24 +54497,24 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J752" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K752" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="L752" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M752" t="n">
-        <v>17500</v>
+        <v>6750</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O752" t="inlineStr">
@@ -54523,10 +54523,10 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>972</v>
+        <v>675</v>
       </c>
       <c r="Q752" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R752" t="inlineStr">
         <is>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54569,24 +54569,24 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J753" t="n">
         <v>160</v>
       </c>
       <c r="K753" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L753" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M753" t="n">
-        <v>7500</v>
+        <v>11500</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O753" t="inlineStr">
@@ -54595,10 +54595,10 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>750</v>
+        <v>639</v>
       </c>
       <c r="Q753" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R753" t="inlineStr">
         <is>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54641,24 +54641,24 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K754" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="L754" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M754" t="n">
-        <v>15500</v>
+        <v>5747</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O754" t="inlineStr">
@@ -54667,10 +54667,10 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>861</v>
+        <v>575</v>
       </c>
       <c r="Q754" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R754" t="inlineStr">
         <is>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54708,41 +54708,41 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="K755" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L755" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M755" t="n">
-        <v>5514</v>
+        <v>8000</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>551</v>
+        <v>444</v>
       </c>
       <c r="Q755" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R755" t="inlineStr">
         <is>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -54780,25 +54780,25 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K756" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L756" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M756" t="n">
-        <v>13494</v>
+        <v>7000</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54807,11 +54807,11 @@
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>750</v>
+        <v>389</v>
       </c>
       <c r="Q756" t="n">
         <v>18</v>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54852,41 +54852,41 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K757" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="L757" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M757" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="Q757" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R757" t="inlineStr">
         <is>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54924,7 +54924,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -54933,16 +54933,16 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>340</v>
+        <v>25</v>
       </c>
       <c r="K758" t="n">
-        <v>5500</v>
+        <v>24000</v>
       </c>
       <c r="L758" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="M758" t="n">
-        <v>5750</v>
+        <v>24480</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>575</v>
+        <v>2448</v>
       </c>
       <c r="Q758" t="n">
         <v>10</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -55001,24 +55001,24 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K759" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="L759" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M759" t="n">
-        <v>4750</v>
+        <v>19505</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O759" t="inlineStr">
@@ -55027,10 +55027,10 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>475</v>
+        <v>1084</v>
       </c>
       <c r="Q759" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R759" t="inlineStr">
         <is>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55073,24 +55073,24 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K760" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L760" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="M760" t="n">
-        <v>4000</v>
+        <v>17500</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
@@ -55099,10 +55099,10 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>400</v>
+        <v>972</v>
       </c>
       <c r="Q760" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R760" t="inlineStr">
         <is>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55145,24 +55145,24 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J761" t="n">
         <v>160</v>
       </c>
       <c r="K761" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L761" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M761" t="n">
-        <v>17500</v>
+        <v>7500</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O761" t="inlineStr">
@@ -55171,10 +55171,10 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>972</v>
+        <v>750</v>
       </c>
       <c r="Q761" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R761" t="inlineStr">
         <is>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -55217,11 +55217,11 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K762" t="n">
         <v>15000</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -55293,20 +55293,20 @@
         </is>
       </c>
       <c r="J763" t="n">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="K763" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L763" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M763" t="n">
-        <v>13500</v>
+        <v>5514</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O763" t="inlineStr">
@@ -55315,10 +55315,10 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>750</v>
+        <v>551</v>
       </c>
       <c r="Q763" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R763" t="inlineStr">
         <is>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -55365,16 +55365,16 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K764" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L764" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M764" t="n">
-        <v>11495</v>
+        <v>13494</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55387,7 +55387,7 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>639</v>
+        <v>750</v>
       </c>
       <c r="Q764" t="n">
         <v>18</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55428,25 +55428,25 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="K765" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="L765" t="n">
-        <v>26000</v>
+        <v>4000</v>
       </c>
       <c r="M765" t="n">
-        <v>25480</v>
+        <v>4000</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>2548</v>
+        <v>400</v>
       </c>
       <c r="Q765" t="n">
         <v>10</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44445</v>
+        <v>44400</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55505,24 +55505,24 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K766" t="n">
-        <v>24000</v>
+        <v>5500</v>
       </c>
       <c r="L766" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="M766" t="n">
-        <v>24494</v>
+        <v>5750</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
@@ -55531,10 +55531,10 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>1361</v>
+        <v>575</v>
       </c>
       <c r="Q766" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R766" t="inlineStr">
         <is>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44445</v>
+        <v>44400</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -55577,24 +55577,24 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K767" t="n">
-        <v>22000</v>
+        <v>4500</v>
       </c>
       <c r="L767" t="n">
-        <v>23000</v>
+        <v>5000</v>
       </c>
       <c r="M767" t="n">
-        <v>22500</v>
+        <v>4750</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O767" t="inlineStr">
@@ -55603,10 +55603,10 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>1250</v>
+        <v>475</v>
       </c>
       <c r="Q767" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R767" t="inlineStr">
         <is>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44445</v>
+        <v>44400</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -55649,20 +55649,20 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K768" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L768" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M768" t="n">
-        <v>9504</v>
+        <v>4000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55675,7 +55675,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="Q768" t="n">
         <v>10</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -55721,20 +55721,20 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K769" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L769" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M769" t="n">
-        <v>20500</v>
+        <v>17500</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55747,7 +55747,7 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>1139</v>
+        <v>972</v>
       </c>
       <c r="Q769" t="n">
         <v>18</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -55793,24 +55793,24 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K770" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L770" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M770" t="n">
-        <v>7494</v>
+        <v>15500</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O770" t="inlineStr">
@@ -55819,10 +55819,10 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>749</v>
+        <v>861</v>
       </c>
       <c r="Q770" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R770" t="inlineStr">
         <is>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55865,20 +55865,20 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K771" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L771" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M771" t="n">
-        <v>18504</v>
+        <v>13500</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>1028</v>
+        <v>750</v>
       </c>
       <c r="Q771" t="n">
         <v>18</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55941,20 +55941,20 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K772" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L772" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M772" t="n">
-        <v>5500</v>
+        <v>11495</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O772" t="inlineStr">
@@ -55963,10 +55963,10 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>550</v>
+        <v>639</v>
       </c>
       <c r="Q772" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R772" t="inlineStr">
         <is>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56013,32 +56013,32 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K773" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L773" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M773" t="n">
-        <v>35000</v>
+        <v>25480</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>1944</v>
+        <v>2548</v>
       </c>
       <c r="Q773" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R773" t="inlineStr">
         <is>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -56076,25 +56076,25 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="K774" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="L774" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M774" t="n">
-        <v>32000</v>
+        <v>24494</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>1778</v>
+        <v>1361</v>
       </c>
       <c r="Q774" t="n">
         <v>18</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="K775" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="L775" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M775" t="n">
-        <v>14000</v>
+        <v>22500</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56175,11 +56175,11 @@
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>778</v>
+        <v>1250</v>
       </c>
       <c r="Q775" t="n">
         <v>18</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56229,32 +56229,32 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="K776" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L776" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M776" t="n">
-        <v>12000</v>
+        <v>9504</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>667</v>
+        <v>950</v>
       </c>
       <c r="Q776" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R776" t="inlineStr">
         <is>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56301,16 +56301,16 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K777" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L777" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="M777" t="n">
-        <v>10000</v>
+        <v>20500</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>556</v>
+        <v>1139</v>
       </c>
       <c r="Q777" t="n">
         <v>18</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -56369,36 +56369,36 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K778" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L778" t="n">
         <v>8000</v>
       </c>
       <c r="M778" t="n">
-        <v>8000</v>
+        <v>7494</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>444</v>
+        <v>749</v>
       </c>
       <c r="Q778" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R778" t="inlineStr">
         <is>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56436,25 +56436,25 @@
       </c>
       <c r="H779" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K779" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L779" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M779" t="n">
-        <v>12000</v>
+        <v>18504</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56463,11 +56463,11 @@
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>667</v>
+        <v>1028</v>
       </c>
       <c r="Q779" t="n">
         <v>18</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56508,41 +56508,41 @@
       </c>
       <c r="H780" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="K780" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L780" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M780" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="Q780" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R780" t="inlineStr">
         <is>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56580,25 +56580,25 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="K781" t="n">
-        <v>8000</v>
+        <v>35000</v>
       </c>
       <c r="L781" t="n">
-        <v>8000</v>
+        <v>35000</v>
       </c>
       <c r="M781" t="n">
-        <v>8000</v>
+        <v>35000</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56611,7 +56611,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>444</v>
+        <v>1944</v>
       </c>
       <c r="Q781" t="n">
         <v>18</v>
@@ -56652,25 +56652,25 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K782" t="n">
-        <v>6000</v>
+        <v>32000</v>
       </c>
       <c r="L782" t="n">
-        <v>6000</v>
+        <v>32000</v>
       </c>
       <c r="M782" t="n">
-        <v>6000</v>
+        <v>32000</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56683,7 +56683,7 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>333</v>
+        <v>1778</v>
       </c>
       <c r="Q782" t="n">
         <v>18</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56733,16 +56733,16 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K783" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L783" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M783" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56805,16 +56805,16 @@
         </is>
       </c>
       <c r="J784" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K784" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L784" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M784" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56827,7 +56827,7 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q784" t="n">
         <v>18</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56877,16 +56877,16 @@
         </is>
       </c>
       <c r="J785" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K785" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L785" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M785" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56899,7 +56899,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q785" t="n">
         <v>18</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56949,16 +56949,16 @@
         </is>
       </c>
       <c r="J786" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K786" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L786" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M786" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56971,7 +56971,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q786" t="n">
         <v>18</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57012,25 +57012,25 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K787" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L787" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M787" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57039,11 +57039,11 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q787" t="n">
         <v>18</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57084,25 +57084,25 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K788" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L788" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M788" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q788" t="n">
         <v>18</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57156,25 +57156,25 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K789" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L789" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M789" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57183,11 +57183,11 @@
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="Q789" t="n">
         <v>18</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57228,25 +57228,25 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K790" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="L790" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="M790" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>1667</v>
+        <v>333</v>
       </c>
       <c r="Q790" t="n">
         <v>18</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -57312,13 +57312,13 @@
         <v>70</v>
       </c>
       <c r="K791" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L791" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M791" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -57381,16 +57381,16 @@
         </is>
       </c>
       <c r="J792" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K792" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L792" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M792" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -57453,20 +57453,20 @@
         </is>
       </c>
       <c r="J793" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K793" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L793" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M793" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O793" t="inlineStr">
@@ -57475,10 +57475,10 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>1100</v>
+        <v>444</v>
       </c>
       <c r="Q793" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R793" t="inlineStr">
         <is>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57525,16 +57525,16 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K794" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L794" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M794" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q794" t="n">
         <v>18</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57588,25 +57588,25 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J795" t="n">
         <v>160</v>
       </c>
       <c r="K795" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L795" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M795" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="Q795" t="n">
         <v>18</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57660,25 +57660,25 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K796" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L796" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M796" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57687,11 +57687,11 @@
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q796" t="n">
         <v>18</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57732,25 +57732,25 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K797" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L797" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M797" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57759,11 +57759,11 @@
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q797" t="n">
         <v>18</v>
@@ -57804,25 +57804,25 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K798" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="L798" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="M798" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>333</v>
+        <v>1667</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57881,36 +57881,36 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K799" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L799" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M799" t="n">
-        <v>5750</v>
+        <v>15000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>575</v>
+        <v>833</v>
       </c>
       <c r="Q799" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R799" t="inlineStr">
         <is>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57953,36 +57953,36 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>133</v>
+        <v>430</v>
       </c>
       <c r="K800" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="L800" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M800" t="n">
-        <v>4752</v>
+        <v>13000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>475</v>
+        <v>722</v>
       </c>
       <c r="Q800" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R800" t="inlineStr">
         <is>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58025,33 +58025,33 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K801" t="n">
-        <v>3500</v>
+        <v>11000</v>
       </c>
       <c r="L801" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M801" t="n">
-        <v>3747</v>
+        <v>11000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>375</v>
+        <v>1100</v>
       </c>
       <c r="Q801" t="n">
         <v>10</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J802" t="n">
         <v>160</v>
       </c>
       <c r="K802" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L802" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M802" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58164,25 +58164,25 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K803" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L803" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M803" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58248,13 +58248,13 @@
         <v>340</v>
       </c>
       <c r="K804" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L804" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M804" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58320,13 +58320,13 @@
         <v>250</v>
       </c>
       <c r="K805" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L805" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M805" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q805" t="n">
         <v>18</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44307</v>
+        <v>44295</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58380,25 +58380,25 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K806" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L806" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M806" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58407,11 +58407,11 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>778</v>
+        <v>333</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58461,32 +58461,32 @@
         </is>
       </c>
       <c r="J807" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K807" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L807" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M807" t="n">
-        <v>12000</v>
+        <v>5750</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>667</v>
+        <v>575</v>
       </c>
       <c r="Q807" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R807" t="inlineStr">
         <is>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58533,32 +58533,32 @@
         </is>
       </c>
       <c r="J808" t="n">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="K808" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L808" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M808" t="n">
-        <v>10000</v>
+        <v>4752</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="Q808" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R808" t="inlineStr">
         <is>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58605,32 +58605,32 @@
         </is>
       </c>
       <c r="J809" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K809" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="L809" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M809" t="n">
-        <v>8000</v>
+        <v>3747</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>444</v>
+        <v>375</v>
       </c>
       <c r="Q809" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R809" t="inlineStr">
         <is>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58668,25 +58668,25 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K810" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L810" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M810" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q810" t="n">
         <v>18</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58740,25 +58740,25 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J811" t="n">
         <v>250</v>
       </c>
       <c r="K811" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L811" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M811" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q811" t="n">
         <v>18</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58817,11 +58817,11 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K812" t="n">
         <v>6000</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58884,25 +58884,25 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="K813" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="L813" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="M813" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>1667</v>
+        <v>278</v>
       </c>
       <c r="Q813" t="n">
         <v>18</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58968,13 +58968,13 @@
         <v>160</v>
       </c>
       <c r="K814" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L814" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M814" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59037,16 +59037,16 @@
         </is>
       </c>
       <c r="J815" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K815" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L815" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M815" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59059,7 +59059,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q815" t="n">
         <v>18</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59109,16 +59109,16 @@
         </is>
       </c>
       <c r="J816" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K816" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L816" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M816" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59172,16 +59172,16 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K817" t="n">
         <v>8000</v>
@@ -59199,7 +59199,7 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P817" t="n">
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K818" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L818" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M818" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q818" t="n">
         <v>18</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59325,16 +59325,16 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K819" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L819" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M819" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59347,7 +59347,7 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q819" t="n">
         <v>18</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59393,20 +59393,20 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K820" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L820" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M820" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59460,7 +59460,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>430</v>
+        <v>10</v>
       </c>
       <c r="K821" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L821" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M821" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59487,11 +59487,11 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>556</v>
+        <v>1667</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59532,25 +59532,25 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K822" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L822" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M822" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59559,11 +59559,11 @@
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59604,25 +59604,25 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J823" t="n">
         <v>160</v>
       </c>
       <c r="K823" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L823" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M823" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>333</v>
+        <v>611</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59676,29 +59676,29 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K824" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L824" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M824" t="n">
-        <v>13400</v>
+        <v>9000</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O824" t="inlineStr">
@@ -59707,10 +59707,10 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>893</v>
+        <v>500</v>
       </c>
       <c r="Q824" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R824" t="inlineStr">
         <is>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59748,41 +59748,41 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="K825" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L825" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M825" t="n">
-        <v>9727</v>
+        <v>8000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>973</v>
+        <v>444</v>
       </c>
       <c r="Q825" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R825" t="inlineStr">
         <is>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59820,25 +59820,25 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="K826" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L826" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="M826" t="n">
-        <v>18500</v>
+        <v>7000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>1028</v>
+        <v>389</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59892,25 +59892,25 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K827" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="L827" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="M827" t="n">
-        <v>16500</v>
+        <v>5000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>917</v>
+        <v>278</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59964,25 +59964,25 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K828" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L828" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M828" t="n">
-        <v>15495</v>
+        <v>12000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>861</v>
+        <v>667</v>
       </c>
       <c r="Q828" t="n">
         <v>18</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60036,25 +60036,25 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>61</v>
+        <v>430</v>
       </c>
       <c r="K829" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L829" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M829" t="n">
-        <v>14492</v>
+        <v>10000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,16 +60063,592 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>805</v>
+        <v>556</v>
       </c>
       <c r="Q829" t="n">
         <v>18</v>
       </c>
       <c r="R829" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>9</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D830" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E830" t="n">
+        <v>13</v>
+      </c>
+      <c r="F830" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G830" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I830" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J830" t="n">
+        <v>340</v>
+      </c>
+      <c r="K830" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L830" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M830" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N830" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O830" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P830" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q830" t="n">
+        <v>18</v>
+      </c>
+      <c r="R830" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>9</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D831" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E831" t="n">
+        <v>13</v>
+      </c>
+      <c r="F831" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G831" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I831" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J831" t="n">
+        <v>160</v>
+      </c>
+      <c r="K831" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L831" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M831" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N831" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O831" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P831" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q831" t="n">
+        <v>18</v>
+      </c>
+      <c r="R831" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>9</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D832" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E832" t="n">
+        <v>13</v>
+      </c>
+      <c r="F832" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G832" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="I832" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J832" t="n">
+        <v>50</v>
+      </c>
+      <c r="K832" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L832" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M832" t="n">
+        <v>13400</v>
+      </c>
+      <c r="N832" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O832" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P832" t="n">
+        <v>893</v>
+      </c>
+      <c r="Q832" t="n">
+        <v>15</v>
+      </c>
+      <c r="R832" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>9</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D833" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E833" t="n">
+        <v>13</v>
+      </c>
+      <c r="F833" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G833" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="I833" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J833" t="n">
+        <v>110</v>
+      </c>
+      <c r="K833" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L833" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M833" t="n">
+        <v>9727</v>
+      </c>
+      <c r="N833" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O833" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P833" t="n">
+        <v>973</v>
+      </c>
+      <c r="Q833" t="n">
+        <v>10</v>
+      </c>
+      <c r="R833" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>9</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D834" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E834" t="n">
+        <v>13</v>
+      </c>
+      <c r="F834" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G834" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I834" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J834" t="n">
+        <v>124</v>
+      </c>
+      <c r="K834" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L834" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M834" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N834" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O834" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P834" t="n">
+        <v>1028</v>
+      </c>
+      <c r="Q834" t="n">
+        <v>18</v>
+      </c>
+      <c r="R834" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>9</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D835" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E835" t="n">
+        <v>13</v>
+      </c>
+      <c r="F835" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G835" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I835" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J835" t="n">
+        <v>250</v>
+      </c>
+      <c r="K835" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L835" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M835" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N835" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O835" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P835" t="n">
+        <v>917</v>
+      </c>
+      <c r="Q835" t="n">
+        <v>18</v>
+      </c>
+      <c r="R835" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>9</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D836" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E836" t="n">
+        <v>13</v>
+      </c>
+      <c r="F836" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G836" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I836" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J836" t="n">
+        <v>97</v>
+      </c>
+      <c r="K836" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L836" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M836" t="n">
+        <v>15495</v>
+      </c>
+      <c r="N836" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O836" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P836" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q836" t="n">
+        <v>18</v>
+      </c>
+      <c r="R836" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>9</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D837" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E837" t="n">
+        <v>13</v>
+      </c>
+      <c r="F837" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G837" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I837" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J837" t="n">
+        <v>61</v>
+      </c>
+      <c r="K837" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L837" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M837" t="n">
+        <v>14492</v>
+      </c>
+      <c r="N837" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O837" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P837" t="n">
+        <v>805</v>
+      </c>
+      <c r="Q837" t="n">
+        <v>18</v>
+      </c>
+      <c r="R837" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R837"/>
+  <dimension ref="A1:R840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58457,24 +58457,24 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K807" t="n">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="L807" t="n">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="M807" t="n">
-        <v>5750</v>
+        <v>20505</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O807" t="inlineStr">
@@ -58483,10 +58483,10 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>575</v>
+        <v>1025</v>
       </c>
       <c r="Q807" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R807" t="inlineStr">
         <is>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58529,24 +58529,24 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K808" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="L808" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="M808" t="n">
-        <v>4752</v>
+        <v>18000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O808" t="inlineStr">
@@ -58555,10 +58555,10 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>475</v>
+        <v>900</v>
       </c>
       <c r="Q808" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R808" t="inlineStr">
         <is>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58601,24 +58601,24 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="K809" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="L809" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="M809" t="n">
-        <v>3747</v>
+        <v>14500</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O809" t="inlineStr">
@@ -58627,10 +58627,10 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>375</v>
+        <v>725</v>
       </c>
       <c r="Q809" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R809" t="inlineStr">
         <is>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58673,36 +58673,36 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K810" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="L810" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M810" t="n">
-        <v>13000</v>
+        <v>5750</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>722</v>
+        <v>575</v>
       </c>
       <c r="Q810" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R810" t="inlineStr">
         <is>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58745,36 +58745,36 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="K811" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L811" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M811" t="n">
-        <v>10000</v>
+        <v>4752</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="Q811" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R811" t="inlineStr">
         <is>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58812,41 +58812,41 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K812" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="L812" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M812" t="n">
-        <v>6000</v>
+        <v>3747</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="Q812" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R812" t="inlineStr">
         <is>
@@ -58884,25 +58884,25 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K813" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L813" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M813" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>278</v>
+        <v>722</v>
       </c>
       <c r="Q813" t="n">
         <v>18</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58961,20 +58961,20 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K814" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L814" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M814" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59028,7 +59028,7 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
@@ -59037,16 +59037,16 @@
         </is>
       </c>
       <c r="J815" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K815" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L815" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M815" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="Q815" t="n">
         <v>18</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59100,7 +59100,7 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
@@ -59112,13 +59112,13 @@
         <v>250</v>
       </c>
       <c r="K816" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L816" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M816" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>556</v>
+        <v>278</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K817" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L817" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M817" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="Q817" t="n">
         <v>18</v>
@@ -59244,7 +59244,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -59256,13 +59256,13 @@
         <v>430</v>
       </c>
       <c r="K818" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L818" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M818" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59271,11 +59271,11 @@
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q818" t="n">
         <v>18</v>
@@ -59316,7 +59316,7 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
@@ -59328,13 +59328,13 @@
         <v>250</v>
       </c>
       <c r="K819" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L819" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M819" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q819" t="n">
         <v>18</v>
@@ -59388,7 +59388,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K820" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L820" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M820" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59460,7 +59460,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>10</v>
+        <v>430</v>
       </c>
       <c r="K821" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L821" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="M821" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59487,11 +59487,11 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>1667</v>
+        <v>556</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59532,25 +59532,25 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K822" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L822" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M822" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59559,11 +59559,11 @@
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59604,25 +59604,25 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J823" t="n">
         <v>160</v>
       </c>
       <c r="K823" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L823" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M823" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59676,25 +59676,25 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="K824" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="L824" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="M824" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>500</v>
+        <v>1667</v>
       </c>
       <c r="Q824" t="n">
         <v>18</v>
@@ -59748,7 +59748,7 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
@@ -59760,13 +59760,13 @@
         <v>160</v>
       </c>
       <c r="K825" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L825" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M825" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59820,7 +59820,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -59829,16 +59829,16 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K826" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L826" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M826" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59892,7 +59892,7 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -59901,16 +59901,16 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K827" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L827" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M827" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>278</v>
+        <v>500</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59973,16 +59973,16 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K828" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L828" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M828" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q828" t="n">
         <v>18</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60045,16 +60045,16 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K829" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L829" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M829" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q829" t="n">
         <v>18</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60117,16 +60117,16 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K830" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L830" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M830" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>444</v>
+        <v>278</v>
       </c>
       <c r="Q830" t="n">
         <v>18</v>
@@ -60185,20 +60185,20 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K831" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L831" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M831" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60252,7 +60252,7 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
@@ -60261,32 +60261,32 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>50</v>
+        <v>430</v>
       </c>
       <c r="K832" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L832" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M832" t="n">
-        <v>13400</v>
+        <v>10000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>893</v>
+        <v>556</v>
       </c>
       <c r="Q832" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R832" t="inlineStr">
         <is>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60324,41 +60324,41 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="K833" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="L833" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M833" t="n">
-        <v>9727</v>
+        <v>8000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>973</v>
+        <v>444</v>
       </c>
       <c r="Q833" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R833" t="inlineStr">
         <is>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60396,25 +60396,25 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="K834" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="L834" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="M834" t="n">
-        <v>18500</v>
+        <v>6000</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>1028</v>
+        <v>333</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60468,7 +60468,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -60477,32 +60477,32 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K835" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L835" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M835" t="n">
-        <v>16500</v>
+        <v>13400</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>917</v>
+        <v>893</v>
       </c>
       <c r="Q835" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R835" t="inlineStr">
         <is>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60540,29 +60540,29 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="K836" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L836" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M836" t="n">
-        <v>15495</v>
+        <v>9727</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
@@ -60571,10 +60571,10 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>861</v>
+        <v>973</v>
       </c>
       <c r="Q836" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="K837" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L837" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M837" t="n">
-        <v>14492</v>
+        <v>18500</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,12 +60643,228 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>805</v>
+        <v>1028</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
       </c>
       <c r="R837" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>9</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D838" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E838" t="n">
+        <v>13</v>
+      </c>
+      <c r="F838" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G838" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I838" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J838" t="n">
+        <v>250</v>
+      </c>
+      <c r="K838" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L838" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M838" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N838" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O838" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P838" t="n">
+        <v>917</v>
+      </c>
+      <c r="Q838" t="n">
+        <v>18</v>
+      </c>
+      <c r="R838" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>9</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D839" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E839" t="n">
+        <v>13</v>
+      </c>
+      <c r="F839" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G839" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I839" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J839" t="n">
+        <v>97</v>
+      </c>
+      <c r="K839" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L839" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M839" t="n">
+        <v>15495</v>
+      </c>
+      <c r="N839" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O839" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P839" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q839" t="n">
+        <v>18</v>
+      </c>
+      <c r="R839" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>9</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D840" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E840" t="n">
+        <v>13</v>
+      </c>
+      <c r="F840" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G840" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I840" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J840" t="n">
+        <v>61</v>
+      </c>
+      <c r="K840" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L840" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M840" t="n">
+        <v>14492</v>
+      </c>
+      <c r="N840" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O840" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P840" t="n">
+        <v>805</v>
+      </c>
+      <c r="Q840" t="n">
+        <v>18</v>
+      </c>
+      <c r="R840" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R840"/>
+  <dimension ref="A1:R849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49605,32 +49605,32 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K684" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="L684" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M684" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>1944</v>
+        <v>1800</v>
       </c>
       <c r="Q684" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R684" t="inlineStr">
         <is>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49668,41 +49668,41 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="K685" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L685" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M685" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>722</v>
+        <v>1500</v>
       </c>
       <c r="Q685" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R685" t="inlineStr">
         <is>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49745,20 +49745,20 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K686" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L686" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="M686" t="n">
-        <v>11000</v>
+        <v>20500</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>611</v>
+        <v>1139</v>
       </c>
       <c r="Q686" t="n">
         <v>18</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49817,20 +49817,20 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K687" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L687" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="M687" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q687" t="n">
         <v>18</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49889,36 +49889,36 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="K688" t="n">
         <v>7000</v>
       </c>
       <c r="L688" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M688" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>389</v>
+        <v>750</v>
       </c>
       <c r="Q688" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R688" t="inlineStr">
         <is>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49961,20 +49961,20 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K689" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L689" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M689" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>694</v>
+        <v>833</v>
       </c>
       <c r="Q689" t="n">
         <v>18</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50037,32 +50037,32 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="K690" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L690" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M690" t="n">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P690" t="n">
-        <v>611</v>
+        <v>550</v>
       </c>
       <c r="Q690" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R690" t="inlineStr">
         <is>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -50100,25 +50100,25 @@
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K691" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L691" t="n">
         <v>12000</v>
       </c>
       <c r="M691" t="n">
-        <v>11500</v>
+        <v>10990</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50127,11 +50127,11 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="Q691" t="n">
         <v>18</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -50172,41 +50172,41 @@
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K692" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="L692" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M692" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P692" t="n">
-        <v>556</v>
+        <v>350</v>
       </c>
       <c r="Q692" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R692" t="inlineStr">
         <is>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50253,32 +50253,32 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K693" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="L693" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M693" t="n">
-        <v>24480</v>
+        <v>35000</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>2448</v>
+        <v>1944</v>
       </c>
       <c r="Q693" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R693" t="inlineStr">
         <is>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50325,16 +50325,16 @@
         </is>
       </c>
       <c r="J694" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K694" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L694" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M694" t="n">
-        <v>14494</v>
+        <v>13000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>805</v>
+        <v>722</v>
       </c>
       <c r="Q694" t="n">
         <v>18</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50397,16 +50397,16 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K695" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L695" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M695" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50415,11 +50415,11 @@
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>694</v>
+        <v>611</v>
       </c>
       <c r="Q695" t="n">
         <v>18</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50465,36 +50465,36 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K696" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L696" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="M696" t="n">
-        <v>19500</v>
+        <v>9000</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>975</v>
+        <v>500</v>
       </c>
       <c r="Q696" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R696" t="inlineStr">
         <is>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50537,20 +50537,20 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K697" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L697" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M697" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50559,11 +50559,11 @@
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>583</v>
+        <v>389</v>
       </c>
       <c r="Q697" t="n">
         <v>18</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50609,36 +50609,36 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K698" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L698" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M698" t="n">
-        <v>17504</v>
+        <v>12500</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>875</v>
+        <v>694</v>
       </c>
       <c r="Q698" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R698" t="inlineStr">
         <is>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50681,20 +50681,20 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="K699" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L699" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M699" t="n">
-        <v>8504</v>
+        <v>11000</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50703,11 +50703,11 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>472</v>
+        <v>611</v>
       </c>
       <c r="Q699" t="n">
         <v>18</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50748,41 +50748,41 @@
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K700" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L700" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M700" t="n">
-        <v>15495</v>
+        <v>11500</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>775</v>
+        <v>639</v>
       </c>
       <c r="Q700" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R700" t="inlineStr">
         <is>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50820,41 +50820,41 @@
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K701" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="L701" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M701" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>1667</v>
+        <v>556</v>
       </c>
       <c r="Q701" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R701" t="inlineStr">
         <is>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50901,16 +50901,16 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K702" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="L702" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M702" t="n">
-        <v>16000</v>
+        <v>24480</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50923,7 +50923,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>1600</v>
+        <v>2448</v>
       </c>
       <c r="Q702" t="n">
         <v>10</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50973,16 +50973,16 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="K703" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L703" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M703" t="n">
-        <v>18500</v>
+        <v>14494</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50995,7 +50995,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>1028</v>
+        <v>805</v>
       </c>
       <c r="Q703" t="n">
         <v>18</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51045,16 +51045,16 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K704" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L704" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M704" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
@@ -51067,7 +51067,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>861</v>
+        <v>694</v>
       </c>
       <c r="Q704" t="n">
         <v>18</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51117,20 +51117,20 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K705" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L705" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M705" t="n">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O705" t="inlineStr">
@@ -51139,10 +51139,10 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>750</v>
+        <v>975</v>
       </c>
       <c r="Q705" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R705" t="inlineStr">
         <is>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51189,16 +51189,16 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K706" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L706" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M706" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51211,7 +51211,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>750</v>
+        <v>583</v>
       </c>
       <c r="Q706" t="n">
         <v>18</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51261,20 +51261,20 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="K707" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L707" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M707" t="n">
-        <v>5500</v>
+        <v>17504</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
@@ -51283,10 +51283,10 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>550</v>
+        <v>875</v>
       </c>
       <c r="Q707" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51333,16 +51333,16 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="K708" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L708" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M708" t="n">
-        <v>11500</v>
+        <v>8504</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>639</v>
+        <v>472</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51405,20 +51405,20 @@
         </is>
       </c>
       <c r="J709" t="n">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="K709" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="L709" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="M709" t="n">
-        <v>3500</v>
+        <v>15495</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
@@ -51427,10 +51427,10 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>350</v>
+        <v>775</v>
       </c>
       <c r="Q709" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44246</v>
+        <v>44215</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51468,41 +51468,41 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J710" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K710" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="L710" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="M710" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>444</v>
+        <v>1667</v>
       </c>
       <c r="Q710" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R710" t="inlineStr">
         <is>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51540,7 +51540,7 @@
       </c>
       <c r="H711" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I711" t="inlineStr">
@@ -51549,32 +51549,32 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="K711" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L711" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="M711" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P711" t="n">
-        <v>333</v>
+        <v>1600</v>
       </c>
       <c r="Q711" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R711" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51612,25 +51612,25 @@
       </c>
       <c r="H712" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K712" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L712" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="M712" t="n">
-        <v>5000</v>
+        <v>18500</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>278</v>
+        <v>1028</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51684,25 +51684,25 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>50</v>
+        <v>430</v>
       </c>
       <c r="K713" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="L713" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="M713" t="n">
-        <v>3000</v>
+        <v>15500</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51711,11 +51711,11 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>167</v>
+        <v>861</v>
       </c>
       <c r="Q713" t="n">
         <v>18</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51761,24 +51761,24 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="K714" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L714" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M714" t="n">
-        <v>20500</v>
+        <v>7500</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O714" t="inlineStr">
@@ -51787,10 +51787,10 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>1139</v>
+        <v>750</v>
       </c>
       <c r="Q714" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R714" t="inlineStr">
         <is>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51833,20 +51833,20 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K715" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L715" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M715" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
@@ -51859,7 +51859,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="Q715" t="n">
         <v>18</v>
@@ -51885,7 +51885,7 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="E716" t="n">
         <v>13</v>
@@ -51909,20 +51909,20 @@
         </is>
       </c>
       <c r="J716" t="n">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="K716" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L716" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M716" t="n">
-        <v>14500</v>
+        <v>5500</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O716" t="inlineStr">
@@ -51931,10 +51931,10 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>806</v>
+        <v>550</v>
       </c>
       <c r="Q716" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R716" t="inlineStr">
         <is>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51981,16 +51981,16 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K717" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L717" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M717" t="n">
-        <v>10495</v>
+        <v>11500</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -52003,7 +52003,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>583</v>
+        <v>639</v>
       </c>
       <c r="Q717" t="n">
         <v>18</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44487</v>
+        <v>44504</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52044,25 +52044,25 @@
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K718" t="n">
-        <v>23000</v>
+        <v>3000</v>
       </c>
       <c r="L718" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="M718" t="n">
-        <v>24000</v>
+        <v>3500</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>2400</v>
+        <v>350</v>
       </c>
       <c r="Q718" t="n">
         <v>10</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52116,7 +52116,7 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
@@ -52128,13 +52128,13 @@
         <v>160</v>
       </c>
       <c r="K719" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L719" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M719" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52143,11 +52143,11 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>972</v>
+        <v>444</v>
       </c>
       <c r="Q719" t="n">
         <v>18</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52188,7 +52188,7 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
@@ -52197,16 +52197,16 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="K720" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L720" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M720" t="n">
-        <v>15500</v>
+        <v>6000</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>861</v>
+        <v>333</v>
       </c>
       <c r="Q720" t="n">
         <v>18</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52260,41 +52260,41 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="K721" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L721" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M721" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>750</v>
+        <v>278</v>
       </c>
       <c r="Q721" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R721" t="inlineStr">
         <is>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52332,25 +52332,25 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="K722" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="L722" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="M722" t="n">
-        <v>13500</v>
+        <v>3000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>750</v>
+        <v>167</v>
       </c>
       <c r="Q722" t="n">
         <v>18</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52409,24 +52409,24 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K723" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L723" t="n">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="M723" t="n">
-        <v>5495</v>
+        <v>20500</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
@@ -52435,10 +52435,10 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>550</v>
+        <v>1139</v>
       </c>
       <c r="Q723" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R723" t="inlineStr">
         <is>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52481,20 +52481,20 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="K724" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L724" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M724" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>639</v>
+        <v>1000</v>
       </c>
       <c r="Q724" t="n">
         <v>18</v>
@@ -52533,7 +52533,7 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E725" t="n">
         <v>13</v>
@@ -52553,24 +52553,24 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K725" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L725" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="M725" t="n">
-        <v>4000</v>
+        <v>14500</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O725" t="inlineStr">
@@ -52579,10 +52579,10 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>400</v>
+        <v>806</v>
       </c>
       <c r="Q725" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R725" t="inlineStr">
         <is>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E726" t="n">
         <v>13</v>
@@ -52625,24 +52625,24 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J726" t="n">
         <v>97</v>
       </c>
       <c r="K726" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L726" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M726" t="n">
-        <v>14505</v>
+        <v>10495</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
@@ -52651,10 +52651,10 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>725</v>
+        <v>583</v>
       </c>
       <c r="Q726" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -52692,7 +52692,7 @@
       </c>
       <c r="H727" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
@@ -52701,20 +52701,20 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>340</v>
+        <v>34</v>
       </c>
       <c r="K727" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L727" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="M727" t="n">
-        <v>12500</v>
+        <v>24000</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
@@ -52723,10 +52723,10 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>625</v>
+        <v>2400</v>
       </c>
       <c r="Q727" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R727" t="inlineStr">
         <is>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -52769,24 +52769,24 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K728" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L728" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M728" t="n">
-        <v>10500</v>
+        <v>17500</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O728" t="inlineStr">
@@ -52795,10 +52795,10 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>525</v>
+        <v>972</v>
       </c>
       <c r="Q728" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R728" t="inlineStr">
         <is>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52841,24 +52841,24 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K729" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L729" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M729" t="n">
-        <v>8500</v>
+        <v>15500</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O729" t="inlineStr">
@@ -52867,10 +52867,10 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>425</v>
+        <v>861</v>
       </c>
       <c r="Q729" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R729" t="inlineStr">
         <is>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52908,7 +52908,7 @@
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I730" t="inlineStr">
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="K730" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="L730" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M730" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52939,7 +52939,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>2500</v>
+        <v>750</v>
       </c>
       <c r="Q730" t="n">
         <v>10</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -52985,20 +52985,20 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="K731" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L731" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M731" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53007,11 +53007,11 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="Q731" t="n">
         <v>18</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53057,24 +53057,24 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K732" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L732" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M732" t="n">
-        <v>11350</v>
+        <v>5495</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O732" t="inlineStr">
@@ -53083,10 +53083,10 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>631</v>
+        <v>550</v>
       </c>
       <c r="Q732" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R732" t="inlineStr">
         <is>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53129,20 +53129,20 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="K733" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L733" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M733" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53151,11 +53151,11 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>583</v>
+        <v>639</v>
       </c>
       <c r="Q733" t="n">
         <v>18</v>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E734" t="n">
         <v>13</v>
@@ -53201,24 +53201,24 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>310</v>
+        <v>43</v>
       </c>
       <c r="K734" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L734" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M734" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O734" t="inlineStr">
@@ -53227,10 +53227,10 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>528</v>
+        <v>400</v>
       </c>
       <c r="Q734" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R734" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53273,24 +53273,24 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="K735" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L735" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M735" t="n">
-        <v>7500</v>
+        <v>14505</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
@@ -53299,10 +53299,10 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="Q735" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R735" t="inlineStr">
         <is>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -53345,36 +53345,36 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K736" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L736" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M736" t="n">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>472</v>
+        <v>625</v>
       </c>
       <c r="Q736" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R736" t="inlineStr">
         <is>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53421,20 +53421,20 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K737" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L737" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M737" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O737" t="inlineStr">
@@ -53443,10 +53443,10 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>417</v>
+        <v>525</v>
       </c>
       <c r="Q737" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R737" t="inlineStr">
         <is>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53489,24 +53489,24 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K738" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L738" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="M738" t="n">
-        <v>6250</v>
+        <v>8500</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O738" t="inlineStr">
@@ -53515,10 +53515,10 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>625</v>
+        <v>425</v>
       </c>
       <c r="Q738" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R738" t="inlineStr">
         <is>
@@ -53556,41 +53556,41 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K739" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="L739" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M739" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>389</v>
+        <v>2500</v>
       </c>
       <c r="Q739" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R739" t="inlineStr">
         <is>
@@ -53633,20 +53633,20 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K740" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L740" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M740" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53655,11 +53655,11 @@
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q740" t="n">
         <v>18</v>
@@ -53705,24 +53705,24 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K741" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L741" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M741" t="n">
-        <v>5000</v>
+        <v>11350</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O741" t="inlineStr">
@@ -53731,10 +53731,10 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>500</v>
+        <v>631</v>
       </c>
       <c r="Q741" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R741" t="inlineStr">
         <is>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53772,7 +53772,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -53781,32 +53781,32 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="K742" t="n">
         <v>10000</v>
       </c>
       <c r="L742" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M742" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>1000</v>
+        <v>583</v>
       </c>
       <c r="Q742" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R742" t="inlineStr">
         <is>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53849,20 +53849,20 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="K743" t="n">
         <v>9000</v>
       </c>
       <c r="L743" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M743" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53871,11 +53871,11 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="Q743" t="n">
         <v>18</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53925,32 +53925,32 @@
         </is>
       </c>
       <c r="J744" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K744" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L744" t="n">
         <v>8000</v>
       </c>
       <c r="M744" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>444</v>
+        <v>750</v>
       </c>
       <c r="Q744" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R744" t="inlineStr">
         <is>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53993,20 +53993,20 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K745" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L745" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M745" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54015,11 +54015,11 @@
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>389</v>
+        <v>472</v>
       </c>
       <c r="Q745" t="n">
         <v>18</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44175</v>
+        <v>44343</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -54065,24 +54065,24 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="K746" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L746" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M746" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O746" t="inlineStr">
@@ -54091,10 +54091,10 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="Q746" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R746" t="inlineStr">
         <is>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44392</v>
+        <v>44343</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54132,25 +54132,25 @@
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="K747" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="L747" t="n">
-        <v>26000</v>
+        <v>6500</v>
       </c>
       <c r="M747" t="n">
-        <v>25519</v>
+        <v>6250</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>2552</v>
+        <v>625</v>
       </c>
       <c r="Q747" t="n">
         <v>10</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44392</v>
+        <v>44343</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54209,20 +54209,20 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K748" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L748" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M748" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>833</v>
+        <v>389</v>
       </c>
       <c r="Q748" t="n">
         <v>18</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44392</v>
+        <v>44343</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54281,20 +54281,20 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J749" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K749" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L749" t="n">
-        <v>14500</v>
+        <v>6000</v>
       </c>
       <c r="M749" t="n">
-        <v>14250</v>
+        <v>6000</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>792</v>
+        <v>333</v>
       </c>
       <c r="Q749" t="n">
         <v>18</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44392</v>
+        <v>44343</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54353,20 +54353,20 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K750" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L750" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M750" t="n">
-        <v>7750</v>
+        <v>5000</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="Q750" t="n">
         <v>10</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54420,29 +54420,29 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J751" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="K751" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L751" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="M751" t="n">
-        <v>13250</v>
+        <v>10000</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O751" t="inlineStr">
@@ -54451,10 +54451,10 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>736</v>
+        <v>1000</v>
       </c>
       <c r="Q751" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R751" t="inlineStr">
         <is>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54497,36 +54497,36 @@
       </c>
       <c r="I752" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J752" t="n">
         <v>160</v>
       </c>
       <c r="K752" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L752" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M752" t="n">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="Q752" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R752" t="inlineStr">
         <is>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54569,20 +54569,20 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K753" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L753" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M753" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>639</v>
+        <v>444</v>
       </c>
       <c r="Q753" t="n">
         <v>18</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54641,24 +54641,24 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K754" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="L754" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M754" t="n">
-        <v>5747</v>
+        <v>7000</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O754" t="inlineStr">
@@ -54667,10 +54667,10 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>575</v>
+        <v>389</v>
       </c>
       <c r="Q754" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R754" t="inlineStr">
         <is>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54708,41 +54708,41 @@
       </c>
       <c r="H755" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K755" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L755" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M755" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="Q755" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R755" t="inlineStr">
         <is>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -54780,7 +54780,7 @@
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
@@ -54789,32 +54789,32 @@
         </is>
       </c>
       <c r="J756" t="n">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="K756" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="L756" t="n">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="M756" t="n">
-        <v>7000</v>
+        <v>25519</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>389</v>
+        <v>2552</v>
       </c>
       <c r="Q756" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R756" t="inlineStr">
         <is>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -54852,25 +54852,25 @@
       </c>
       <c r="H757" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K757" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L757" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M757" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54879,11 +54879,11 @@
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>333</v>
+        <v>833</v>
       </c>
       <c r="Q757" t="n">
         <v>18</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -54924,7 +54924,7 @@
       </c>
       <c r="H758" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I758" t="inlineStr">
@@ -54933,20 +54933,20 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="K758" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="L758" t="n">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="M758" t="n">
-        <v>24480</v>
+        <v>14250</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O758" t="inlineStr">
@@ -54955,10 +54955,10 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>2448</v>
+        <v>792</v>
       </c>
       <c r="Q758" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R758" t="inlineStr">
         <is>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -55001,24 +55001,24 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K759" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="L759" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M759" t="n">
-        <v>19505</v>
+        <v>7750</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O759" t="inlineStr">
@@ -55027,10 +55027,10 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>1084</v>
+        <v>775</v>
       </c>
       <c r="Q759" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R759" t="inlineStr">
         <is>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55073,20 +55073,20 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J760" t="n">
         <v>250</v>
       </c>
       <c r="K760" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L760" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="M760" t="n">
-        <v>17500</v>
+        <v>13250</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55099,7 +55099,7 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>972</v>
+        <v>736</v>
       </c>
       <c r="Q760" t="n">
         <v>18</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55145,20 +55145,20 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J761" t="n">
         <v>160</v>
       </c>
       <c r="K761" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L761" t="n">
         <v>7000</v>
       </c>
-      <c r="L761" t="n">
-        <v>8000</v>
-      </c>
       <c r="M761" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55171,7 +55171,7 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>750</v>
+        <v>675</v>
       </c>
       <c r="Q761" t="n">
         <v>10</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -55217,20 +55217,20 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J762" t="n">
         <v>160</v>
       </c>
       <c r="K762" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L762" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M762" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55243,7 +55243,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>861</v>
+        <v>639</v>
       </c>
       <c r="Q762" t="n">
         <v>18</v>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -55289,20 +55289,20 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="K763" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L763" t="n">
         <v>6000</v>
       </c>
       <c r="M763" t="n">
-        <v>5514</v>
+        <v>5747</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55315,7 +55315,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="Q763" t="n">
         <v>10</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -55356,25 +55356,25 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K764" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L764" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M764" t="n">
-        <v>13494</v>
+        <v>8000</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>750</v>
+        <v>444</v>
       </c>
       <c r="Q764" t="n">
         <v>18</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55428,41 +55428,41 @@
       </c>
       <c r="H765" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K765" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L765" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M765" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="Q765" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R765" t="inlineStr">
         <is>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55500,41 +55500,41 @@
       </c>
       <c r="H766" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K766" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L766" t="n">
         <v>6000</v>
       </c>
       <c r="M766" t="n">
-        <v>5750</v>
+        <v>6000</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>575</v>
+        <v>333</v>
       </c>
       <c r="Q766" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R766" t="inlineStr">
         <is>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -55572,25 +55572,25 @@
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="K767" t="n">
-        <v>4500</v>
+        <v>24000</v>
       </c>
       <c r="L767" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="M767" t="n">
-        <v>4750</v>
+        <v>24480</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>475</v>
+        <v>2448</v>
       </c>
       <c r="Q767" t="n">
         <v>10</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -55649,24 +55649,24 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K768" t="n">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="L768" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="M768" t="n">
-        <v>4000</v>
+        <v>19505</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O768" t="inlineStr">
@@ -55675,10 +55675,10 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>400</v>
+        <v>1084</v>
       </c>
       <c r="Q768" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R768" t="inlineStr">
         <is>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -55721,11 +55721,11 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K769" t="n">
         <v>17000</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -55797,20 +55797,20 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K770" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L770" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M770" t="n">
-        <v>15500</v>
+        <v>7500</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O770" t="inlineStr">
@@ -55819,10 +55819,10 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>861</v>
+        <v>750</v>
       </c>
       <c r="Q770" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R770" t="inlineStr">
         <is>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55869,16 +55869,16 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K771" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L771" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M771" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55891,7 +55891,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>750</v>
+        <v>861</v>
       </c>
       <c r="Q771" t="n">
         <v>18</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55937,24 +55937,24 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="K772" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L772" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M772" t="n">
-        <v>11495</v>
+        <v>5514</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O772" t="inlineStr">
@@ -55963,10 +55963,10 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>639</v>
+        <v>551</v>
       </c>
       <c r="Q772" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R772" t="inlineStr">
         <is>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56004,29 +56004,29 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="K773" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="L773" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="M773" t="n">
-        <v>25480</v>
+        <v>13494</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O773" t="inlineStr">
@@ -56035,10 +56035,10 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>2548</v>
+        <v>750</v>
       </c>
       <c r="Q773" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R773" t="inlineStr">
         <is>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44445</v>
+        <v>44473</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -56081,24 +56081,24 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J774" t="n">
         <v>79</v>
       </c>
       <c r="K774" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="L774" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="M774" t="n">
-        <v>24494</v>
+        <v>4000</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O774" t="inlineStr">
@@ -56107,10 +56107,10 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>1361</v>
+        <v>400</v>
       </c>
       <c r="Q774" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R774" t="inlineStr">
         <is>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44445</v>
+        <v>44400</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56157,20 +56157,20 @@
         </is>
       </c>
       <c r="J775" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="K775" t="n">
-        <v>22000</v>
+        <v>5500</v>
       </c>
       <c r="L775" t="n">
-        <v>23000</v>
+        <v>6000</v>
       </c>
       <c r="M775" t="n">
-        <v>22500</v>
+        <v>5750</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O775" t="inlineStr">
@@ -56179,10 +56179,10 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>1250</v>
+        <v>575</v>
       </c>
       <c r="Q775" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R775" t="inlineStr">
         <is>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44445</v>
+        <v>44400</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56225,20 +56225,20 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="K776" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="L776" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M776" t="n">
-        <v>9504</v>
+        <v>4750</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="Q776" t="n">
         <v>10</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44445</v>
+        <v>44400</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56297,24 +56297,24 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K777" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="L777" t="n">
-        <v>21000</v>
+        <v>4000</v>
       </c>
       <c r="M777" t="n">
-        <v>20500</v>
+        <v>4000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
@@ -56323,10 +56323,10 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>1139</v>
+        <v>400</v>
       </c>
       <c r="Q777" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -56369,24 +56369,24 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K778" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L778" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M778" t="n">
-        <v>7494</v>
+        <v>17500</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O778" t="inlineStr">
@@ -56395,10 +56395,10 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>749</v>
+        <v>972</v>
       </c>
       <c r="Q778" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R778" t="inlineStr">
         <is>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56441,20 +56441,20 @@
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>133</v>
+        <v>340</v>
       </c>
       <c r="K779" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L779" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M779" t="n">
-        <v>18504</v>
+        <v>15500</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56467,7 +56467,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>1028</v>
+        <v>861</v>
       </c>
       <c r="Q779" t="n">
         <v>18</v>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44445</v>
+        <v>44484</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56513,24 +56513,24 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="K780" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L780" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M780" t="n">
-        <v>5500</v>
+        <v>13500</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O780" t="inlineStr">
@@ -56539,10 +56539,10 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="Q780" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R780" t="inlineStr">
         <is>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44328</v>
+        <v>44484</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56580,25 +56580,25 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="K781" t="n">
-        <v>35000</v>
+        <v>11000</v>
       </c>
       <c r="L781" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="M781" t="n">
-        <v>35000</v>
+        <v>11495</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56607,11 +56607,11 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>1944</v>
+        <v>639</v>
       </c>
       <c r="Q781" t="n">
         <v>18</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56661,32 +56661,32 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K782" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L782" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="M782" t="n">
-        <v>32000</v>
+        <v>25480</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>1778</v>
+        <v>2548</v>
       </c>
       <c r="Q782" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R782" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56733,16 +56733,16 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K783" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L783" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="M783" t="n">
-        <v>14000</v>
+        <v>24494</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56751,11 +56751,11 @@
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>778</v>
+        <v>1361</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56805,16 +56805,16 @@
         </is>
       </c>
       <c r="J784" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K784" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L784" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="M784" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>667</v>
+        <v>1250</v>
       </c>
       <c r="Q784" t="n">
         <v>18</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56873,36 +56873,36 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="K785" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L785" t="n">
         <v>10000</v>
       </c>
       <c r="M785" t="n">
-        <v>10000</v>
+        <v>9504</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>556</v>
+        <v>950</v>
       </c>
       <c r="Q785" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R785" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56945,20 +56945,20 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K786" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L786" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="M786" t="n">
-        <v>8000</v>
+        <v>20500</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56967,11 +56967,11 @@
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>444</v>
+        <v>1139</v>
       </c>
       <c r="Q786" t="n">
         <v>18</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57012,41 +57012,41 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K787" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L787" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M787" t="n">
-        <v>12000</v>
+        <v>7494</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>667</v>
+        <v>749</v>
       </c>
       <c r="Q787" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R787" t="inlineStr">
         <is>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57084,25 +57084,25 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="K788" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L788" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M788" t="n">
-        <v>10000</v>
+        <v>18504</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>556</v>
+        <v>1028</v>
       </c>
       <c r="Q788" t="n">
         <v>18</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57156,41 +57156,41 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="K789" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L789" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M789" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P789" t="n">
-        <v>444</v>
+        <v>550</v>
       </c>
       <c r="Q789" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R789" t="inlineStr">
         <is>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57228,25 +57228,25 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="K790" t="n">
-        <v>6000</v>
+        <v>35000</v>
       </c>
       <c r="L790" t="n">
-        <v>6000</v>
+        <v>35000</v>
       </c>
       <c r="M790" t="n">
-        <v>6000</v>
+        <v>35000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>333</v>
+        <v>1944</v>
       </c>
       <c r="Q790" t="n">
         <v>18</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -57300,25 +57300,25 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K791" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="L791" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="M791" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>667</v>
+        <v>1778</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J792" t="n">
         <v>160</v>
       </c>
       <c r="K792" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L792" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M792" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -57449,20 +57449,20 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K793" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L793" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M793" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q793" t="n">
         <v>18</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K794" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L794" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M794" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57547,7 +57547,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q794" t="n">
         <v>18</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57593,20 +57593,20 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J795" t="n">
         <v>160</v>
       </c>
       <c r="K795" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L795" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M795" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q795" t="n">
         <v>18</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57660,25 +57660,25 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J796" t="n">
         <v>70</v>
       </c>
       <c r="K796" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L796" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M796" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57687,11 +57687,11 @@
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q796" t="n">
         <v>18</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57732,25 +57732,25 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>50</v>
+        <v>340</v>
       </c>
       <c r="K797" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L797" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M797" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57759,11 +57759,11 @@
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q797" t="n">
         <v>18</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57804,25 +57804,25 @@
       </c>
       <c r="H798" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="K798" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="L798" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="M798" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>1667</v>
+        <v>444</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57876,25 +57876,25 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K799" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L799" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M799" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57907,7 +57907,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>833</v>
+        <v>333</v>
       </c>
       <c r="Q799" t="n">
         <v>18</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="K800" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L800" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M800" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57979,7 +57979,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q800" t="n">
         <v>18</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58025,24 +58025,24 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K801" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L801" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M801" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O801" t="inlineStr">
@@ -58051,10 +58051,10 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>1100</v>
+        <v>556</v>
       </c>
       <c r="Q801" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R801" t="inlineStr">
         <is>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K802" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L802" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M802" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58164,25 +58164,25 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K803" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L803" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M803" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58236,7 +58236,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -58245,16 +58245,16 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K804" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L804" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M804" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58263,11 +58263,11 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58308,7 +58308,7 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -58317,16 +58317,16 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K805" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L805" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M805" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58335,11 +58335,11 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q805" t="n">
         <v>18</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58380,7 +58380,7 @@
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
@@ -58389,16 +58389,16 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K806" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L806" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M806" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58407,11 +58407,11 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58452,41 +58452,41 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="K807" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L807" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M807" t="n">
-        <v>20505</v>
+        <v>30000</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>1025</v>
+        <v>1667</v>
       </c>
       <c r="Q807" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R807" t="inlineStr">
         <is>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58529,36 +58529,36 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K808" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L808" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M808" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>900</v>
+        <v>833</v>
       </c>
       <c r="Q808" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R808" t="inlineStr">
         <is>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58601,36 +58601,36 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>106</v>
+        <v>430</v>
       </c>
       <c r="K809" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L809" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M809" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="Q809" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R809" t="inlineStr">
         <is>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58673,33 +58673,33 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K810" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="L810" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M810" t="n">
-        <v>5750</v>
+        <v>11000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>575</v>
+        <v>1100</v>
       </c>
       <c r="Q810" t="n">
         <v>10</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58745,36 +58745,36 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K811" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L811" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M811" t="n">
-        <v>4752</v>
+        <v>9000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Q811" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R811" t="inlineStr">
         <is>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58812,41 +58812,41 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K812" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="L812" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M812" t="n">
-        <v>3747</v>
+        <v>12000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>375</v>
+        <v>667</v>
       </c>
       <c r="Q812" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R812" t="inlineStr">
         <is>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58884,25 +58884,25 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K813" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L813" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M813" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q813" t="n">
         <v>18</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58956,25 +58956,25 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J814" t="n">
         <v>250</v>
       </c>
       <c r="K814" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L814" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M814" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44244</v>
+        <v>44295</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59033,11 +59033,11 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K815" t="n">
         <v>6000</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59100,41 +59100,41 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K816" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L816" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="M816" t="n">
-        <v>5000</v>
+        <v>20505</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>278</v>
+        <v>1025</v>
       </c>
       <c r="Q816" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R816" t="inlineStr">
         <is>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44307</v>
+        <v>44509</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59177,36 +59177,36 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J817" t="n">
         <v>160</v>
       </c>
       <c r="K817" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L817" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="M817" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>778</v>
+        <v>900</v>
       </c>
       <c r="Q817" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R817" t="inlineStr">
         <is>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44307</v>
+        <v>44509</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59249,36 +59249,36 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="K818" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L818" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M818" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>667</v>
+        <v>725</v>
       </c>
       <c r="Q818" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R818" t="inlineStr">
         <is>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59321,36 +59321,36 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J819" t="n">
         <v>250</v>
       </c>
       <c r="K819" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L819" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M819" t="n">
-        <v>10000</v>
+        <v>5750</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="Q819" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R819" t="inlineStr">
         <is>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59393,36 +59393,36 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K820" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L820" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M820" t="n">
-        <v>8000</v>
+        <v>4752</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="Q820" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R820" t="inlineStr">
         <is>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44307</v>
+        <v>44421</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59460,41 +59460,41 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="K821" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="L821" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M821" t="n">
-        <v>10000</v>
+        <v>3747</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>556</v>
+        <v>375</v>
       </c>
       <c r="Q821" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R821" t="inlineStr">
         <is>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59532,25 +59532,25 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K822" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L822" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M822" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59559,11 +59559,11 @@
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59604,25 +59604,25 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K823" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L823" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M823" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59676,7 +59676,7 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
@@ -59685,16 +59685,16 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>10</v>
+        <v>340</v>
       </c>
       <c r="K824" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="L824" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="M824" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59703,11 +59703,11 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>1667</v>
+        <v>333</v>
       </c>
       <c r="Q824" t="n">
         <v>18</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59748,25 +59748,25 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K825" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L825" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M825" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>722</v>
+        <v>278</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59825,20 +59825,20 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J826" t="n">
         <v>160</v>
       </c>
       <c r="K826" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L826" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M826" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="K827" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L827" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M827" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59964,25 +59964,25 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K828" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L828" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M828" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q828" t="n">
         <v>18</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60036,25 +60036,25 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K829" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L829" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M829" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q829" t="n">
         <v>18</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K830" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L830" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M830" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="Q830" t="n">
         <v>18</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60185,20 +60185,20 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J831" t="n">
         <v>250</v>
       </c>
       <c r="K831" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L831" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M831" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44302</v>
+        <v>44307</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K832" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L832" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M832" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60283,7 +60283,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="Q832" t="n">
         <v>18</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60324,25 +60324,25 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>340</v>
+        <v>10</v>
       </c>
       <c r="K833" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="L833" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="M833" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60351,11 +60351,11 @@
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>444</v>
+        <v>1667</v>
       </c>
       <c r="Q833" t="n">
         <v>18</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60396,25 +60396,25 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J834" t="n">
         <v>160</v>
       </c>
       <c r="K834" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L834" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M834" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>333</v>
+        <v>722</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60468,7 +60468,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -60477,20 +60477,20 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K835" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L835" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M835" t="n">
-        <v>13400</v>
+        <v>11000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O835" t="inlineStr">
@@ -60499,10 +60499,10 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>893</v>
+        <v>611</v>
       </c>
       <c r="Q835" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R835" t="inlineStr">
         <is>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60540,41 +60540,41 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K836" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L836" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M836" t="n">
-        <v>9727</v>
+        <v>9000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>973</v>
+        <v>500</v>
       </c>
       <c r="Q836" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60612,7 +60612,7 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
@@ -60621,16 +60621,16 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="K837" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L837" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M837" t="n">
-        <v>18500</v>
+        <v>8000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>1028</v>
+        <v>444</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60684,7 +60684,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -60696,13 +60696,13 @@
         <v>250</v>
       </c>
       <c r="K838" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L838" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M838" t="n">
-        <v>16500</v>
+        <v>7000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60711,11 +60711,11 @@
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>917</v>
+        <v>389</v>
       </c>
       <c r="Q838" t="n">
         <v>18</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60756,7 +60756,7 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K839" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L839" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M839" t="n">
-        <v>15495</v>
+        <v>5000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60783,11 +60783,11 @@
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>861</v>
+        <v>278</v>
       </c>
       <c r="Q839" t="n">
         <v>18</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60828,25 +60828,25 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="K840" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L840" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M840" t="n">
-        <v>14492</v>
+        <v>12000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60855,16 +60855,664 @@
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>805</v>
+        <v>667</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
       </c>
       <c r="R840" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>9</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D841" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E841" t="n">
+        <v>13</v>
+      </c>
+      <c r="F841" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G841" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I841" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J841" t="n">
+        <v>430</v>
+      </c>
+      <c r="K841" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L841" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M841" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N841" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O841" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P841" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q841" t="n">
+        <v>18</v>
+      </c>
+      <c r="R841" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>9</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D842" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E842" t="n">
+        <v>13</v>
+      </c>
+      <c r="F842" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J842" t="n">
+        <v>340</v>
+      </c>
+      <c r="K842" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L842" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M842" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N842" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O842" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P842" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q842" t="n">
+        <v>18</v>
+      </c>
+      <c r="R842" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>9</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D843" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E843" t="n">
+        <v>13</v>
+      </c>
+      <c r="F843" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G843" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I843" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J843" t="n">
+        <v>160</v>
+      </c>
+      <c r="K843" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L843" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M843" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N843" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O843" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P843" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q843" t="n">
+        <v>18</v>
+      </c>
+      <c r="R843" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>9</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D844" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E844" t="n">
+        <v>13</v>
+      </c>
+      <c r="F844" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G844" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="I844" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J844" t="n">
+        <v>50</v>
+      </c>
+      <c r="K844" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L844" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M844" t="n">
+        <v>13400</v>
+      </c>
+      <c r="N844" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O844" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P844" t="n">
+        <v>893</v>
+      </c>
+      <c r="Q844" t="n">
+        <v>15</v>
+      </c>
+      <c r="R844" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>9</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D845" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E845" t="n">
+        <v>13</v>
+      </c>
+      <c r="F845" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G845" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="I845" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J845" t="n">
+        <v>110</v>
+      </c>
+      <c r="K845" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L845" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M845" t="n">
+        <v>9727</v>
+      </c>
+      <c r="N845" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O845" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P845" t="n">
+        <v>973</v>
+      </c>
+      <c r="Q845" t="n">
+        <v>10</v>
+      </c>
+      <c r="R845" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>9</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D846" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E846" t="n">
+        <v>13</v>
+      </c>
+      <c r="F846" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G846" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I846" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J846" t="n">
+        <v>124</v>
+      </c>
+      <c r="K846" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L846" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M846" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N846" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O846" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P846" t="n">
+        <v>1028</v>
+      </c>
+      <c r="Q846" t="n">
+        <v>18</v>
+      </c>
+      <c r="R846" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>9</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D847" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E847" t="n">
+        <v>13</v>
+      </c>
+      <c r="F847" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G847" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I847" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J847" t="n">
+        <v>250</v>
+      </c>
+      <c r="K847" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L847" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M847" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N847" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O847" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P847" t="n">
+        <v>917</v>
+      </c>
+      <c r="Q847" t="n">
+        <v>18</v>
+      </c>
+      <c r="R847" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>9</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D848" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E848" t="n">
+        <v>13</v>
+      </c>
+      <c r="F848" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G848" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I848" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J848" t="n">
+        <v>97</v>
+      </c>
+      <c r="K848" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L848" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M848" t="n">
+        <v>15495</v>
+      </c>
+      <c r="N848" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O848" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P848" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q848" t="n">
+        <v>18</v>
+      </c>
+      <c r="R848" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>9</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D849" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E849" t="n">
+        <v>13</v>
+      </c>
+      <c r="F849" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G849" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I849" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J849" t="n">
+        <v>61</v>
+      </c>
+      <c r="K849" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L849" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M849" t="n">
+        <v>14492</v>
+      </c>
+      <c r="N849" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O849" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P849" t="n">
+        <v>805</v>
+      </c>
+      <c r="Q849" t="n">
+        <v>18</v>
+      </c>
+      <c r="R849" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R861"/>
+  <dimension ref="A1:R865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="K816" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L816" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M816" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>722</v>
+        <v>1056</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="K817" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L817" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M817" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59199,11 +59199,11 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="Q817" t="n">
         <v>18</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59249,20 +59249,20 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K818" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="L818" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M818" t="n">
-        <v>9000</v>
+        <v>16500</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59271,11 +59271,11 @@
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>500</v>
+        <v>917</v>
       </c>
       <c r="Q818" t="n">
         <v>18</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59316,25 +59316,25 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="K819" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="L819" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M819" t="n">
-        <v>30000</v>
+        <v>14494</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59347,7 +59347,7 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>1667</v>
+        <v>805</v>
       </c>
       <c r="Q819" t="n">
         <v>18</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59393,20 +59393,20 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K820" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L820" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M820" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59465,20 +59465,20 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="K821" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L821" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M821" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59487,11 +59487,11 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59537,36 +59537,36 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="K822" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L822" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M822" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="Q822" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R822" t="inlineStr">
         <is>
@@ -59604,25 +59604,25 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K823" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="L823" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="M823" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>500</v>
+        <v>1667</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59676,7 +59676,7 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
@@ -59685,16 +59685,16 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K824" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L824" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M824" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59703,11 +59703,11 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q824" t="n">
         <v>18</v>
@@ -59748,7 +59748,7 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
@@ -59757,16 +59757,16 @@
         </is>
       </c>
       <c r="J825" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K825" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L825" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M825" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59820,7 +59820,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -59829,32 +59829,32 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K826" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L826" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M826" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>444</v>
+        <v>1100</v>
       </c>
       <c r="Q826" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R826" t="inlineStr">
         <is>
@@ -59892,7 +59892,7 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -59901,16 +59901,16 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K827" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L827" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M827" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59964,7 +59964,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -59973,32 +59973,32 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K828" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L828" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M828" t="n">
-        <v>20505</v>
+        <v>12000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>1025</v>
+        <v>667</v>
       </c>
       <c r="Q828" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R828" t="inlineStr">
         <is>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -60045,32 +60045,32 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K829" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L829" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M829" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>900</v>
+        <v>556</v>
       </c>
       <c r="Q829" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R829" t="inlineStr">
         <is>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60108,7 +60108,7 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
@@ -60117,32 +60117,32 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K830" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L830" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M830" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>725</v>
+        <v>444</v>
       </c>
       <c r="Q830" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R830" t="inlineStr">
         <is>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60180,41 +60180,41 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K831" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L831" t="n">
         <v>6000</v>
       </c>
       <c r="M831" t="n">
-        <v>5750</v>
+        <v>6000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>575</v>
+        <v>333</v>
       </c>
       <c r="Q831" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R831" t="inlineStr">
         <is>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60257,24 +60257,24 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="K832" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="L832" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="M832" t="n">
-        <v>4752</v>
+        <v>20505</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O832" t="inlineStr">
@@ -60283,10 +60283,10 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>475</v>
+        <v>1025</v>
       </c>
       <c r="Q832" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R832" t="inlineStr">
         <is>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60329,24 +60329,24 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K833" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="L833" t="n">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="M833" t="n">
-        <v>3747</v>
+        <v>18000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O833" t="inlineStr">
@@ -60355,10 +60355,10 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>375</v>
+        <v>900</v>
       </c>
       <c r="Q833" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R833" t="inlineStr">
         <is>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60401,36 +60401,36 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K834" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L834" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M834" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="Q834" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R834" t="inlineStr">
         <is>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60480,29 +60480,29 @@
         <v>250</v>
       </c>
       <c r="K835" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="L835" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M835" t="n">
-        <v>10000</v>
+        <v>5750</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="Q835" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R835" t="inlineStr">
         <is>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60540,41 +60540,41 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="K836" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="L836" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M836" t="n">
-        <v>6000</v>
+        <v>4752</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>333</v>
+        <v>475</v>
       </c>
       <c r="Q836" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60612,41 +60612,41 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K837" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="L837" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M837" t="n">
-        <v>5000</v>
+        <v>3747</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>278</v>
+        <v>375</v>
       </c>
       <c r="Q837" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R837" t="inlineStr">
         <is>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60696,13 +60696,13 @@
         <v>160</v>
       </c>
       <c r="K838" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L838" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M838" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60711,11 +60711,11 @@
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q838" t="n">
         <v>18</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K839" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L839" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M839" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60783,11 +60783,11 @@
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q839" t="n">
         <v>18</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60828,25 +60828,25 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K840" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L840" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M840" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60855,11 +60855,11 @@
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60900,25 +60900,25 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K841" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L841" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M841" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60927,11 +60927,11 @@
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>444</v>
+        <v>278</v>
       </c>
       <c r="Q841" t="n">
         <v>18</v>
@@ -60972,25 +60972,25 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K842" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L842" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M842" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -60999,11 +60999,11 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q842" t="n">
         <v>18</v>
@@ -61044,25 +61044,25 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K843" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L843" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M843" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61071,11 +61071,11 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q843" t="n">
         <v>18</v>
@@ -61116,25 +61116,25 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K844" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L844" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M844" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61188,25 +61188,25 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K845" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="L845" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="M845" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>1667</v>
+        <v>444</v>
       </c>
       <c r="Q845" t="n">
         <v>18</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61260,25 +61260,25 @@
       </c>
       <c r="H846" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K846" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L846" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M846" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61287,11 +61287,11 @@
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61332,25 +61332,25 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K847" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L847" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M847" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61359,11 +61359,11 @@
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="Q847" t="n">
         <v>18</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61404,25 +61404,25 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K848" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L848" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M848" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,11 +61431,11 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61476,25 +61476,25 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="K849" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="L849" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="M849" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61503,11 +61503,11 @@
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>444</v>
+        <v>1667</v>
       </c>
       <c r="Q849" t="n">
         <v>18</v>
@@ -61548,25 +61548,25 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K850" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L850" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M850" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61575,11 +61575,11 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>389</v>
+        <v>722</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61620,25 +61620,25 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J851" t="n">
         <v>160</v>
       </c>
       <c r="K851" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L851" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M851" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61647,11 +61647,11 @@
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>278</v>
+        <v>611</v>
       </c>
       <c r="Q851" t="n">
         <v>18</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61692,25 +61692,25 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K852" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L852" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M852" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61719,11 +61719,11 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K853" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L853" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M853" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61841,20 +61841,20 @@
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K854" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L854" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M854" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q854" t="n">
         <v>18</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J855" t="n">
         <v>160</v>
       </c>
       <c r="K855" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L855" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M855" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61980,41 +61980,41 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K856" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L856" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M856" t="n">
-        <v>13400</v>
+        <v>12000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>893</v>
+        <v>667</v>
       </c>
       <c r="Q856" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R856" t="inlineStr">
         <is>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62052,7 +62052,7 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
@@ -62061,32 +62061,32 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>110</v>
+        <v>430</v>
       </c>
       <c r="K857" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L857" t="n">
         <v>10000</v>
       </c>
       <c r="M857" t="n">
-        <v>9727</v>
+        <v>10000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>973</v>
+        <v>556</v>
       </c>
       <c r="Q857" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R857" t="inlineStr">
         <is>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62124,25 +62124,25 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>124</v>
+        <v>340</v>
       </c>
       <c r="K858" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L858" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M858" t="n">
-        <v>18500</v>
+        <v>8000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>1028</v>
+        <v>444</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62196,25 +62196,25 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K859" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L859" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M859" t="n">
-        <v>16500</v>
+        <v>6000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>917</v>
+        <v>333</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62268,41 +62268,41 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="K860" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L860" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M860" t="n">
-        <v>15495</v>
+        <v>13400</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>861</v>
+        <v>893</v>
       </c>
       <c r="Q860" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62325,58 +62325,346 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E861" t="n">
+        <v>13</v>
+      </c>
+      <c r="F861" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G861" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="I861" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J861" t="n">
+        <v>110</v>
+      </c>
+      <c r="K861" t="n">
+        <v>9500</v>
+      </c>
+      <c r="L861" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M861" t="n">
+        <v>9727</v>
+      </c>
+      <c r="N861" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O861" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P861" t="n">
+        <v>973</v>
+      </c>
+      <c r="Q861" t="n">
+        <v>10</v>
+      </c>
+      <c r="R861" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>9</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D862" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E861" t="n">
-        <v>13</v>
-      </c>
-      <c r="F861" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G861" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H861" t="inlineStr">
+      <c r="E862" t="n">
+        <v>13</v>
+      </c>
+      <c r="F862" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G862" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H862" t="inlineStr">
         <is>
           <t>Larga vida</t>
         </is>
       </c>
-      <c r="I861" t="inlineStr">
+      <c r="I862" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J862" t="n">
+        <v>124</v>
+      </c>
+      <c r="K862" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L862" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M862" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N862" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O862" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P862" t="n">
+        <v>1028</v>
+      </c>
+      <c r="Q862" t="n">
+        <v>18</v>
+      </c>
+      <c r="R862" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>9</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D863" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E863" t="n">
+        <v>13</v>
+      </c>
+      <c r="F863" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G863" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I863" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J863" t="n">
+        <v>250</v>
+      </c>
+      <c r="K863" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L863" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M863" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N863" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O863" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P863" t="n">
+        <v>917</v>
+      </c>
+      <c r="Q863" t="n">
+        <v>18</v>
+      </c>
+      <c r="R863" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>9</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D864" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E864" t="n">
+        <v>13</v>
+      </c>
+      <c r="F864" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G864" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I864" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J864" t="n">
+        <v>97</v>
+      </c>
+      <c r="K864" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L864" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M864" t="n">
+        <v>15495</v>
+      </c>
+      <c r="N864" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O864" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P864" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q864" t="n">
+        <v>18</v>
+      </c>
+      <c r="R864" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>9</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D865" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E865" t="n">
+        <v>13</v>
+      </c>
+      <c r="F865" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G865" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I865" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J861" t="n">
+      <c r="J865" t="n">
         <v>61</v>
       </c>
-      <c r="K861" t="n">
+      <c r="K865" t="n">
         <v>14000</v>
       </c>
-      <c r="L861" t="n">
+      <c r="L865" t="n">
         <v>15000</v>
       </c>
-      <c r="M861" t="n">
+      <c r="M865" t="n">
         <v>14492</v>
       </c>
-      <c r="N861" t="inlineStr">
+      <c r="N865" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="O861" t="inlineStr">
+      <c r="O865" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P861" t="n">
+      <c r="P865" t="n">
         <v>805</v>
       </c>
-      <c r="Q861" t="n">
+      <c r="Q865" t="n">
         <v>18</v>
       </c>
-      <c r="R861" t="inlineStr">
+      <c r="R865" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R880"/>
+  <dimension ref="A1:R888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -54996,41 +54996,41 @@
       </c>
       <c r="H759" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K759" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L759" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M759" t="n">
-        <v>8000</v>
+        <v>11023</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>444</v>
+        <v>1102</v>
       </c>
       <c r="Q759" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R759" t="inlineStr">
         <is>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55068,25 +55068,25 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="K760" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L760" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M760" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55095,11 +55095,11 @@
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>333</v>
+        <v>694</v>
       </c>
       <c r="Q760" t="n">
         <v>18</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55140,25 +55140,25 @@
       </c>
       <c r="H761" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K761" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L761" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M761" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55167,11 +55167,11 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>278</v>
+        <v>583</v>
       </c>
       <c r="Q761" t="n">
         <v>18</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -55212,41 +55212,41 @@
       </c>
       <c r="H762" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K762" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L762" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M762" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>167</v>
+        <v>550</v>
       </c>
       <c r="Q762" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R762" t="inlineStr">
         <is>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -55289,20 +55289,20 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="K763" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L763" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="M763" t="n">
-        <v>18500</v>
+        <v>8500</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55315,7 +55315,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>1028</v>
+        <v>472</v>
       </c>
       <c r="Q763" t="n">
         <v>18</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -55361,24 +55361,24 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K764" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="L764" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="M764" t="n">
-        <v>16500</v>
+        <v>3495</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O764" t="inlineStr">
@@ -55387,10 +55387,10 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>917</v>
+        <v>350</v>
       </c>
       <c r="Q764" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R764" t="inlineStr">
         <is>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55433,20 +55433,20 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K765" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L765" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M765" t="n">
-        <v>15495</v>
+        <v>6494</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55459,7 +55459,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>861</v>
+        <v>361</v>
       </c>
       <c r="Q765" t="n">
         <v>18</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55509,20 +55509,20 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K766" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="L766" t="n">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="M766" t="n">
-        <v>14492</v>
+        <v>2000</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
@@ -55531,10 +55531,10 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>805</v>
+        <v>200</v>
       </c>
       <c r="Q766" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R766" t="inlineStr">
         <is>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -55653,7 +55653,7 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="K768" t="n">
         <v>6000</v>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -55725,7 +55725,7 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K769" t="n">
         <v>5000</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44305</v>
+        <v>44246</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -55788,25 +55788,25 @@
       </c>
       <c r="H770" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K770" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="L770" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="M770" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55815,11 +55815,11 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>833</v>
+        <v>167</v>
       </c>
       <c r="Q770" t="n">
         <v>18</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55865,20 +55865,20 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>340</v>
+        <v>124</v>
       </c>
       <c r="K771" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L771" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M771" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>722</v>
+        <v>1028</v>
       </c>
       <c r="Q771" t="n">
         <v>18</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55937,20 +55937,20 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J772" t="n">
         <v>250</v>
       </c>
       <c r="K772" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L772" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M772" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55959,11 +55959,11 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>611</v>
+        <v>917</v>
       </c>
       <c r="Q772" t="n">
         <v>18</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56009,20 +56009,20 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K773" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L773" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M773" t="n">
-        <v>9000</v>
+        <v>15495</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56031,11 +56031,11 @@
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>500</v>
+        <v>861</v>
       </c>
       <c r="Q773" t="n">
         <v>18</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -56076,25 +56076,25 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K774" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L774" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M774" t="n">
-        <v>9000</v>
+        <v>14492</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>500</v>
+        <v>805</v>
       </c>
       <c r="Q774" t="n">
         <v>18</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K775" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L775" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M775" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q775" t="n">
         <v>18</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -56225,20 +56225,20 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K776" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L776" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M776" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="Q776" t="n">
         <v>18</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44425</v>
+        <v>44272</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56292,41 +56292,41 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K777" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L777" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M777" t="n">
-        <v>14505</v>
+        <v>5000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>725</v>
+        <v>278</v>
       </c>
       <c r="Q777" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44425</v>
+        <v>44305</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -56369,36 +56369,36 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K778" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L778" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M778" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>625</v>
+        <v>833</v>
       </c>
       <c r="Q778" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R778" t="inlineStr">
         <is>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44425</v>
+        <v>44305</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56441,36 +56441,36 @@
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J779" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K779" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L779" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M779" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>525</v>
+        <v>722</v>
       </c>
       <c r="Q779" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R779" t="inlineStr">
         <is>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44425</v>
+        <v>44305</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -56513,36 +56513,36 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K780" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L780" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M780" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>425</v>
+        <v>611</v>
       </c>
       <c r="Q780" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R780" t="inlineStr">
         <is>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56580,25 +56580,25 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J781" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K781" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="L781" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="M781" t="n">
-        <v>32000</v>
+        <v>9000</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56611,7 +56611,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>1778</v>
+        <v>500</v>
       </c>
       <c r="Q781" t="n">
         <v>18</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56652,25 +56652,25 @@
       </c>
       <c r="H782" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K782" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L782" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M782" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56679,11 +56679,11 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q782" t="n">
         <v>18</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56724,25 +56724,25 @@
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K783" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L783" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M783" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56751,11 +56751,11 @@
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44315</v>
+        <v>44305</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -56796,25 +56796,25 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K784" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L784" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M784" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>444</v>
+        <v>278</v>
       </c>
       <c r="Q784" t="n">
         <v>18</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56873,36 +56873,36 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K785" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L785" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M785" t="n">
-        <v>6000</v>
+        <v>14505</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>333</v>
+        <v>725</v>
       </c>
       <c r="Q785" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R785" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56940,7 +56940,7 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
@@ -56952,29 +56952,29 @@
         <v>340</v>
       </c>
       <c r="K786" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L786" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M786" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>444</v>
+        <v>625</v>
       </c>
       <c r="Q786" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R786" t="inlineStr">
         <is>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57012,7 +57012,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -57024,29 +57024,29 @@
         <v>250</v>
       </c>
       <c r="K787" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L787" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M787" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>333</v>
+        <v>525</v>
       </c>
       <c r="Q787" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R787" t="inlineStr">
         <is>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57084,7 +57084,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -57096,29 +57096,29 @@
         <v>160</v>
       </c>
       <c r="K788" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L788" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="M788" t="n">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>222</v>
+        <v>425</v>
       </c>
       <c r="Q788" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R788" t="inlineStr">
         <is>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57156,25 +57156,25 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K789" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="L789" t="n">
-        <v>12500</v>
+        <v>32000</v>
       </c>
       <c r="M789" t="n">
-        <v>12250</v>
+        <v>32000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57187,7 +57187,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>681</v>
+        <v>1778</v>
       </c>
       <c r="Q789" t="n">
         <v>18</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57233,20 +57233,20 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="K790" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="L790" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M790" t="n">
-        <v>10750</v>
+        <v>12000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57259,7 +57259,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>597</v>
+        <v>667</v>
       </c>
       <c r="Q790" t="n">
         <v>18</v>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -57305,20 +57305,20 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K791" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="L791" t="n">
         <v>10000</v>
       </c>
       <c r="M791" t="n">
-        <v>9750</v>
+        <v>10000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57331,7 +57331,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K792" t="n">
         <v>8000</v>
       </c>
       <c r="L792" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="M792" t="n">
-        <v>8250</v>
+        <v>8000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57403,7 +57403,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -57444,25 +57444,25 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K793" t="n">
-        <v>34000</v>
+        <v>6000</v>
       </c>
       <c r="L793" t="n">
-        <v>34000</v>
+        <v>6000</v>
       </c>
       <c r="M793" t="n">
-        <v>34000</v>
+        <v>6000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57475,7 +57475,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>1889</v>
+        <v>333</v>
       </c>
       <c r="Q793" t="n">
         <v>18</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57516,7 +57516,7 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -57525,32 +57525,32 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>16</v>
+        <v>340</v>
       </c>
       <c r="K794" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L794" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M794" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>2000</v>
+        <v>444</v>
       </c>
       <c r="Q794" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R794" t="inlineStr">
         <is>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57588,25 +57588,25 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="K795" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L795" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M795" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="Q795" t="n">
         <v>18</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57660,25 +57660,25 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K796" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L796" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M796" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57687,11 +57687,11 @@
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="Q796" t="n">
         <v>18</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57737,20 +57737,20 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K797" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L797" t="n">
-        <v>6000</v>
+        <v>12500</v>
       </c>
       <c r="M797" t="n">
-        <v>6000</v>
+        <v>12250</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57763,7 +57763,7 @@
         </is>
       </c>
       <c r="P797" t="n">
-        <v>333</v>
+        <v>681</v>
       </c>
       <c r="Q797" t="n">
         <v>18</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57809,20 +57809,20 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="K798" t="n">
-        <v>4000</v>
+        <v>10500</v>
       </c>
       <c r="L798" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M798" t="n">
-        <v>4000</v>
+        <v>10750</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>222</v>
+        <v>597</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57876,25 +57876,25 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="K799" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="L799" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M799" t="n">
-        <v>8000</v>
+        <v>9750</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>444</v>
+        <v>542</v>
       </c>
       <c r="Q799" t="n">
         <v>18</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57948,25 +57948,25 @@
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K800" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L800" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="M800" t="n">
-        <v>6000</v>
+        <v>8250</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>333</v>
+        <v>458</v>
       </c>
       <c r="Q800" t="n">
         <v>18</v>
@@ -58020,25 +58020,25 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K801" t="n">
-        <v>4000</v>
+        <v>34000</v>
       </c>
       <c r="L801" t="n">
-        <v>4000</v>
+        <v>34000</v>
       </c>
       <c r="M801" t="n">
-        <v>4000</v>
+        <v>34000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58047,11 +58047,11 @@
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>222</v>
+        <v>1889</v>
       </c>
       <c r="Q801" t="n">
         <v>18</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58101,7 +58101,7 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K802" t="n">
         <v>20000</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58164,25 +58164,25 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="K803" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L803" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M803" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58236,25 +58236,25 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K804" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L804" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M804" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58263,11 +58263,11 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44327</v>
+        <v>44322</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58313,20 +58313,20 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K805" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L805" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M805" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q805" t="n">
         <v>18</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44327</v>
+        <v>44322</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K806" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L806" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M806" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44327</v>
+        <v>44322</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58452,25 +58452,25 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="K807" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L807" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M807" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58479,11 +58479,11 @@
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q807" t="n">
         <v>18</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44238</v>
+        <v>44322</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58524,25 +58524,25 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K808" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="L808" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M808" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>1111</v>
+        <v>333</v>
       </c>
       <c r="Q808" t="n">
         <v>18</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44238</v>
+        <v>44322</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J809" t="n">
         <v>160</v>
       </c>
       <c r="K809" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L809" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M809" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58627,7 +58627,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>389</v>
+        <v>222</v>
       </c>
       <c r="Q809" t="n">
         <v>18</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44238</v>
+        <v>44495</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58668,7 +58668,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
@@ -58677,32 +58677,32 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="K810" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="L810" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M810" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>333</v>
+        <v>2000</v>
       </c>
       <c r="Q810" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R810" t="inlineStr">
         <is>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58745,20 +58745,20 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="K811" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L811" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M811" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58771,7 +58771,7 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="Q811" t="n">
         <v>18</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44236</v>
+        <v>44232</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58812,41 +58812,41 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K812" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L812" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M812" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>1000</v>
+        <v>278</v>
       </c>
       <c r="Q812" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R812" t="inlineStr">
         <is>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44236</v>
+        <v>44327</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58884,25 +58884,25 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K813" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L813" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M813" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q813" t="n">
         <v>18</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44236</v>
+        <v>44327</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58956,25 +58956,25 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K814" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L814" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M814" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44389</v>
+        <v>44327</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59028,41 +59028,41 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="K815" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="L815" t="n">
-        <v>26000</v>
+        <v>5000</v>
       </c>
       <c r="M815" t="n">
-        <v>25500</v>
+        <v>5000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>2550</v>
+        <v>278</v>
       </c>
       <c r="Q815" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R815" t="inlineStr">
         <is>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44389</v>
+        <v>44238</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59100,25 +59100,25 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="K816" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L816" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="M816" t="n">
-        <v>17253</v>
+        <v>20000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>958</v>
+        <v>1111</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44389</v>
+        <v>44238</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59172,25 +59172,25 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K817" t="n">
-        <v>15500</v>
+        <v>7000</v>
       </c>
       <c r="L817" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M817" t="n">
-        <v>15750</v>
+        <v>7000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59199,11 +59199,11 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>875</v>
+        <v>389</v>
       </c>
       <c r="Q817" t="n">
         <v>18</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44389</v>
+        <v>44238</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59244,7 +59244,7 @@
       </c>
       <c r="H818" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -59256,29 +59256,29 @@
         <v>250</v>
       </c>
       <c r="K818" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="L818" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M818" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>775</v>
+        <v>333</v>
       </c>
       <c r="Q818" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R818" t="inlineStr">
         <is>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44389</v>
+        <v>44238</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59316,7 +59316,7 @@
       </c>
       <c r="H819" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
@@ -59325,16 +59325,16 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K819" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L819" t="n">
-        <v>14500</v>
+        <v>4000</v>
       </c>
       <c r="M819" t="n">
-        <v>14250</v>
+        <v>4000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>792</v>
+        <v>222</v>
       </c>
       <c r="Q819" t="n">
         <v>18</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59388,25 +59388,25 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K820" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L820" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M820" t="n">
-        <v>6750</v>
+        <v>10000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>675</v>
+        <v>1000</v>
       </c>
       <c r="Q820" t="n">
         <v>10</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59460,25 +59460,25 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K821" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="L821" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M821" t="n">
-        <v>11750</v>
+        <v>6000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59487,11 +59487,11 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>653</v>
+        <v>333</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59532,41 +59532,41 @@
       </c>
       <c r="H822" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K822" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L822" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M822" t="n">
-        <v>5747</v>
+        <v>4000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>575</v>
+        <v>222</v>
       </c>
       <c r="Q822" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R822" t="inlineStr">
         <is>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59604,41 +59604,41 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="K823" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="L823" t="n">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="M823" t="n">
-        <v>8000</v>
+        <v>25500</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>444</v>
+        <v>2550</v>
       </c>
       <c r="Q823" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R823" t="inlineStr">
         <is>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59676,25 +59676,25 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J824" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K824" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L824" t="n">
-        <v>7000</v>
+        <v>17500</v>
       </c>
       <c r="M824" t="n">
-        <v>7000</v>
+        <v>17253</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59703,11 +59703,11 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>389</v>
+        <v>958</v>
       </c>
       <c r="Q824" t="n">
         <v>18</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59748,25 +59748,25 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K825" t="n">
-        <v>6000</v>
+        <v>15500</v>
       </c>
       <c r="L825" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M825" t="n">
-        <v>6000</v>
+        <v>15750</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>333</v>
+        <v>875</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59820,7 +59820,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -59829,20 +59829,20 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="K826" t="n">
-        <v>43000</v>
+        <v>7500</v>
       </c>
       <c r="L826" t="n">
-        <v>45000</v>
+        <v>8000</v>
       </c>
       <c r="M826" t="n">
-        <v>44000</v>
+        <v>7750</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O826" t="inlineStr">
@@ -59851,10 +59851,10 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>2444</v>
+        <v>775</v>
       </c>
       <c r="Q826" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R826" t="inlineStr">
         <is>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59892,29 +59892,29 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="K827" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L827" t="n">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="M827" t="n">
-        <v>23960</v>
+        <v>14250</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O827" t="inlineStr">
@@ -59923,10 +59923,10 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>2396</v>
+        <v>792</v>
       </c>
       <c r="Q827" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R827" t="inlineStr">
         <is>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59969,24 +59969,24 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K828" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L828" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M828" t="n">
-        <v>15000</v>
+        <v>6750</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O828" t="inlineStr">
@@ -59995,10 +59995,10 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>833</v>
+        <v>675</v>
       </c>
       <c r="Q828" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R828" t="inlineStr">
         <is>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60041,20 +60041,20 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K829" t="n">
+        <v>11500</v>
+      </c>
+      <c r="L829" t="n">
         <v>12000</v>
       </c>
-      <c r="L829" t="n">
-        <v>13000</v>
-      </c>
       <c r="M829" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>694</v>
+        <v>653</v>
       </c>
       <c r="Q829" t="n">
         <v>18</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="K830" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L830" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M830" t="n">
-        <v>7500</v>
+        <v>5747</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>750</v>
+        <v>575</v>
       </c>
       <c r="Q830" t="n">
         <v>10</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60180,25 +60180,25 @@
       </c>
       <c r="H831" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="K831" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L831" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M831" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60207,11 +60207,11 @@
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>583</v>
+        <v>444</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60252,41 +60252,41 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K832" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L832" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M832" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>550</v>
+        <v>389</v>
       </c>
       <c r="Q832" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R832" t="inlineStr">
         <is>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60324,25 +60324,25 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K833" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L833" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M833" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60351,11 +60351,11 @@
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q833" t="n">
         <v>18</v>
@@ -60396,29 +60396,29 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K834" t="n">
-        <v>4000</v>
+        <v>43000</v>
       </c>
       <c r="L834" t="n">
-        <v>4000</v>
+        <v>45000</v>
       </c>
       <c r="M834" t="n">
-        <v>4000</v>
+        <v>44000</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O834" t="inlineStr">
@@ -60427,10 +60427,10 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>400</v>
+        <v>2444</v>
       </c>
       <c r="Q834" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R834" t="inlineStr">
         <is>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60477,16 +60477,16 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K835" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L835" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M835" t="n">
-        <v>14500</v>
+        <v>23960</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>1450</v>
+        <v>2396</v>
       </c>
       <c r="Q835" t="n">
         <v>10</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60540,29 +60540,29 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K836" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L836" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M836" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
@@ -60571,10 +60571,10 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="Q836" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="K837" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L837" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M837" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>944</v>
+        <v>694</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60693,20 +60693,20 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="K838" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L838" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M838" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O838" t="inlineStr">
@@ -60715,10 +60715,10 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="Q838" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R838" t="inlineStr">
         <is>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60761,24 +60761,24 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="K839" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L839" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M839" t="n">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O839" t="inlineStr">
@@ -60787,10 +60787,10 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="Q839" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R839" t="inlineStr">
         <is>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60837,20 +60837,20 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K840" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L840" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M840" t="n">
-        <v>11500</v>
+        <v>5500</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O840" t="inlineStr">
@@ -60859,10 +60859,10 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>639</v>
+        <v>550</v>
       </c>
       <c r="Q840" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R840" t="inlineStr">
         <is>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60905,24 +60905,24 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="K841" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="L841" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M841" t="n">
-        <v>4495</v>
+        <v>9000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O841" t="inlineStr">
@@ -60931,10 +60931,10 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Q841" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R841" t="inlineStr">
         <is>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60981,20 +60981,20 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="K842" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L842" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M842" t="n">
-        <v>9495</v>
+        <v>4000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O842" t="inlineStr">
@@ -61003,10 +61003,10 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>528</v>
+        <v>400</v>
       </c>
       <c r="Q842" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R842" t="inlineStr">
         <is>
@@ -61044,25 +61044,25 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K843" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="L843" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="M843" t="n">
-        <v>3000</v>
+        <v>14500</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>300</v>
+        <v>1450</v>
       </c>
       <c r="Q843" t="n">
         <v>10</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61116,41 +61116,41 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K844" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L844" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M844" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q844" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R844" t="inlineStr">
         <is>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61193,20 +61193,20 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="K845" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L845" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M845" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61215,11 +61215,11 @@
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="Q845" t="n">
         <v>18</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61265,20 +61265,20 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K846" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L846" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M846" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61287,11 +61287,11 @@
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61337,36 +61337,36 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K847" t="n">
         <v>6000</v>
       </c>
       <c r="L847" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M847" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>333</v>
+        <v>650</v>
       </c>
       <c r="Q847" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R847" t="inlineStr">
         <is>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44271</v>
+        <v>44515</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61404,25 +61404,25 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="K848" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="L848" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="M848" t="n">
-        <v>30000</v>
+        <v>11500</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,11 +61431,11 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>1667</v>
+        <v>639</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44271</v>
+        <v>44515</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61481,36 +61481,36 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K849" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L849" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M849" t="n">
-        <v>11000</v>
+        <v>4495</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>611</v>
+        <v>450</v>
       </c>
       <c r="Q849" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R849" t="inlineStr">
         <is>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44271</v>
+        <v>44515</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K850" t="n">
         <v>9000</v>
       </c>
       <c r="L850" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M850" t="n">
-        <v>9000</v>
+        <v>9495</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61575,11 +61575,11 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44271</v>
+        <v>44515</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61625,36 +61625,36 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K851" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L851" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M851" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="Q851" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R851" t="inlineStr">
         <is>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44271</v>
+        <v>44330</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61692,7 +61692,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -61701,16 +61701,16 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K852" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L852" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M852" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61719,11 +61719,11 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44271</v>
+        <v>44330</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61764,7 +61764,7 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
@@ -61773,16 +61773,16 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K853" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L853" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M853" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44271</v>
+        <v>44330</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61836,7 +61836,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -61848,13 +61848,13 @@
         <v>120</v>
       </c>
       <c r="K854" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L854" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M854" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61863,11 +61863,11 @@
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="Q854" t="n">
         <v>18</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44307</v>
+        <v>44330</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K855" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L855" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M855" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>778</v>
+        <v>333</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61980,7 +61980,7 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>430</v>
+        <v>10</v>
       </c>
       <c r="K856" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L856" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M856" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>667</v>
+        <v>1667</v>
       </c>
       <c r="Q856" t="n">
         <v>18</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K857" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L857" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M857" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q857" t="n">
         <v>18</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K858" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L858" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M858" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62196,25 +62196,25 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K859" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L859" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M859" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K860" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L860" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M860" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q860" t="n">
         <v>18</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62345,11 +62345,11 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K861" t="n">
         <v>6000</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62412,41 +62412,41 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K862" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L862" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M862" t="n">
-        <v>5750</v>
+        <v>5000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>575</v>
+        <v>278</v>
       </c>
       <c r="Q862" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R862" t="inlineStr">
         <is>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62489,36 +62489,36 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K863" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="L863" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M863" t="n">
-        <v>4750</v>
+        <v>14000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>475</v>
+        <v>778</v>
       </c>
       <c r="Q863" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R863" t="inlineStr">
         <is>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62561,36 +62561,36 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K864" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L864" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M864" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="Q864" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R864" t="inlineStr">
         <is>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62633,20 +62633,20 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K865" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L865" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M865" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="Q865" t="n">
         <v>18</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="K866" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L866" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M866" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q866" t="n">
         <v>18</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62772,16 +62772,16 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K867" t="n">
         <v>10000</v>
@@ -62799,7 +62799,7 @@
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P867" t="n">
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62844,16 +62844,16 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K868" t="n">
         <v>8000</v>
@@ -62871,7 +62871,7 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P868" t="n">
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62921,20 +62921,20 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K869" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L869" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M869" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q869" t="n">
         <v>18</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62988,41 +62988,41 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K870" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L870" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M870" t="n">
-        <v>7000</v>
+        <v>5750</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>389</v>
+        <v>575</v>
       </c>
       <c r="Q870" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R870" t="inlineStr">
         <is>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63060,41 +63060,41 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K871" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="L871" t="n">
         <v>5000</v>
       </c>
       <c r="M871" t="n">
-        <v>5000</v>
+        <v>4750</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>278</v>
+        <v>475</v>
       </c>
       <c r="Q871" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R871" t="inlineStr">
         <is>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63132,25 +63132,25 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K872" t="n">
-        <v>23000</v>
+        <v>4000</v>
       </c>
       <c r="L872" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="M872" t="n">
-        <v>23960</v>
+        <v>4000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>2396</v>
+        <v>400</v>
       </c>
       <c r="Q872" t="n">
         <v>10</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63216,13 +63216,13 @@
         <v>160</v>
       </c>
       <c r="K873" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L873" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M873" t="n">
-        <v>17500</v>
+        <v>14000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>972</v>
+        <v>778</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K874" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L874" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M874" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>861</v>
+        <v>667</v>
       </c>
       <c r="Q874" t="n">
         <v>18</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63353,36 +63353,36 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K875" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L875" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M875" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>750</v>
+        <v>556</v>
       </c>
       <c r="Q875" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R875" t="inlineStr">
         <is>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="K876" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L876" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M876" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63447,11 +63447,11 @@
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>694</v>
+        <v>444</v>
       </c>
       <c r="Q876" t="n">
         <v>18</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63492,41 +63492,41 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K877" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L877" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M877" t="n">
-        <v>5495</v>
+        <v>9000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q877" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R877" t="inlineStr">
         <is>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63564,25 +63564,25 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="K878" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L878" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M878" t="n">
-        <v>9508</v>
+        <v>7000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63591,11 +63591,11 @@
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>528</v>
+        <v>389</v>
       </c>
       <c r="Q878" t="n">
         <v>18</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63636,7 +63636,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -63645,32 +63645,32 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="K879" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L879" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M879" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="Q879" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63693,58 +63693,634 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E880" t="n">
+        <v>13</v>
+      </c>
+      <c r="F880" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="I880" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J880" t="n">
+        <v>25</v>
+      </c>
+      <c r="K880" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L880" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M880" t="n">
+        <v>23960</v>
+      </c>
+      <c r="N880" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O880" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P880" t="n">
+        <v>2396</v>
+      </c>
+      <c r="Q880" t="n">
+        <v>10</v>
+      </c>
+      <c r="R880" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>9</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D881" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E881" t="n">
+        <v>13</v>
+      </c>
+      <c r="F881" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I881" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J881" t="n">
+        <v>160</v>
+      </c>
+      <c r="K881" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L881" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M881" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N881" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O881" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P881" t="n">
+        <v>972</v>
+      </c>
+      <c r="Q881" t="n">
+        <v>18</v>
+      </c>
+      <c r="R881" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>9</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D882" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E882" t="n">
+        <v>13</v>
+      </c>
+      <c r="F882" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I882" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J882" t="n">
+        <v>250</v>
+      </c>
+      <c r="K882" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L882" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M882" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N882" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O882" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P882" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q882" t="n">
+        <v>18</v>
+      </c>
+      <c r="R882" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>9</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D883" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E883" t="n">
+        <v>13</v>
+      </c>
+      <c r="F883" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I883" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J883" t="n">
+        <v>160</v>
+      </c>
+      <c r="K883" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L883" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M883" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N883" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O883" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P883" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q883" t="n">
+        <v>10</v>
+      </c>
+      <c r="R883" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>9</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D884" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E884" t="n">
+        <v>13</v>
+      </c>
+      <c r="F884" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I884" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J884" t="n">
+        <v>106</v>
+      </c>
+      <c r="K884" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L884" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M884" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N884" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O884" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P884" t="n">
+        <v>694</v>
+      </c>
+      <c r="Q884" t="n">
+        <v>18</v>
+      </c>
+      <c r="R884" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>9</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D885" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E885" t="n">
+        <v>13</v>
+      </c>
+      <c r="F885" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I885" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J885" t="n">
+        <v>97</v>
+      </c>
+      <c r="K885" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L885" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M885" t="n">
+        <v>5495</v>
+      </c>
+      <c r="N885" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O885" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P885" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q885" t="n">
+        <v>10</v>
+      </c>
+      <c r="R885" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>9</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D886" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E886" t="n">
+        <v>13</v>
+      </c>
+      <c r="F886" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I886" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J886" t="n">
+        <v>61</v>
+      </c>
+      <c r="K886" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L886" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M886" t="n">
+        <v>9508</v>
+      </c>
+      <c r="N886" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O886" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P886" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q886" t="n">
+        <v>18</v>
+      </c>
+      <c r="R886" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>9</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D887" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E887" t="n">
+        <v>13</v>
+      </c>
+      <c r="F887" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G887" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I887" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J887" t="n">
+        <v>34</v>
+      </c>
+      <c r="K887" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L887" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M887" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N887" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O887" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P887" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q887" t="n">
+        <v>10</v>
+      </c>
+      <c r="R887" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>9</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D888" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E880" t="n">
-        <v>13</v>
-      </c>
-      <c r="F880" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G880" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H880" t="inlineStr">
+      <c r="E888" t="n">
+        <v>13</v>
+      </c>
+      <c r="F888" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G888" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H888" t="inlineStr">
         <is>
           <t>Semiduro</t>
         </is>
       </c>
-      <c r="I880" t="inlineStr">
+      <c r="I888" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J880" t="n">
+      <c r="J888" t="n">
         <v>80</v>
       </c>
-      <c r="K880" t="n">
+      <c r="K888" t="n">
         <v>13000</v>
       </c>
-      <c r="L880" t="n">
+      <c r="L888" t="n">
         <v>13000</v>
       </c>
-      <c r="M880" t="n">
+      <c r="M888" t="n">
         <v>13000</v>
       </c>
-      <c r="N880" t="inlineStr">
+      <c r="N888" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O880" t="inlineStr">
+      <c r="O888" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P880" t="n">
+      <c r="P888" t="n">
         <v>867</v>
       </c>
-      <c r="Q880" t="n">
+      <c r="Q888" t="n">
         <v>15</v>
       </c>
-      <c r="R880" t="inlineStr">
+      <c r="R888" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1099"/>
+  <dimension ref="A1:R1103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72132,41 +72132,41 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="K997" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="L997" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M997" t="n">
-        <v>24023</v>
+        <v>14500</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>2402</v>
+        <v>806</v>
       </c>
       <c r="Q997" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K998" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L998" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M998" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>917</v>
+        <v>694</v>
       </c>
       <c r="Q998" t="n">
         <v>18</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K999" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L999" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M999" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72303,11 +72303,11 @@
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>806</v>
+        <v>583</v>
       </c>
       <c r="Q999" t="n">
         <v>18</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72353,36 +72353,36 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="K1000" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L1000" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="M1000" t="n">
-        <v>18500</v>
+        <v>8506</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>925</v>
+        <v>473</v>
       </c>
       <c r="Q1000" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72420,7 +72420,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="K1001" t="n">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="L1001" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M1001" t="n">
-        <v>6500</v>
+        <v>24023</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>650</v>
+        <v>2402</v>
       </c>
       <c r="Q1001" t="n">
         <v>10</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K1002" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L1002" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M1002" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>694</v>
+        <v>917</v>
       </c>
       <c r="Q1002" t="n">
         <v>18</v>
@@ -72569,24 +72569,24 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K1003" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L1003" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M1003" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
@@ -72595,10 +72595,10 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="Q1003" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72641,24 +72641,24 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="K1004" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="L1004" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="M1004" t="n">
-        <v>4500</v>
+        <v>18500</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
@@ -72667,10 +72667,10 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>450</v>
+        <v>925</v>
       </c>
       <c r="Q1004" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72713,24 +72713,24 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="K1005" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L1005" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M1005" t="n">
-        <v>10492</v>
+        <v>6500</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
@@ -72739,10 +72739,10 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="Q1005" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72785,24 +72785,24 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="K1006" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L1006" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M1006" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
@@ -72811,10 +72811,10 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>725</v>
+        <v>694</v>
       </c>
       <c r="Q1006" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72857,24 +72857,24 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="K1007" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="L1007" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="M1007" t="n">
-        <v>3000</v>
+        <v>16500</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
@@ -72883,10 +72883,10 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>300</v>
+        <v>825</v>
       </c>
       <c r="Q1007" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1007" t="inlineStr">
         <is>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72929,24 +72929,24 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="K1008" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L1008" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M1008" t="n">
-        <v>12488</v>
+        <v>4500</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
@@ -72955,10 +72955,10 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>694</v>
+        <v>450</v>
       </c>
       <c r="Q1008" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73001,11 +73001,11 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K1009" t="n">
         <v>10000</v>
@@ -73014,7 +73014,7 @@
         <v>11000</v>
       </c>
       <c r="M1009" t="n">
-        <v>10500</v>
+        <v>10492</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73073,24 +73073,24 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="K1010" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L1010" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M1010" t="n">
-        <v>8506</v>
+        <v>14500</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1010" t="inlineStr">
@@ -73099,10 +73099,10 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>473</v>
+        <v>725</v>
       </c>
       <c r="Q1010" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73152,17 +73152,17 @@
         <v>52</v>
       </c>
       <c r="K1011" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L1011" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="M1011" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
@@ -73171,10 +73171,10 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="Q1011" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73221,16 +73221,16 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="K1012" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L1012" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M1012" t="n">
-        <v>18500</v>
+        <v>12488</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>1028</v>
+        <v>694</v>
       </c>
       <c r="Q1012" t="n">
         <v>18</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73293,16 +73293,16 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1013" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L1013" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M1013" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>917</v>
+        <v>583</v>
       </c>
       <c r="Q1013" t="n">
         <v>18</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73365,16 +73365,16 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="K1014" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L1014" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M1014" t="n">
-        <v>15495</v>
+        <v>8506</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>861</v>
+        <v>473</v>
       </c>
       <c r="Q1014" t="n">
         <v>18</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K1015" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L1015" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M1015" t="n">
-        <v>14492</v>
+        <v>6500</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>805</v>
+        <v>361</v>
       </c>
       <c r="Q1015" t="n">
         <v>18</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73500,7 +73500,7 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="K1016" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L1016" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M1016" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>722</v>
+        <v>1028</v>
       </c>
       <c r="Q1016" t="n">
         <v>18</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73572,7 +73572,7 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K1017" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L1017" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M1017" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73599,11 +73599,11 @@
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>611</v>
+        <v>917</v>
       </c>
       <c r="Q1017" t="n">
         <v>18</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73644,7 +73644,7 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
@@ -73653,16 +73653,16 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K1018" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L1018" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M1018" t="n">
-        <v>9000</v>
+        <v>15495</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73671,11 +73671,11 @@
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>500</v>
+        <v>861</v>
       </c>
       <c r="Q1018" t="n">
         <v>18</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="K1019" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L1019" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M1019" t="n">
-        <v>6000</v>
+        <v>14492</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73743,11 +73743,11 @@
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>333</v>
+        <v>805</v>
       </c>
       <c r="Q1019" t="n">
         <v>18</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73788,25 +73788,25 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="K1020" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L1020" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M1020" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73815,11 +73815,11 @@
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>1333</v>
+        <v>722</v>
       </c>
       <c r="Q1020" t="n">
         <v>18</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73860,25 +73860,25 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K1021" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L1021" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M1021" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73887,11 +73887,11 @@
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>944</v>
+        <v>611</v>
       </c>
       <c r="Q1021" t="n">
         <v>18</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73932,25 +73932,25 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K1022" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L1022" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="M1022" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73959,11 +73959,11 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="Q1022" t="n">
         <v>18</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74004,25 +74004,25 @@
       </c>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K1023" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L1023" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M1023" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74031,11 +74031,11 @@
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="Q1023" t="n">
         <v>18</v>
@@ -74076,25 +74076,25 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="K1024" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L1024" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="M1024" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74103,11 +74103,11 @@
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>500</v>
+        <v>1333</v>
       </c>
       <c r="Q1024" t="n">
         <v>18</v>
@@ -74148,25 +74148,25 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K1025" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L1025" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M1025" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74175,11 +74175,11 @@
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>389</v>
+        <v>944</v>
       </c>
       <c r="Q1025" t="n">
         <v>18</v>
@@ -74220,25 +74220,25 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K1026" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L1026" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M1026" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74247,11 +74247,11 @@
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>333</v>
+        <v>778</v>
       </c>
       <c r="Q1026" t="n">
         <v>18</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74297,20 +74297,20 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="K1027" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L1027" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M1027" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74319,11 +74319,11 @@
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>806</v>
+        <v>667</v>
       </c>
       <c r="Q1027" t="n">
         <v>18</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74364,25 +74364,25 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1028" t="n">
         <v>250</v>
       </c>
       <c r="K1028" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L1028" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M1028" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74391,11 +74391,11 @@
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>694</v>
+        <v>500</v>
       </c>
       <c r="Q1028" t="n">
         <v>18</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74436,25 +74436,25 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1029" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L1029" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M1029" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74463,11 +74463,11 @@
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>583</v>
+        <v>389</v>
       </c>
       <c r="Q1029" t="n">
         <v>18</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74508,25 +74508,25 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K1030" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1030" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M1030" t="n">
-        <v>8494</v>
+        <v>6000</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74535,11 +74535,11 @@
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>472</v>
+        <v>333</v>
       </c>
       <c r="Q1030" t="n">
         <v>18</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74580,7 +74580,7 @@
       </c>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K1031" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L1031" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M1031" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74607,11 +74607,11 @@
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>500</v>
+        <v>806</v>
       </c>
       <c r="Q1031" t="n">
         <v>18</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74652,7 +74652,7 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
@@ -74661,16 +74661,16 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K1032" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L1032" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M1032" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74679,11 +74679,11 @@
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>389</v>
+        <v>694</v>
       </c>
       <c r="Q1032" t="n">
         <v>18</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74724,7 +74724,7 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
@@ -74736,13 +74736,13 @@
         <v>160</v>
       </c>
       <c r="K1033" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L1033" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M1033" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74751,11 +74751,11 @@
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>333</v>
+        <v>583</v>
       </c>
       <c r="Q1033" t="n">
         <v>18</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44571</v>
+        <v>44533</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1034" t="n">
         <v>79</v>
       </c>
       <c r="K1034" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L1034" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M1034" t="n">
-        <v>16506</v>
+        <v>8494</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>917</v>
+        <v>472</v>
       </c>
       <c r="Q1034" t="n">
         <v>18</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74868,25 +74868,25 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1035" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L1035" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M1035" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74895,11 +74895,11 @@
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>806</v>
+        <v>500</v>
       </c>
       <c r="Q1035" t="n">
         <v>18</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74940,25 +74940,25 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="K1036" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L1036" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M1036" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74967,11 +74967,11 @@
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>694</v>
+        <v>389</v>
       </c>
       <c r="Q1036" t="n">
         <v>18</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75012,25 +75012,25 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K1037" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L1037" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M1037" t="n">
-        <v>10488</v>
+        <v>6000</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75039,11 +75039,11 @@
       </c>
       <c r="O1037" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>583</v>
+        <v>333</v>
       </c>
       <c r="Q1037" t="n">
         <v>18</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75084,7 +75084,7 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K1038" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L1038" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M1038" t="n">
-        <v>8000</v>
+        <v>16506</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75111,11 +75111,11 @@
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>444</v>
+        <v>917</v>
       </c>
       <c r="Q1038" t="n">
         <v>18</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75156,7 +75156,7 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1039" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L1039" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M1039" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75183,11 +75183,11 @@
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>333</v>
+        <v>806</v>
       </c>
       <c r="Q1039" t="n">
         <v>18</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75228,7 +75228,7 @@
       </c>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
@@ -75237,16 +75237,16 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K1040" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L1040" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M1040" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75255,11 +75255,11 @@
       </c>
       <c r="O1040" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>278</v>
+        <v>694</v>
       </c>
       <c r="Q1040" t="n">
         <v>18</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75300,7 +75300,7 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
@@ -75309,16 +75309,16 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K1041" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L1041" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M1041" t="n">
-        <v>4000</v>
+        <v>10488</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75327,11 +75327,11 @@
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>222</v>
+        <v>583</v>
       </c>
       <c r="Q1041" t="n">
         <v>18</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75372,7 +75372,7 @@
       </c>
       <c r="H1042" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1042" t="inlineStr">
@@ -75384,13 +75384,13 @@
         <v>160</v>
       </c>
       <c r="K1042" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L1042" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M1042" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75399,11 +75399,11 @@
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q1042" t="n">
         <v>18</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75444,7 +75444,7 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
@@ -75453,16 +75453,16 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1043" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L1043" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M1043" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75471,11 +75471,11 @@
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>611</v>
+        <v>333</v>
       </c>
       <c r="Q1043" t="n">
         <v>18</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75516,7 +75516,7 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
@@ -75525,16 +75525,16 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K1044" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L1044" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M1044" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75543,11 +75543,11 @@
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="Q1044" t="n">
         <v>18</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75593,20 +75593,20 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1045" t="n">
         <v>70</v>
       </c>
       <c r="K1045" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L1045" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M1045" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>500</v>
+        <v>222</v>
       </c>
       <c r="Q1045" t="n">
         <v>18</v>
@@ -75660,25 +75660,25 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1046" t="n">
         <v>160</v>
       </c>
       <c r="K1046" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L1046" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M1046" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75687,11 +75687,11 @@
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>389</v>
+        <v>722</v>
       </c>
       <c r="Q1046" t="n">
         <v>18</v>
@@ -75732,25 +75732,25 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K1047" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L1047" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M1047" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75759,11 +75759,11 @@
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>278</v>
+        <v>611</v>
       </c>
       <c r="Q1047" t="n">
         <v>18</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75804,25 +75804,25 @@
       </c>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K1048" t="n">
-        <v>34000</v>
+        <v>9000</v>
       </c>
       <c r="L1048" t="n">
-        <v>36000</v>
+        <v>9000</v>
       </c>
       <c r="M1048" t="n">
-        <v>34960</v>
+        <v>9000</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75831,11 +75831,11 @@
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>1942</v>
+        <v>500</v>
       </c>
       <c r="Q1048" t="n">
         <v>18</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75876,41 +75876,41 @@
       </c>
       <c r="H1049" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K1049" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L1049" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M1049" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="Q1049" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1049" t="inlineStr">
         <is>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75948,41 +75948,41 @@
       </c>
       <c r="H1050" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1050" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="K1050" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L1050" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M1050" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1050" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>800</v>
+        <v>389</v>
       </c>
       <c r="Q1050" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1050" t="inlineStr">
         <is>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76020,25 +76020,25 @@
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K1051" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L1051" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M1051" t="n">
-        <v>15500</v>
+        <v>5000</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76047,11 +76047,11 @@
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>861</v>
+        <v>278</v>
       </c>
       <c r="Q1051" t="n">
         <v>18</v>
@@ -76092,25 +76092,25 @@
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="K1052" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="L1052" t="n">
-        <v>13000</v>
+        <v>36000</v>
       </c>
       <c r="M1052" t="n">
-        <v>12506</v>
+        <v>34960</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76119,11 +76119,11 @@
       </c>
       <c r="O1052" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>695</v>
+        <v>1942</v>
       </c>
       <c r="Q1052" t="n">
         <v>18</v>
@@ -76164,7 +76164,7 @@
       </c>
       <c r="H1053" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1053" t="inlineStr">
@@ -76173,32 +76173,32 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="K1053" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L1053" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M1053" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1053" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="Q1053" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1053" t="inlineStr">
         <is>
@@ -76236,29 +76236,29 @@
       </c>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="K1054" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1054" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M1054" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1054" t="inlineStr">
@@ -76267,10 +76267,10 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>583</v>
+        <v>800</v>
       </c>
       <c r="Q1054" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1054" t="inlineStr">
         <is>
@@ -76313,36 +76313,36 @@
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1055" t="n">
         <v>160</v>
       </c>
       <c r="K1055" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L1055" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M1055" t="n">
-        <v>5500</v>
+        <v>15500</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>550</v>
+        <v>861</v>
       </c>
       <c r="Q1055" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1055" t="inlineStr">
         <is>
@@ -76385,20 +76385,20 @@
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K1056" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L1056" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M1056" t="n">
-        <v>11500</v>
+        <v>12506</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76407,11 +76407,11 @@
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>639</v>
+        <v>695</v>
       </c>
       <c r="Q1056" t="n">
         <v>18</v>
@@ -76457,20 +76457,20 @@
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K1057" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L1057" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M1057" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76479,11 +76479,11 @@
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>472</v>
+        <v>750</v>
       </c>
       <c r="Q1057" t="n">
         <v>18</v>
@@ -76529,24 +76529,24 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K1058" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="L1058" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="M1058" t="n">
-        <v>3506</v>
+        <v>10500</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1058" t="inlineStr">
@@ -76555,10 +76555,10 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>351</v>
+        <v>583</v>
       </c>
       <c r="Q1058" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1058" t="inlineStr">
         <is>
@@ -76601,36 +76601,36 @@
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K1059" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L1059" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M1059" t="n">
-        <v>9506</v>
+        <v>5500</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1059" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="Q1059" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1059" t="inlineStr">
         <is>
@@ -76673,20 +76673,20 @@
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="K1060" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L1060" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M1060" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76695,11 +76695,11 @@
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>361</v>
+        <v>639</v>
       </c>
       <c r="Q1060" t="n">
         <v>18</v>
@@ -76745,24 +76745,24 @@
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K1061" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="L1061" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="M1061" t="n">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1061" t="inlineStr">
@@ -76771,10 +76771,10 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>200</v>
+        <v>472</v>
       </c>
       <c r="Q1061" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76817,36 +76817,36 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K1062" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="L1062" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M1062" t="n">
-        <v>9000</v>
+        <v>3506</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="Q1062" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1062" t="inlineStr">
         <is>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76889,20 +76889,20 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K1063" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1063" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1063" t="n">
-        <v>7000</v>
+        <v>9506</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>389</v>
+        <v>528</v>
       </c>
       <c r="Q1063" t="n">
         <v>18</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76961,20 +76961,20 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="K1064" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1064" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1064" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76983,11 +76983,11 @@
       </c>
       <c r="O1064" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="Q1064" t="n">
         <v>18</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44354</v>
+        <v>44525</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77028,29 +77028,29 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K1065" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="L1065" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="M1065" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1065" t="inlineStr">
@@ -77059,10 +77059,10 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>667</v>
+        <v>200</v>
       </c>
       <c r="Q1065" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1065" t="inlineStr">
         <is>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77100,25 +77100,25 @@
       </c>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1066" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L1066" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M1066" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77127,11 +77127,11 @@
       </c>
       <c r="O1066" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>583</v>
+        <v>500</v>
       </c>
       <c r="Q1066" t="n">
         <v>18</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77172,7 +77172,7 @@
       </c>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
@@ -77181,32 +77181,32 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="K1067" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="L1067" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="M1067" t="n">
-        <v>24480</v>
+        <v>7000</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1067" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>2448</v>
+        <v>389</v>
       </c>
       <c r="Q1067" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1067" t="inlineStr">
         <is>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77244,7 +77244,7 @@
       </c>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1068" t="inlineStr">
@@ -77253,16 +77253,16 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="K1068" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1068" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M1068" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77271,11 +77271,11 @@
       </c>
       <c r="O1068" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>472</v>
+        <v>278</v>
       </c>
       <c r="Q1068" t="n">
         <v>18</v>
@@ -77321,20 +77321,20 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K1069" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L1069" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M1069" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q1069" t="n">
         <v>18</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77397,20 +77397,20 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="K1070" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L1070" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="M1070" t="n">
-        <v>23978</v>
+        <v>10500</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1070" t="inlineStr">
@@ -77419,10 +77419,10 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>2398</v>
+        <v>583</v>
       </c>
       <c r="Q1070" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1070" t="inlineStr">
         <is>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77460,29 +77460,29 @@
       </c>
       <c r="H1071" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K1071" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L1071" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M1071" t="n">
-        <v>17489</v>
+        <v>24480</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1071" t="inlineStr">
@@ -77491,10 +77491,10 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>972</v>
+        <v>2448</v>
       </c>
       <c r="Q1071" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77532,25 +77532,25 @@
       </c>
       <c r="H1072" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="K1072" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L1072" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M1072" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>861</v>
+        <v>472</v>
       </c>
       <c r="Q1072" t="n">
         <v>18</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77604,29 +77604,29 @@
       </c>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="K1073" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L1073" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="M1073" t="n">
-        <v>20500</v>
+        <v>7000</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1073" t="inlineStr">
@@ -77635,10 +77635,10 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>1025</v>
+        <v>389</v>
       </c>
       <c r="Q1073" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1073" t="inlineStr">
         <is>
@@ -77676,7 +77676,7 @@
       </c>
       <c r="H1074" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1074" t="inlineStr">
@@ -77685,16 +77685,16 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="K1074" t="n">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="L1074" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M1074" t="n">
-        <v>6500</v>
+        <v>23978</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>650</v>
+        <v>2398</v>
       </c>
       <c r="Q1074" t="n">
         <v>10</v>
@@ -77753,20 +77753,20 @@
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="K1075" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L1075" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M1075" t="n">
-        <v>13504</v>
+        <v>17489</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>750</v>
+        <v>972</v>
       </c>
       <c r="Q1075" t="n">
         <v>18</v>
@@ -77825,24 +77825,24 @@
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="K1076" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L1076" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="M1076" t="n">
-        <v>18494</v>
+        <v>15500</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1076" t="inlineStr">
@@ -77851,10 +77851,10 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>925</v>
+        <v>861</v>
       </c>
       <c r="Q1076" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1076" t="inlineStr">
         <is>
@@ -77897,24 +77897,24 @@
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="K1077" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="L1077" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="M1077" t="n">
-        <v>4500</v>
+        <v>20500</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1077" t="inlineStr">
@@ -77923,10 +77923,10 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>450</v>
+        <v>1025</v>
       </c>
       <c r="Q1077" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
@@ -77969,24 +77969,24 @@
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K1078" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L1078" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M1078" t="n">
-        <v>11494</v>
+        <v>6500</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1078" t="inlineStr">
@@ -77995,10 +77995,10 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="Q1078" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
@@ -78041,24 +78041,24 @@
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="K1079" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L1079" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M1079" t="n">
-        <v>16500</v>
+        <v>13504</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1079" t="inlineStr">
@@ -78067,10 +78067,10 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="Q1079" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
@@ -78113,24 +78113,24 @@
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1080" t="n">
         <v>79</v>
       </c>
       <c r="K1080" t="n">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="L1080" t="n">
-        <v>3000</v>
+        <v>19000</v>
       </c>
       <c r="M1080" t="n">
-        <v>3000</v>
+        <v>18494</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1080" t="inlineStr">
@@ -78139,10 +78139,10 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>300</v>
+        <v>925</v>
       </c>
       <c r="Q1080" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44512</v>
+        <v>44462</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -78185,36 +78185,36 @@
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K1081" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="L1081" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M1081" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1081" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>944</v>
+        <v>450</v>
       </c>
       <c r="Q1081" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44512</v>
+        <v>44462</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78257,20 +78257,20 @@
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K1082" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L1082" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M1082" t="n">
-        <v>14500</v>
+        <v>11494</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78279,11 +78279,11 @@
       </c>
       <c r="O1082" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>806</v>
+        <v>639</v>
       </c>
       <c r="Q1082" t="n">
         <v>18</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44512</v>
+        <v>44462</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78333,32 +78333,32 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="K1083" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L1083" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M1083" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1083" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>639</v>
+        <v>825</v>
       </c>
       <c r="Q1083" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1083" t="inlineStr">
         <is>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44312</v>
+        <v>44462</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78401,36 +78401,36 @@
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="K1084" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="L1084" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="M1084" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1084" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>722</v>
+        <v>300</v>
       </c>
       <c r="Q1084" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1084" t="inlineStr">
         <is>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K1085" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L1085" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M1085" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>611</v>
+        <v>944</v>
       </c>
       <c r="Q1085" t="n">
         <v>18</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1086" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L1086" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M1086" t="n">
-        <v>9000</v>
+        <v>14500</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>500</v>
+        <v>806</v>
       </c>
       <c r="Q1086" t="n">
         <v>18</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -78621,16 +78621,16 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K1087" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L1087" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M1087" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>333</v>
+        <v>639</v>
       </c>
       <c r="Q1087" t="n">
         <v>18</v>
@@ -78684,25 +78684,25 @@
       </c>
       <c r="H1088" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K1088" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1088" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1088" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78711,11 +78711,11 @@
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q1088" t="n">
         <v>18</v>
@@ -78756,25 +78756,25 @@
       </c>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K1089" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1089" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M1089" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78783,11 +78783,11 @@
       </c>
       <c r="O1089" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q1089" t="n">
         <v>18</v>
@@ -78828,25 +78828,25 @@
       </c>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K1090" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L1090" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1090" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78855,11 +78855,11 @@
       </c>
       <c r="O1090" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q1090" t="n">
         <v>18</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -78900,41 +78900,41 @@
       </c>
       <c r="H1091" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="K1091" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="L1091" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M1091" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1091" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>1800</v>
+        <v>333</v>
       </c>
       <c r="Q1091" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -78972,41 +78972,41 @@
       </c>
       <c r="H1092" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="K1092" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L1092" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M1092" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1092" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>1500</v>
+        <v>556</v>
       </c>
       <c r="Q1092" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79044,25 +79044,25 @@
       </c>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1093" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L1093" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M1093" t="n">
-        <v>20500</v>
+        <v>8000</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79071,11 +79071,11 @@
       </c>
       <c r="O1093" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>1139</v>
+        <v>444</v>
       </c>
       <c r="Q1093" t="n">
         <v>18</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79116,25 +79116,25 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="K1094" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L1094" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="M1094" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79143,11 +79143,11 @@
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>1000</v>
+        <v>333</v>
       </c>
       <c r="Q1094" t="n">
         <v>18</v>
@@ -79188,7 +79188,7 @@
       </c>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
@@ -79197,16 +79197,16 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="K1095" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L1095" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="M1095" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>750</v>
+        <v>1800</v>
       </c>
       <c r="Q1095" t="n">
         <v>10</v>
@@ -79260,7 +79260,7 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
@@ -79269,32 +79269,32 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="K1096" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L1096" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M1096" t="n">
         <v>15000</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1096" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>833</v>
+        <v>1500</v>
       </c>
       <c r="Q1096" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
@@ -79337,36 +79337,36 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="K1097" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L1097" t="n">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="M1097" t="n">
-        <v>5500</v>
+        <v>20500</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>550</v>
+        <v>1139</v>
       </c>
       <c r="Q1097" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
@@ -79409,20 +79409,20 @@
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K1098" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L1098" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M1098" t="n">
-        <v>10990</v>
+        <v>18000</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="Q1098" t="n">
         <v>18</v>
@@ -79481,20 +79481,20 @@
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="K1099" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L1099" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M1099" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,12 +79507,300 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="Q1099" t="n">
         <v>10</v>
       </c>
       <c r="R1099" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1100" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1100" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1100" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1100" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N1100" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1100" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1100" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1100" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1101" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1101" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1101" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1101" t="n">
+        <v>106</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N1101" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1101" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1101" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1101" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1102" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1102" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1102" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1102" t="n">
+        <v>97</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>10990</v>
+      </c>
+      <c r="N1102" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1102" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1102" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1102" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1103" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1103" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1103" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1103" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N1103" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1103" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1103" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1103" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1240"/>
+  <dimension ref="A1:R1251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85221,7 +85221,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1179" t="n">
         <v>13</v>
@@ -85245,16 +85245,16 @@
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K1179" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L1179" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M1179" t="n">
-        <v>13000</v>
+        <v>15500</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
@@ -85267,7 +85267,7 @@
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>722</v>
+        <v>861</v>
       </c>
       <c r="Q1179" t="n">
         <v>18</v>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1180" t="n">
         <v>13</v>
@@ -85313,20 +85313,20 @@
       </c>
       <c r="I1180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K1180" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1180" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M1180" t="n">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
@@ -85335,11 +85335,11 @@
       </c>
       <c r="O1180" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>611</v>
+        <v>861</v>
       </c>
       <c r="Q1180" t="n">
         <v>18</v>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1181" t="n">
         <v>13</v>
@@ -85385,20 +85385,20 @@
       </c>
       <c r="I1181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1181" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L1181" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M1181" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
@@ -85411,7 +85411,7 @@
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q1181" t="n">
         <v>18</v>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -85457,20 +85457,20 @@
       </c>
       <c r="I1182" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K1182" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L1182" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M1182" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
@@ -85479,11 +85479,11 @@
       </c>
       <c r="O1182" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>333</v>
+        <v>750</v>
       </c>
       <c r="Q1182" t="n">
         <v>18</v>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1183" t="n">
         <v>13</v>
@@ -85524,25 +85524,25 @@
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K1183" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L1183" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1183" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85551,11 +85551,11 @@
       </c>
       <c r="O1183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>556</v>
+        <v>639</v>
       </c>
       <c r="Q1183" t="n">
         <v>18</v>
@@ -85581,7 +85581,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -85596,7 +85596,7 @@
       </c>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1184" t="inlineStr">
@@ -85605,16 +85605,16 @@
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K1184" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1184" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M1184" t="n">
-        <v>8000</v>
+        <v>11495</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
@@ -85623,11 +85623,11 @@
       </c>
       <c r="O1184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>444</v>
+        <v>639</v>
       </c>
       <c r="Q1184" t="n">
         <v>18</v>
@@ -85653,7 +85653,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1185" t="n">
         <v>13</v>
@@ -85668,7 +85668,7 @@
       </c>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1185" t="inlineStr">
@@ -85677,16 +85677,16 @@
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K1185" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L1185" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M1185" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
@@ -85695,11 +85695,11 @@
       </c>
       <c r="O1185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="Q1185" t="n">
         <v>18</v>
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44399</v>
+        <v>44610</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -85740,41 +85740,41 @@
       </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="K1186" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L1186" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M1186" t="n">
-        <v>13514</v>
+        <v>9508</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1186" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>1351</v>
+        <v>528</v>
       </c>
       <c r="Q1186" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1186" t="inlineStr">
         <is>
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44399</v>
+        <v>44610</v>
       </c>
       <c r="E1187" t="n">
         <v>13</v>
@@ -85812,25 +85812,25 @@
       </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1187" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K1187" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L1187" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M1187" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
@@ -85839,11 +85839,11 @@
       </c>
       <c r="O1187" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>722</v>
+        <v>528</v>
       </c>
       <c r="Q1187" t="n">
         <v>18</v>
@@ -85869,7 +85869,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44399</v>
+        <v>44610</v>
       </c>
       <c r="E1188" t="n">
         <v>13</v>
@@ -85884,41 +85884,41 @@
       </c>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1188" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="K1188" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L1188" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M1188" t="n">
-        <v>14000</v>
+        <v>7495</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1188" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>700</v>
+        <v>416</v>
       </c>
       <c r="Q1188" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1188" t="inlineStr">
         <is>
@@ -85941,7 +85941,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44399</v>
+        <v>44610</v>
       </c>
       <c r="E1189" t="n">
         <v>13</v>
@@ -85956,25 +85956,25 @@
       </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="K1189" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L1189" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M1189" t="n">
-        <v>11500</v>
+        <v>5512</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
@@ -85983,11 +85983,11 @@
       </c>
       <c r="O1189" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>639</v>
+        <v>306</v>
       </c>
       <c r="Q1189" t="n">
         <v>18</v>
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1190" t="n">
         <v>13</v>
@@ -86033,36 +86033,36 @@
       </c>
       <c r="I1190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="K1190" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L1190" t="n">
         <v>13000</v>
       </c>
       <c r="M1190" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1190" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>625</v>
+        <v>722</v>
       </c>
       <c r="Q1190" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1190" t="inlineStr">
         <is>
@@ -86085,7 +86085,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1191" t="n">
         <v>13</v>
@@ -86109,32 +86109,32 @@
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K1191" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="L1191" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M1191" t="n">
-        <v>5750</v>
+        <v>11000</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1191" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="Q1191" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1191" t="inlineStr">
         <is>
@@ -86157,7 +86157,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1192" t="n">
         <v>13</v>
@@ -86181,16 +86181,16 @@
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1192" t="n">
         <v>9000</v>
       </c>
       <c r="L1192" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M1192" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
@@ -86199,11 +86199,11 @@
       </c>
       <c r="O1192" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="Q1192" t="n">
         <v>18</v>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1193" t="n">
         <v>13</v>
@@ -86249,36 +86249,36 @@
       </c>
       <c r="I1193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1193" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L1193" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M1193" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1193" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>525</v>
+        <v>333</v>
       </c>
       <c r="Q1193" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1193" t="inlineStr">
         <is>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1194" t="n">
         <v>13</v>
@@ -86316,41 +86316,41 @@
       </c>
       <c r="H1194" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="K1194" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L1194" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M1194" t="n">
-        <v>4750</v>
+        <v>10000</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1194" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>475</v>
+        <v>556</v>
       </c>
       <c r="Q1194" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1194" t="inlineStr">
         <is>
@@ -86373,7 +86373,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1195" t="n">
         <v>13</v>
@@ -86388,16 +86388,16 @@
       </c>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1195" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K1195" t="n">
         <v>8000</v>
@@ -86415,7 +86415,7 @@
       </c>
       <c r="O1195" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1195" t="n">
@@ -86445,7 +86445,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1196" t="n">
         <v>13</v>
@@ -86460,7 +86460,7 @@
       </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1196" t="inlineStr">
@@ -86469,32 +86469,32 @@
         </is>
       </c>
       <c r="J1196" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="K1196" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L1196" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M1196" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1196" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="Q1196" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1196" t="inlineStr">
         <is>
@@ -86532,25 +86532,25 @@
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1197" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="K1197" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="L1197" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="M1197" t="n">
-        <v>4000</v>
+        <v>13514</v>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
@@ -86563,7 +86563,7 @@
         </is>
       </c>
       <c r="P1197" t="n">
-        <v>400</v>
+        <v>1351</v>
       </c>
       <c r="Q1197" t="n">
         <v>10</v>
@@ -86589,7 +86589,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1198" t="n">
         <v>13</v>
@@ -86604,29 +86604,29 @@
       </c>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1198" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K1198" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1198" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M1198" t="n">
-        <v>11023</v>
+        <v>13000</v>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1198" t="inlineStr">
@@ -86635,10 +86635,10 @@
         </is>
       </c>
       <c r="P1198" t="n">
-        <v>1102</v>
+        <v>722</v>
       </c>
       <c r="Q1198" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1198" t="inlineStr">
         <is>
@@ -86661,7 +86661,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1199" t="n">
         <v>13</v>
@@ -86685,20 +86685,20 @@
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="K1199" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L1199" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M1199" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="N1199" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1199" t="inlineStr">
@@ -86707,10 +86707,10 @@
         </is>
       </c>
       <c r="P1199" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="Q1199" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1199" t="inlineStr">
         <is>
@@ -86733,7 +86733,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1200" t="n">
         <v>13</v>
@@ -86757,16 +86757,16 @@
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K1200" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L1200" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M1200" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
@@ -86779,7 +86779,7 @@
         </is>
       </c>
       <c r="P1200" t="n">
-        <v>583</v>
+        <v>639</v>
       </c>
       <c r="Q1200" t="n">
         <v>18</v>
@@ -86805,7 +86805,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1201" t="n">
         <v>13</v>
@@ -86829,20 +86829,20 @@
         </is>
       </c>
       <c r="J1201" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1201" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L1201" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M1201" t="n">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="N1201" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1201" t="inlineStr">
@@ -86851,10 +86851,10 @@
         </is>
       </c>
       <c r="P1201" t="n">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="Q1201" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1201" t="inlineStr">
         <is>
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1202" t="n">
         <v>13</v>
@@ -86897,24 +86897,24 @@
       </c>
       <c r="I1202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1202" t="n">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="K1202" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1202" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M1202" t="n">
-        <v>8500</v>
+        <v>5750</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1202" t="inlineStr">
@@ -86923,10 +86923,10 @@
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>472</v>
+        <v>575</v>
       </c>
       <c r="Q1202" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1202" t="inlineStr">
         <is>
@@ -86949,7 +86949,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1203" t="n">
         <v>13</v>
@@ -86973,20 +86973,20 @@
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="K1203" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="L1203" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M1203" t="n">
-        <v>3495</v>
+        <v>9500</v>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1203" t="inlineStr">
@@ -86995,10 +86995,10 @@
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>350</v>
+        <v>528</v>
       </c>
       <c r="Q1203" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1203" t="inlineStr">
         <is>
@@ -87021,7 +87021,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1204" t="n">
         <v>13</v>
@@ -87041,24 +87041,24 @@
       </c>
       <c r="I1204" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1204" t="n">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K1204" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L1204" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M1204" t="n">
-        <v>6494</v>
+        <v>10500</v>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1204" t="inlineStr">
@@ -87067,10 +87067,10 @@
         </is>
       </c>
       <c r="P1204" t="n">
-        <v>361</v>
+        <v>525</v>
       </c>
       <c r="Q1204" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1204" t="inlineStr">
         <is>
@@ -87093,7 +87093,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1205" t="n">
         <v>13</v>
@@ -87113,20 +87113,20 @@
       </c>
       <c r="I1205" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>52</v>
+        <v>360</v>
       </c>
       <c r="K1205" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L1205" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="M1205" t="n">
-        <v>2000</v>
+        <v>4750</v>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
@@ -87139,7 +87139,7 @@
         </is>
       </c>
       <c r="P1205" t="n">
-        <v>200</v>
+        <v>475</v>
       </c>
       <c r="Q1205" t="n">
         <v>10</v>
@@ -87165,7 +87165,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44277</v>
+        <v>44399</v>
       </c>
       <c r="E1206" t="n">
         <v>13</v>
@@ -87185,20 +87185,20 @@
       </c>
       <c r="I1206" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1206" t="n">
         <v>160</v>
       </c>
       <c r="K1206" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L1206" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M1206" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
@@ -87207,11 +87207,11 @@
       </c>
       <c r="O1206" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q1206" t="n">
         <v>18</v>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44277</v>
+        <v>44399</v>
       </c>
       <c r="E1207" t="n">
         <v>13</v>
@@ -87257,36 +87257,36 @@
       </c>
       <c r="I1207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K1207" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L1207" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M1207" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1207" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>611</v>
+        <v>450</v>
       </c>
       <c r="Q1207" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1207" t="inlineStr">
         <is>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44277</v>
+        <v>44399</v>
       </c>
       <c r="E1208" t="n">
         <v>13</v>
@@ -87329,36 +87329,36 @@
       </c>
       <c r="I1208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="K1208" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L1208" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M1208" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1208" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q1208" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1208" t="inlineStr">
         <is>
@@ -87381,7 +87381,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44277</v>
+        <v>44522</v>
       </c>
       <c r="E1209" t="n">
         <v>13</v>
@@ -87396,41 +87396,41 @@
       </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1209" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K1209" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L1209" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M1209" t="n">
-        <v>9000</v>
+        <v>11023</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>500</v>
+        <v>1102</v>
       </c>
       <c r="Q1209" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1209" t="inlineStr">
         <is>
@@ -87453,7 +87453,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44277</v>
+        <v>44522</v>
       </c>
       <c r="E1210" t="n">
         <v>13</v>
@@ -87468,25 +87468,25 @@
       </c>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K1210" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L1210" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M1210" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
@@ -87495,11 +87495,11 @@
       </c>
       <c r="O1210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1210" t="n">
-        <v>389</v>
+        <v>694</v>
       </c>
       <c r="Q1210" t="n">
         <v>18</v>
@@ -87525,7 +87525,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44277</v>
+        <v>44522</v>
       </c>
       <c r="E1211" t="n">
         <v>13</v>
@@ -87540,25 +87540,25 @@
       </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K1211" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L1211" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M1211" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
@@ -87567,11 +87567,11 @@
       </c>
       <c r="O1211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>278</v>
+        <v>583</v>
       </c>
       <c r="Q1211" t="n">
         <v>18</v>
@@ -87597,7 +87597,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44258</v>
+        <v>44522</v>
       </c>
       <c r="E1212" t="n">
         <v>13</v>
@@ -87612,41 +87612,41 @@
       </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1212" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1212" t="n">
         <v>160</v>
       </c>
       <c r="K1212" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L1212" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M1212" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>389</v>
+        <v>550</v>
       </c>
       <c r="Q1212" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1212" t="inlineStr">
         <is>
@@ -87669,7 +87669,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44258</v>
+        <v>44522</v>
       </c>
       <c r="E1213" t="n">
         <v>13</v>
@@ -87684,25 +87684,25 @@
       </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1213" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1213" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1213" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
@@ -87711,11 +87711,11 @@
       </c>
       <c r="O1213" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>333</v>
+        <v>472</v>
       </c>
       <c r="Q1213" t="n">
         <v>18</v>
@@ -87741,7 +87741,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44285</v>
+        <v>44522</v>
       </c>
       <c r="E1214" t="n">
         <v>13</v>
@@ -87756,41 +87756,41 @@
       </c>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="K1214" t="n">
-        <v>28000</v>
+        <v>3000</v>
       </c>
       <c r="L1214" t="n">
-        <v>28000</v>
+        <v>4000</v>
       </c>
       <c r="M1214" t="n">
-        <v>28000</v>
+        <v>3495</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1214" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>1556</v>
+        <v>350</v>
       </c>
       <c r="Q1214" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1214" t="inlineStr">
         <is>
@@ -87813,7 +87813,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44285</v>
+        <v>44522</v>
       </c>
       <c r="E1215" t="n">
         <v>13</v>
@@ -87833,20 +87833,20 @@
       </c>
       <c r="I1215" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1215" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K1215" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L1215" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M1215" t="n">
-        <v>14000</v>
+        <v>6494</v>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
@@ -87855,11 +87855,11 @@
       </c>
       <c r="O1215" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1215" t="n">
-        <v>778</v>
+        <v>361</v>
       </c>
       <c r="Q1215" t="n">
         <v>18</v>
@@ -87885,7 +87885,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44285</v>
+        <v>44522</v>
       </c>
       <c r="E1216" t="n">
         <v>13</v>
@@ -87905,36 +87905,36 @@
       </c>
       <c r="I1216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>340</v>
+        <v>52</v>
       </c>
       <c r="K1216" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="L1216" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="M1216" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1216" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>667</v>
+        <v>200</v>
       </c>
       <c r="Q1216" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1216" t="inlineStr">
         <is>
@@ -87957,7 +87957,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44285</v>
+        <v>44277</v>
       </c>
       <c r="E1217" t="n">
         <v>13</v>
@@ -87977,20 +87977,20 @@
       </c>
       <c r="I1217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1217" t="n">
         <v>160</v>
       </c>
       <c r="K1217" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1217" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1217" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
@@ -87999,11 +87999,11 @@
       </c>
       <c r="O1217" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q1217" t="n">
         <v>18</v>
@@ -88029,7 +88029,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44285</v>
+        <v>44277</v>
       </c>
       <c r="E1218" t="n">
         <v>13</v>
@@ -88049,20 +88049,20 @@
       </c>
       <c r="I1218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1218" t="n">
         <v>70</v>
       </c>
       <c r="K1218" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1218" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1218" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
@@ -88071,11 +88071,11 @@
       </c>
       <c r="O1218" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1218" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q1218" t="n">
         <v>18</v>
@@ -88101,7 +88101,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44285</v>
+        <v>44277</v>
       </c>
       <c r="E1219" t="n">
         <v>13</v>
@@ -88116,25 +88116,25 @@
       </c>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1219" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K1219" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L1219" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M1219" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
@@ -88143,11 +88143,11 @@
       </c>
       <c r="O1219" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q1219" t="n">
         <v>18</v>
@@ -88173,7 +88173,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44285</v>
+        <v>44277</v>
       </c>
       <c r="E1220" t="n">
         <v>13</v>
@@ -88193,20 +88193,20 @@
       </c>
       <c r="I1220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K1220" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1220" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1220" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
@@ -88219,7 +88219,7 @@
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q1220" t="n">
         <v>18</v>
@@ -88245,7 +88245,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44285</v>
+        <v>44277</v>
       </c>
       <c r="E1221" t="n">
         <v>13</v>
@@ -88265,20 +88265,20 @@
       </c>
       <c r="I1221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K1221" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1221" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1221" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
@@ -88291,7 +88291,7 @@
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q1221" t="n">
         <v>18</v>
@@ -88317,7 +88317,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44285</v>
+        <v>44277</v>
       </c>
       <c r="E1222" t="n">
         <v>13</v>
@@ -88337,20 +88337,20 @@
       </c>
       <c r="I1222" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1222" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1222" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1222" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
@@ -88363,7 +88363,7 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="Q1222" t="n">
         <v>18</v>
@@ -88389,7 +88389,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44498</v>
+        <v>44258</v>
       </c>
       <c r="E1223" t="n">
         <v>13</v>
@@ -88404,41 +88404,41 @@
       </c>
       <c r="H1223" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K1223" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="L1223" t="n">
         <v>7000</v>
       </c>
       <c r="M1223" t="n">
-        <v>6654</v>
+        <v>7000</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1223" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>665</v>
+        <v>389</v>
       </c>
       <c r="Q1223" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1223" t="inlineStr">
         <is>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44498</v>
+        <v>44258</v>
       </c>
       <c r="E1224" t="n">
         <v>13</v>
@@ -88476,41 +88476,41 @@
       </c>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="K1224" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1224" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M1224" t="n">
-        <v>5353</v>
+        <v>6000</v>
       </c>
       <c r="N1224" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1224" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1224" t="n">
-        <v>535</v>
+        <v>333</v>
       </c>
       <c r="Q1224" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1224" t="inlineStr">
         <is>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44498</v>
+        <v>44285</v>
       </c>
       <c r="E1225" t="n">
         <v>13</v>
@@ -88548,41 +88548,41 @@
       </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1225" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="K1225" t="n">
-        <v>3000</v>
+        <v>28000</v>
       </c>
       <c r="L1225" t="n">
-        <v>3500</v>
+        <v>28000</v>
       </c>
       <c r="M1225" t="n">
-        <v>3385</v>
+        <v>28000</v>
       </c>
       <c r="N1225" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1225" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1225" t="n">
-        <v>338</v>
+        <v>1556</v>
       </c>
       <c r="Q1225" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1225" t="inlineStr">
         <is>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44179</v>
+        <v>44285</v>
       </c>
       <c r="E1226" t="n">
         <v>13</v>
@@ -88620,29 +88620,29 @@
       </c>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K1226" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L1226" t="n">
         <v>14000</v>
       </c>
       <c r="M1226" t="n">
-        <v>13400</v>
+        <v>14000</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1226" t="inlineStr">
@@ -88651,10 +88651,10 @@
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>893</v>
+        <v>778</v>
       </c>
       <c r="Q1226" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1226" t="inlineStr">
         <is>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44179</v>
+        <v>44285</v>
       </c>
       <c r="E1227" t="n">
         <v>13</v>
@@ -88692,7 +88692,7 @@
       </c>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1227" t="inlineStr">
@@ -88701,32 +88701,32 @@
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="K1227" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="L1227" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1227" t="n">
-        <v>9727</v>
+        <v>12000</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1227" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>973</v>
+        <v>667</v>
       </c>
       <c r="Q1227" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1227" t="inlineStr">
         <is>
@@ -88749,7 +88749,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44552</v>
+        <v>44285</v>
       </c>
       <c r="E1228" t="n">
         <v>13</v>
@@ -88764,25 +88764,25 @@
       </c>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K1228" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L1228" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M1228" t="n">
-        <v>22960</v>
+        <v>10000</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
@@ -88791,11 +88791,11 @@
       </c>
       <c r="O1228" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>1276</v>
+        <v>556</v>
       </c>
       <c r="Q1228" t="n">
         <v>18</v>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44552</v>
+        <v>44285</v>
       </c>
       <c r="E1229" t="n">
         <v>13</v>
@@ -88841,20 +88841,20 @@
       </c>
       <c r="I1229" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1229" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="K1229" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L1229" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M1229" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
@@ -88867,7 +88867,7 @@
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>861</v>
+        <v>500</v>
       </c>
       <c r="Q1229" t="n">
         <v>18</v>
@@ -88893,7 +88893,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44552</v>
+        <v>44285</v>
       </c>
       <c r="E1230" t="n">
         <v>13</v>
@@ -88908,7 +88908,7 @@
       </c>
       <c r="H1230" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1230" t="inlineStr">
@@ -88917,16 +88917,16 @@
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K1230" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L1230" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M1230" t="n">
-        <v>15495</v>
+        <v>8000</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
@@ -88935,11 +88935,11 @@
       </c>
       <c r="O1230" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>861</v>
+        <v>444</v>
       </c>
       <c r="Q1230" t="n">
         <v>18</v>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44552</v>
+        <v>44285</v>
       </c>
       <c r="E1231" t="n">
         <v>13</v>
@@ -88980,7 +88980,7 @@
       </c>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1231" t="inlineStr">
@@ -88989,16 +88989,16 @@
         </is>
       </c>
       <c r="J1231" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K1231" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L1231" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M1231" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
@@ -89007,11 +89007,11 @@
       </c>
       <c r="O1231" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>750</v>
+        <v>389</v>
       </c>
       <c r="Q1231" t="n">
         <v>18</v>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44552</v>
+        <v>44285</v>
       </c>
       <c r="E1232" t="n">
         <v>13</v>
@@ -89052,25 +89052,25 @@
       </c>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K1232" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L1232" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M1232" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
@@ -89079,11 +89079,11 @@
       </c>
       <c r="O1232" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>750</v>
+        <v>333</v>
       </c>
       <c r="Q1232" t="n">
         <v>18</v>
@@ -89109,7 +89109,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44552</v>
+        <v>44285</v>
       </c>
       <c r="E1233" t="n">
         <v>13</v>
@@ -89124,25 +89124,25 @@
       </c>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K1233" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L1233" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M1233" t="n">
-        <v>11494</v>
+        <v>4000</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
@@ -89151,11 +89151,11 @@
       </c>
       <c r="O1233" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>639</v>
+        <v>222</v>
       </c>
       <c r="Q1233" t="n">
         <v>18</v>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44552</v>
+        <v>44498</v>
       </c>
       <c r="E1234" t="n">
         <v>13</v>
@@ -89201,36 +89201,36 @@
       </c>
       <c r="I1234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="K1234" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="L1234" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M1234" t="n">
-        <v>11500</v>
+        <v>6654</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1234" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="Q1234" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1234" t="inlineStr">
         <is>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44552</v>
+        <v>44498</v>
       </c>
       <c r="E1235" t="n">
         <v>13</v>
@@ -89273,36 +89273,36 @@
       </c>
       <c r="I1235" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="K1235" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L1235" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M1235" t="n">
-        <v>9500</v>
+        <v>5353</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1235" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="Q1235" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1235" t="inlineStr">
         <is>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44552</v>
+        <v>44498</v>
       </c>
       <c r="E1236" t="n">
         <v>13</v>
@@ -89349,32 +89349,32 @@
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="K1236" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="L1236" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="M1236" t="n">
-        <v>9512</v>
+        <v>3385</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1236" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>528</v>
+        <v>338</v>
       </c>
       <c r="Q1236" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1236" t="inlineStr">
         <is>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44544</v>
+        <v>44179</v>
       </c>
       <c r="E1237" t="n">
         <v>13</v>
@@ -89412,29 +89412,29 @@
       </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1237" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K1237" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1237" t="n">
         <v>14000</v>
       </c>
-      <c r="L1237" t="n">
-        <v>15000</v>
-      </c>
       <c r="M1237" t="n">
-        <v>14500</v>
+        <v>13400</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 15 kilos</t>
         </is>
       </c>
       <c r="O1237" t="inlineStr">
@@ -89443,10 +89443,10 @@
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>806</v>
+        <v>893</v>
       </c>
       <c r="Q1237" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1237" t="inlineStr">
         <is>
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44544</v>
+        <v>44179</v>
       </c>
       <c r="E1238" t="n">
         <v>13</v>
@@ -89484,7 +89484,7 @@
       </c>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1238" t="inlineStr">
@@ -89493,32 +89493,32 @@
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="K1238" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="L1238" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M1238" t="n">
-        <v>12500</v>
+        <v>9727</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1238" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>694</v>
+        <v>973</v>
       </c>
       <c r="Q1238" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1238" t="inlineStr">
         <is>
@@ -89541,7 +89541,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1239" t="n">
         <v>13</v>
@@ -89556,25 +89556,25 @@
       </c>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K1239" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L1239" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="M1239" t="n">
-        <v>10500</v>
+        <v>22960</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89583,11 +89583,11 @@
       </c>
       <c r="O1239" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>583</v>
+        <v>1276</v>
       </c>
       <c r="Q1239" t="n">
         <v>18</v>
@@ -89613,58 +89613,850 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1240" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1240" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1240" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1240" t="n">
+        <v>106</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1240" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M1240" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N1240" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1240" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1240" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q1240" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1240" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1241" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1241" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1241" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1241" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1241" t="n">
+        <v>97</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1241" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M1241" t="n">
+        <v>15495</v>
+      </c>
+      <c r="N1241" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1241" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1241" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q1241" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1241" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1242" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1242" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1242" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1242" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1242" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1242" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M1242" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N1242" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1242" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1242" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1242" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1242" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1243" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1243" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1243" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1243" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1243" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1243" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M1243" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N1243" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1243" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1243" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1243" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1243" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1244" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1244" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1244" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1244" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1244" t="n">
+        <v>79</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L1244" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M1244" t="n">
+        <v>11494</v>
+      </c>
+      <c r="N1244" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1244" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1244" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q1244" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1244" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1245" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1245" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1245" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1245" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1245" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L1245" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M1245" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N1245" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1245" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1245" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q1245" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1245" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1246" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1246" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1246" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1246" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1246" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1246" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M1246" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N1246" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1246" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1246" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q1246" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1246" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1247" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1247" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1247" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1247" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1247" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1247" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M1247" t="n">
+        <v>9512</v>
+      </c>
+      <c r="N1247" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1247" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1247" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q1247" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1247" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1248" s="2" t="n">
         <v>44544</v>
       </c>
-      <c r="E1240" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1240" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G1240" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H1240" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I1240" t="inlineStr">
+      <c r="E1248" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1248" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1248" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1248" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1248" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N1248" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1248" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1248" t="n">
+        <v>806</v>
+      </c>
+      <c r="Q1248" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1248" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1249" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1249" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1249" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1249" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1249" t="n">
+        <v>340</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N1249" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1249" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1249" t="n">
+        <v>694</v>
+      </c>
+      <c r="Q1249" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1249" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1250" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1250" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1250" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1250" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1250" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N1250" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1250" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1250" t="n">
+        <v>583</v>
+      </c>
+      <c r="Q1250" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1250" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1251" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1251" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1251" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1251" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J1240" t="n">
+      <c r="J1251" t="n">
         <v>79</v>
       </c>
-      <c r="K1240" t="n">
+      <c r="K1251" t="n">
         <v>6000</v>
       </c>
-      <c r="L1240" t="n">
+      <c r="L1251" t="n">
         <v>7000</v>
       </c>
-      <c r="M1240" t="n">
+      <c r="M1251" t="n">
         <v>6494</v>
       </c>
-      <c r="N1240" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O1240" t="inlineStr">
+      <c r="N1251" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1251" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P1240" t="n">
+      <c r="P1251" t="n">
         <v>361</v>
       </c>
-      <c r="Q1240" t="n">
-        <v>18</v>
-      </c>
-      <c r="R1240" t="inlineStr">
+      <c r="Q1251" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1251" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1326"/>
+  <dimension ref="A1:R1337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94941,7 +94941,7 @@
         </is>
       </c>
       <c r="D1314" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1314" t="n">
         <v>13</v>
@@ -94956,25 +94956,25 @@
       </c>
       <c r="H1314" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1314" t="n">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="K1314" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L1314" t="n">
         <v>22000</v>
       </c>
-      <c r="L1314" t="n">
-        <v>24000</v>
-      </c>
       <c r="M1314" t="n">
-        <v>22960</v>
+        <v>21500</v>
       </c>
       <c r="N1314" t="inlineStr">
         <is>
@@ -94983,11 +94983,11 @@
       </c>
       <c r="O1314" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1314" t="n">
-        <v>1276</v>
+        <v>1194</v>
       </c>
       <c r="Q1314" t="n">
         <v>18</v>
@@ -95013,7 +95013,7 @@
         </is>
       </c>
       <c r="D1315" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1315" t="n">
         <v>13</v>
@@ -95037,16 +95037,16 @@
         </is>
       </c>
       <c r="J1315" t="n">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K1315" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L1315" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M1315" t="n">
-        <v>15500</v>
+        <v>21479</v>
       </c>
       <c r="N1315" t="inlineStr">
         <is>
@@ -95055,11 +95055,11 @@
       </c>
       <c r="O1315" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1315" t="n">
-        <v>861</v>
+        <v>1193</v>
       </c>
       <c r="Q1315" t="n">
         <v>18</v>
@@ -95085,7 +95085,7 @@
         </is>
       </c>
       <c r="D1316" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1316" t="n">
         <v>13</v>
@@ -95105,20 +95105,20 @@
       </c>
       <c r="I1316" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="K1316" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L1316" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M1316" t="n">
-        <v>15495</v>
+        <v>19500</v>
       </c>
       <c r="N1316" t="inlineStr">
         <is>
@@ -95127,11 +95127,11 @@
       </c>
       <c r="O1316" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1316" t="n">
-        <v>861</v>
+        <v>1083</v>
       </c>
       <c r="Q1316" t="n">
         <v>18</v>
@@ -95157,7 +95157,7 @@
         </is>
       </c>
       <c r="D1317" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1317" t="n">
         <v>13</v>
@@ -95181,16 +95181,16 @@
         </is>
       </c>
       <c r="J1317" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K1317" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L1317" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M1317" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
@@ -95199,11 +95199,11 @@
       </c>
       <c r="O1317" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>750</v>
+        <v>1083</v>
       </c>
       <c r="Q1317" t="n">
         <v>18</v>
@@ -95229,7 +95229,7 @@
         </is>
       </c>
       <c r="D1318" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1318" t="n">
         <v>13</v>
@@ -95249,20 +95249,20 @@
       </c>
       <c r="I1318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1318" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K1318" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L1318" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M1318" t="n">
-        <v>13500</v>
+        <v>17495</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
@@ -95271,11 +95271,11 @@
       </c>
       <c r="O1318" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>750</v>
+        <v>972</v>
       </c>
       <c r="Q1318" t="n">
         <v>18</v>
@@ -95301,7 +95301,7 @@
         </is>
       </c>
       <c r="D1319" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1319" t="n">
         <v>13</v>
@@ -95328,13 +95328,13 @@
         <v>79</v>
       </c>
       <c r="K1319" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L1319" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M1319" t="n">
-        <v>11494</v>
+        <v>17494</v>
       </c>
       <c r="N1319" t="inlineStr">
         <is>
@@ -95343,11 +95343,11 @@
       </c>
       <c r="O1319" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>639</v>
+        <v>972</v>
       </c>
       <c r="Q1319" t="n">
         <v>18</v>
@@ -95373,7 +95373,7 @@
         </is>
       </c>
       <c r="D1320" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1320" t="n">
         <v>13</v>
@@ -95393,20 +95393,20 @@
       </c>
       <c r="I1320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1320" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K1320" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1320" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M1320" t="n">
-        <v>11500</v>
+        <v>15494</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
@@ -95415,11 +95415,11 @@
       </c>
       <c r="O1320" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>639</v>
+        <v>861</v>
       </c>
       <c r="Q1320" t="n">
         <v>18</v>
@@ -95445,7 +95445,7 @@
         </is>
       </c>
       <c r="D1321" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1321" t="n">
         <v>13</v>
@@ -95472,13 +95472,13 @@
         <v>52</v>
       </c>
       <c r="K1321" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L1321" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M1321" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="N1321" t="inlineStr">
         <is>
@@ -95487,11 +95487,11 @@
       </c>
       <c r="O1321" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1321" t="n">
-        <v>528</v>
+        <v>861</v>
       </c>
       <c r="Q1321" t="n">
         <v>18</v>
@@ -95517,7 +95517,7 @@
         </is>
       </c>
       <c r="D1322" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E1322" t="n">
         <v>13</v>
@@ -95532,25 +95532,25 @@
       </c>
       <c r="H1322" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1322" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1322" t="n">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="K1322" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L1322" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1322" t="n">
-        <v>9512</v>
+        <v>12500</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
@@ -95563,7 +95563,7 @@
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>528</v>
+        <v>694</v>
       </c>
       <c r="Q1322" t="n">
         <v>18</v>
@@ -95589,7 +95589,7 @@
         </is>
       </c>
       <c r="D1323" s="2" t="n">
-        <v>44544</v>
+        <v>44628</v>
       </c>
       <c r="E1323" t="n">
         <v>13</v>
@@ -95604,25 +95604,25 @@
       </c>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1323" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1323" t="n">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="K1323" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L1323" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M1323" t="n">
-        <v>14500</v>
+        <v>10494</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
@@ -95631,11 +95631,11 @@
       </c>
       <c r="O1323" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>806</v>
+        <v>583</v>
       </c>
       <c r="Q1323" t="n">
         <v>18</v>
@@ -95661,7 +95661,7 @@
         </is>
       </c>
       <c r="D1324" s="2" t="n">
-        <v>44544</v>
+        <v>44628</v>
       </c>
       <c r="E1324" t="n">
         <v>13</v>
@@ -95676,25 +95676,25 @@
       </c>
       <c r="H1324" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1324" t="n">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="K1324" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L1324" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M1324" t="n">
-        <v>12500</v>
+        <v>8512</v>
       </c>
       <c r="N1324" t="inlineStr">
         <is>
@@ -95703,11 +95703,11 @@
       </c>
       <c r="O1324" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1324" t="n">
-        <v>694</v>
+        <v>473</v>
       </c>
       <c r="Q1324" t="n">
         <v>18</v>
@@ -95733,7 +95733,7 @@
         </is>
       </c>
       <c r="D1325" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1325" t="n">
         <v>13</v>
@@ -95748,25 +95748,25 @@
       </c>
       <c r="H1325" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1325" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="K1325" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L1325" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="M1325" t="n">
-        <v>10500</v>
+        <v>22960</v>
       </c>
       <c r="N1325" t="inlineStr">
         <is>
@@ -95775,11 +95775,11 @@
       </c>
       <c r="O1325" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P1325" t="n">
-        <v>583</v>
+        <v>1276</v>
       </c>
       <c r="Q1325" t="n">
         <v>18</v>
@@ -95805,58 +95805,850 @@
         </is>
       </c>
       <c r="D1326" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1326" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1326" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1326" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1326" t="n">
+        <v>106</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>15500</v>
+      </c>
+      <c r="N1326" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1326" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1326" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1326" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1327" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1327" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1327" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1327" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1327" t="n">
+        <v>97</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>15495</v>
+      </c>
+      <c r="N1327" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1327" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1327" t="n">
+        <v>861</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1327" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1328" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1328" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1328" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1328" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1328" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N1328" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1328" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1328" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1328" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1329" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1329" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1329" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1329" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1329" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N1329" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1329" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1329" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1329" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1330" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1330" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1330" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1330" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1330" t="n">
+        <v>79</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>11494</v>
+      </c>
+      <c r="N1330" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1330" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1330" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1330" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1331" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1331" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1331" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1331" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1331" t="n">
+        <v>70</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N1331" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1331" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1331" t="n">
+        <v>639</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1331" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1332" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1332" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1332" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1332" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1332" t="n">
+        <v>52</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N1332" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1332" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1332" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1332" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1333" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1333" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1333" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1333" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J1333" t="n">
+        <v>43</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>9512</v>
+      </c>
+      <c r="N1333" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1333" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P1333" t="n">
+        <v>528</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1333" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1334" s="2" t="n">
         <v>44544</v>
       </c>
-      <c r="E1326" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1326" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G1326" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I1326" t="inlineStr">
+      <c r="E1334" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1334" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1334" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1334" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1334" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N1334" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1334" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1334" t="n">
+        <v>806</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1334" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1335" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1335" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1335" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1335" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1335" t="n">
+        <v>340</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N1335" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1335" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1335" t="n">
+        <v>694</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1335" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1336" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1336" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1336" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1336" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1336" t="n">
+        <v>160</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N1336" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1336" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="P1336" t="n">
+        <v>583</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1336" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1337" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1337" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1337" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1337" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J1326" t="n">
+      <c r="J1337" t="n">
         <v>79</v>
       </c>
-      <c r="K1326" t="n">
+      <c r="K1337" t="n">
         <v>6000</v>
       </c>
-      <c r="L1326" t="n">
+      <c r="L1337" t="n">
         <v>7000</v>
       </c>
-      <c r="M1326" t="n">
+      <c r="M1337" t="n">
         <v>6494</v>
       </c>
-      <c r="N1326" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O1326" t="inlineStr">
+      <c r="N1337" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1337" t="inlineStr">
         <is>
           <t>Provincia de Quillota</t>
         </is>
       </c>
-      <c r="P1326" t="n">
+      <c r="P1337" t="n">
         <v>361</v>
       </c>
-      <c r="Q1326" t="n">
-        <v>18</v>
-      </c>
-      <c r="R1326" t="inlineStr">
+      <c r="Q1337" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1337" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
